--- a/ControlTowerSystemDatabaseSchema.xlsx
+++ b/ControlTowerSystemDatabaseSchema.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\thanthtet.myet\Documents\01_Willowglen\03_ServiceReportSystem\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\thanthtet.myet\Documents\01_Willowglen\02_Workplace\ControlTower\ControlTower_Note\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D678429C-7DCA-4F9D-BB9F-EA23317F85F6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D7D20E3B-3FCA-43D7-B0ED-ED3E167B7D07}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="3" xr2:uid="{EB4BDDAD-CEF0-4ED0-94FA-11B08D0D68E4}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="4" xr2:uid="{EB4BDDAD-CEF0-4ED0-94FA-11B08D0D68E4}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="332" uniqueCount="153">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="386" uniqueCount="184">
   <si>
     <t>Table Name</t>
   </si>
@@ -497,13 +497,119 @@
   </si>
   <si>
     <t>News</t>
+  </si>
+  <si>
+    <t>Rate: (int, null)</t>
+  </si>
+  <si>
+    <t>NewsImages</t>
+  </si>
+  <si>
+    <t>Title: (nvarchar(255), not null)</t>
+  </si>
+  <si>
+    <t>Slug: (nvarchar(255), unique, not null)</t>
+  </si>
+  <si>
+    <t>Description: (nvarchar(max), null)</t>
+  </si>
+  <si>
+    <t>Excerpt: (nvarchar(500), null)</t>
+  </si>
+  <si>
+    <t>Remark: (nvarchar(255), null)</t>
+  </si>
+  <si>
+    <t>ViewCount: (int, default 0, not null)</t>
+  </si>
+  <si>
+    <t>PublishDate: (DateTime, null)</t>
+  </si>
+  <si>
+    <t>IsPublished: (bool, default false, not null)</t>
+  </si>
+  <si>
+    <t>Name: (nvarchar(255), not null)</t>
+  </si>
+  <si>
+    <t>Description: (nvarchar(500), null)</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">ParentCategoryID: (FK from Category, null) — </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(for sub-categories, e.g., “Sports → Football”)</t>
+    </r>
+  </si>
+  <si>
+    <t>NewsID: (FK from News, not null)</t>
+  </si>
+  <si>
+    <t>UploadedDate: (DateTime, not null)</t>
+  </si>
+  <si>
+    <t>UploadedBy: (FK from User, not null)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Name: (nvarchar(255), not null) </t>
+  </si>
+  <si>
+    <t>StoredDirectory: (nvarchar(500), not null)</t>
+  </si>
+  <si>
+    <t>UploadedStatus: (nvarchar(50), not null)</t>
+  </si>
+  <si>
+    <t>AltText: (nvarchar(255), null)</t>
+  </si>
+  <si>
+    <t>Caption: (nvarchar(255), null)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IsFeatured: (bool, default false, not null) </t>
+  </si>
+  <si>
+    <t>UserID: (FK from User, not null)</t>
+  </si>
+  <si>
+    <t>ParentCommentID: (FK from Comments, null)</t>
+  </si>
+  <si>
+    <t>Content: (nvarchar(max), not null)</t>
+  </si>
+  <si>
+    <t>IsApproved: (bool, default false, not null)</t>
+  </si>
+  <si>
+    <t>ReactionType: (nvarchar(50), not null) — (e.g., Like, Dislike, Love, Angry, Wow)</t>
+  </si>
+  <si>
+    <t>NewsCategory</t>
+  </si>
+  <si>
+    <t>NewsComments</t>
+  </si>
+  <si>
+    <t>NewsReactions</t>
+  </si>
+  <si>
+    <t>NewsCategoryID: (FK from Category, not null)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -513,6 +619,14 @@
     </font>
     <font>
       <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -591,7 +705,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -622,6 +736,10 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1246,8 +1364,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{964FE91A-D8DF-42C2-BA38-81E4FBFE8C98}">
   <dimension ref="A1:N54"/>
   <sheetViews>
-    <sheetView topLeftCell="D16" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I50" sqref="I50"/>
+    <sheetView topLeftCell="A28" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C32" sqref="C32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1980,8 +2098,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7A56A3A2-9F47-4A03-BD8E-A94BF6CBF8B3}">
   <dimension ref="A1:E47"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="F33" sqref="F33"/>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="A13" sqref="A13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2380,46 +2498,278 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{47F27588-59A4-4276-A592-3FC52DED8465}">
-  <dimension ref="A1:A9"/>
+  <dimension ref="A1:E42"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A5" sqref="A5:A9"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="39.109375" customWidth="1"/>
+    <col min="1" max="1" width="39.109375" style="5" customWidth="1"/>
+    <col min="2" max="2" width="3.44140625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="63.44140625" style="5" customWidth="1"/>
+    <col min="4" max="4" width="3.44140625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="79.33203125" style="5" customWidth="1"/>
+    <col min="6" max="16384" width="8.88671875" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1" s="14" t="s">
         <v>152</v>
       </c>
-    </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="C1" s="14" t="s">
+        <v>154</v>
+      </c>
+      <c r="E1" s="14" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2" s="15"/>
+      <c r="C2" s="15"/>
+      <c r="E2" s="5" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A3" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="E3" s="5" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A4" s="5" t="s">
+        <v>155</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>166</v>
+      </c>
+      <c r="E4" s="5" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" s="5" t="s">
+        <v>156</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>169</v>
+      </c>
+      <c r="E5" s="5" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A6" s="5" t="s">
+        <v>157</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>170</v>
+      </c>
+      <c r="E6" s="5" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A7" s="5" t="s">
+        <v>158</v>
+      </c>
+      <c r="C7" s="5" t="s">
+        <v>171</v>
+      </c>
+      <c r="E7" s="5" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A6" s="5" t="s">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A8" s="5" t="s">
+        <v>159</v>
+      </c>
+      <c r="C8" s="5" t="s">
+        <v>172</v>
+      </c>
+      <c r="E8" s="5" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A7" s="5" t="s">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A9" s="5" t="s">
+        <v>183</v>
+      </c>
+      <c r="C9" s="5" t="s">
+        <v>173</v>
+      </c>
+      <c r="E9" s="5" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A8" s="5" t="s">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A10" s="5" t="s">
+        <v>153</v>
+      </c>
+      <c r="C10" s="5" t="s">
+        <v>174</v>
+      </c>
+      <c r="E10" s="5" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A9" s="5" t="s">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A11" s="5" t="s">
+        <v>160</v>
+      </c>
+      <c r="C11" s="5" t="s">
+        <v>129</v>
+      </c>
+      <c r="E11" s="5" t="s">
         <v>143</v>
       </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A12" s="5" t="s">
+        <v>161</v>
+      </c>
+      <c r="C12" s="5" t="s">
+        <v>167</v>
+      </c>
+      <c r="E12" s="1"/>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A13" s="5" t="s">
+        <v>162</v>
+      </c>
+      <c r="C13" s="5" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A14" s="5" t="s">
+        <v>129</v>
+      </c>
+      <c r="C14" s="1"/>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A15" s="5" t="s">
+        <v>130</v>
+      </c>
+      <c r="C15" s="14" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A16" s="5" t="s">
+        <v>131</v>
+      </c>
+      <c r="C16" s="5" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A17" s="5" t="s">
+        <v>142</v>
+      </c>
+      <c r="C17" s="5" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A18" s="5" t="s">
+        <v>143</v>
+      </c>
+      <c r="C18" s="5" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A19" s="1"/>
+      <c r="C19" s="5" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A20" s="14" t="s">
+        <v>181</v>
+      </c>
+      <c r="C20" s="5" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A21" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="C21" s="5" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A22" s="5" t="s">
+        <v>166</v>
+      </c>
+      <c r="C22" s="5" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A23" s="5" t="s">
+        <v>175</v>
+      </c>
+      <c r="C23" s="1"/>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A24" s="5" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A25" s="5" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A26" s="5" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A27" s="5" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A28" s="5" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A29" s="5" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A30" s="5" t="s">
+        <v>142</v>
+      </c>
+      <c r="B30" s="4"/>
+      <c r="D30" s="4"/>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A31" s="5" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A32" s="1"/>
+    </row>
+    <row r="42" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B42" s="4"/>
+      <c r="D42" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/ControlTowerSystemDatabaseSchema.xlsx
+++ b/ControlTowerSystemDatabaseSchema.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\thanthtet.myet\Documents\01_Willowglen\02_Workplace\ControlTower\ControlTower_Note\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D7D20E3B-3FCA-43D7-B0ED-ED3E167B7D07}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4823CA00-AADE-4CAB-A332-EFFFAF61C17B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="4" xr2:uid="{EB4BDDAD-CEF0-4ED0-94FA-11B08D0D68E4}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="3" xr2:uid="{EB4BDDAD-CEF0-4ED0-94FA-11B08D0D68E4}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="386" uniqueCount="184">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="407" uniqueCount="192">
   <si>
     <t>Table Name</t>
   </si>
@@ -603,6 +603,30 @@
   </si>
   <si>
     <t>NewsCategoryID: (FK from Category, not null)</t>
+  </si>
+  <si>
+    <t>EmergencyContactName: (nvarchar(200),null)</t>
+  </si>
+  <si>
+    <t>EmergencyContactNumber:(int,null)</t>
+  </si>
+  <si>
+    <t>EmergencyRelationship:(nvarchar(200),null))</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ImageName: (nvarchar(255), not null) </t>
+  </si>
+  <si>
+    <t>UserImage</t>
+  </si>
+  <si>
+    <t>ImageType</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ImageTypeName: (nvarchar(255), not null) </t>
+  </si>
+  <si>
+    <t>ImageTypeID:  (FK from ImageType, not null)</t>
   </si>
 </sst>
 </file>
@@ -1364,7 +1388,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{964FE91A-D8DF-42C2-BA38-81E4FBFE8C98}">
   <dimension ref="A1:N54"/>
   <sheetViews>
-    <sheetView topLeftCell="A28" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="C32" sqref="C32"/>
     </sheetView>
   </sheetViews>
@@ -2096,10 +2120,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7A56A3A2-9F47-4A03-BD8E-A94BF6CBF8B3}">
-  <dimension ref="A1:E47"/>
+  <dimension ref="A1:F50"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="A13" sqref="A13"/>
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2113,8 +2137,8 @@
     <col min="7" max="16384" width="8.88671875" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="2" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="2" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2" s="13" t="s">
         <v>76</v>
       </c>
@@ -2123,108 +2147,159 @@
         <v>63</v>
       </c>
       <c r="D2" s="1"/>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E2" s="14" t="s">
+        <v>188</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
         <v>80</v>
       </c>
       <c r="C3" s="5" t="s">
         <v>80</v>
       </c>
-      <c r="E3" s="3"/>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E3" s="15"/>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
         <v>33</v>
       </c>
       <c r="C4" s="5" t="s">
         <v>118</v>
       </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E4" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="F4" s="5" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" s="3" t="s">
         <v>79</v>
       </c>
       <c r="C5" s="5" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E5" s="5" t="s">
+        <v>175</v>
+      </c>
+      <c r="F5" s="5" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" s="3" t="s">
         <v>78</v>
       </c>
       <c r="C6" s="5" t="s">
         <v>119</v>
       </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E6" s="5" t="s">
+        <v>191</v>
+      </c>
+      <c r="F6" s="5" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" s="3" t="s">
         <v>77</v>
       </c>
       <c r="C7" s="5" t="s">
         <v>120</v>
       </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E7" s="5" t="s">
+        <v>187</v>
+      </c>
+      <c r="F7" s="5" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" s="3" t="s">
         <v>27</v>
       </c>
       <c r="C8" s="5" t="s">
         <v>121</v>
       </c>
-      <c r="E8" s="3"/>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E8" s="5" t="s">
+        <v>170</v>
+      </c>
+      <c r="F8" s="5" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" s="3" t="s">
         <v>29</v>
       </c>
       <c r="C9" s="5" t="s">
         <v>122</v>
       </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E9" s="5" t="s">
+        <v>171</v>
+      </c>
+      <c r="F9" s="5" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" s="3" t="s">
         <v>28</v>
       </c>
       <c r="C10" s="5" t="s">
         <v>123</v>
       </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E10" s="5" t="s">
+        <v>129</v>
+      </c>
+      <c r="F10" s="5" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11" s="3" t="s">
         <v>83</v>
       </c>
       <c r="C11" s="5" t="s">
         <v>124</v>
       </c>
-      <c r="E11" s="3"/>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E11" s="5" t="s">
+        <v>167</v>
+      </c>
+      <c r="F11" s="1"/>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12" s="3" t="s">
         <v>84</v>
       </c>
       <c r="C12" s="5" t="s">
         <v>125</v>
       </c>
-      <c r="E12" s="3"/>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E12" s="5" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13" s="1"/>
       <c r="C13" s="5" t="s">
         <v>126</v>
       </c>
-      <c r="E13" s="3"/>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E13" s="1"/>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14" s="13" t="s">
         <v>81</v>
       </c>
       <c r="C14" s="5" t="s">
         <v>127</v>
       </c>
-      <c r="E14" s="3"/>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A15" s="3" t="s">
         <v>80</v>
       </c>
@@ -2233,7 +2308,7 @@
       </c>
       <c r="E15" s="3"/>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A16" s="3" t="s">
         <v>82</v>
       </c>
@@ -2364,14 +2439,16 @@
       <c r="A31" s="3" t="s">
         <v>77</v>
       </c>
-      <c r="C31" s="1"/>
+      <c r="C31" s="5" t="s">
+        <v>184</v>
+      </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A32" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="C32" s="13" t="s">
-        <v>144</v>
+      <c r="C32" s="5" t="s">
+        <v>185</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.3">
@@ -2379,23 +2456,21 @@
         <v>29</v>
       </c>
       <c r="C33" s="5" t="s">
-        <v>80</v>
+        <v>186</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A34" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="C34" s="5" t="s">
-        <v>145</v>
-      </c>
+      <c r="C34" s="1"/>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A35" s="3" t="s">
         <v>83</v>
       </c>
-      <c r="C35" s="5" t="s">
-        <v>146</v>
+      <c r="C35" s="13" t="s">
+        <v>144</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.3">
@@ -2403,13 +2478,13 @@
         <v>84</v>
       </c>
       <c r="C36" s="5" t="s">
-        <v>147</v>
+        <v>80</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A37" s="1"/>
       <c r="C37" s="5" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.3">
@@ -2417,7 +2492,7 @@
         <v>88</v>
       </c>
       <c r="C38" s="5" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.3">
@@ -2425,7 +2500,7 @@
         <v>89</v>
       </c>
       <c r="C39" s="5" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.3">
@@ -2433,7 +2508,7 @@
         <v>90</v>
       </c>
       <c r="C40" s="5" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.3">
@@ -2441,7 +2516,7 @@
         <v>79</v>
       </c>
       <c r="C41" s="5" t="s">
-        <v>127</v>
+        <v>149</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.3">
@@ -2450,7 +2525,7 @@
       </c>
       <c r="B42" s="4"/>
       <c r="C42" s="5" t="s">
-        <v>129</v>
+        <v>150</v>
       </c>
       <c r="D42" s="4"/>
     </row>
@@ -2459,7 +2534,7 @@
         <v>29</v>
       </c>
       <c r="C43" s="5" t="s">
-        <v>130</v>
+        <v>151</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.3">
@@ -2467,7 +2542,7 @@
         <v>28</v>
       </c>
       <c r="C44" s="5" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.3">
@@ -2475,7 +2550,7 @@
         <v>83</v>
       </c>
       <c r="C45" s="5" t="s">
-        <v>142</v>
+        <v>129</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.3">
@@ -2483,12 +2558,27 @@
         <v>84</v>
       </c>
       <c r="C46" s="5" t="s">
-        <v>143</v>
+        <v>130</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A47" s="1"/>
-      <c r="C47" s="1"/>
+      <c r="C47" s="5" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C48" s="5" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="49" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C49" s="5" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="50" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C50" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2500,8 +2590,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{47F27588-59A4-4276-A592-3FC52DED8465}">
   <dimension ref="A1:E42"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="A10" sqref="A10"/>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="C1" sqref="C1:C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/ControlTowerSystemDatabaseSchema.xlsx
+++ b/ControlTowerSystemDatabaseSchema.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\thanthtet.myet\Documents\01_Willowglen\02_Workplace\ControlTower\ControlTower_Note\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4823CA00-AADE-4CAB-A332-EFFFAF61C17B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8EC7E41F-9A05-4A5E-951E-95B096431988}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="3" xr2:uid="{EB4BDDAD-CEF0-4ED0-94FA-11B08D0D68E4}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="2" activeTab="3" xr2:uid="{EB4BDDAD-CEF0-4ED0-94FA-11B08D0D68E4}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -18,6 +18,7 @@
     <sheet name="ServiceReportSystem" sheetId="2" r:id="rId3"/>
     <sheet name="EmployeeManagementSystem" sheetId="3" r:id="rId4"/>
     <sheet name="NewsPortalSystem" sheetId="5" r:id="rId5"/>
+    <sheet name="RoomBookingSystem" sheetId="6" r:id="rId6"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -38,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="407" uniqueCount="192">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="496" uniqueCount="228">
   <si>
     <t>Table Name</t>
   </si>
@@ -627,6 +628,114 @@
   </si>
   <si>
     <t>ImageTypeID:  (FK from ImageType, not null)</t>
+  </si>
+  <si>
+    <t>Building</t>
+  </si>
+  <si>
+    <t>Name: (nvarchar(100), not null)</t>
+  </si>
+  <si>
+    <t>Code: (nvarchar(20), null)</t>
+  </si>
+  <si>
+    <t>Address: (nvarchar(300), null)</t>
+  </si>
+  <si>
+    <t>Room</t>
+  </si>
+  <si>
+    <t>BuildingID: (FK from Building, not null)</t>
+  </si>
+  <si>
+    <t>Code: (nvarchar(50), null)</t>
+  </si>
+  <si>
+    <t>Floor: (nvarchar(20), null)</t>
+  </si>
+  <si>
+    <t>Capacity: (int, not null)</t>
+  </si>
+  <si>
+    <t>Description: (nvarchar(300), null)</t>
+  </si>
+  <si>
+    <t>RoomBlock</t>
+  </si>
+  <si>
+    <t>RoomID: (FK from Room, not null)</t>
+  </si>
+  <si>
+    <t>StartTime: (DateTime, not null)</t>
+  </si>
+  <si>
+    <t>EndTime: (DateTime, not null)</t>
+  </si>
+  <si>
+    <t>Reason: (nvarchar(200), null)</t>
+  </si>
+  <si>
+    <t>Name: (nvarchar(20), not null, unique)</t>
+  </si>
+  <si>
+    <t>Title: (nvarchar(150), not null)</t>
+  </si>
+  <si>
+    <t>StatusID: (FK from BookingStatus, not null)</t>
+  </si>
+  <si>
+    <t>RequestedBy: (FK from User, not null)</t>
+  </si>
+  <si>
+    <t>ApprovedBy: (FK from User, null)</t>
+  </si>
+  <si>
+    <t>ApprovedDate: (DateTime, null)</t>
+  </si>
+  <si>
+    <t>RejectionReason: (nvarchar(300), null)</t>
+  </si>
+  <si>
+    <t>CancellationReason: (nvarchar(300), null)</t>
+  </si>
+  <si>
+    <t>CancelledBy: (FK from User, null)</t>
+  </si>
+  <si>
+    <t>RecurrenceRule: (nvarchar(200), null)</t>
+  </si>
+  <si>
+    <t>BookingInternalAttendee</t>
+  </si>
+  <si>
+    <t>BookingID: (FK from Booking, not null)</t>
+  </si>
+  <si>
+    <t>BookingExternalAttendee</t>
+  </si>
+  <si>
+    <t>DisplayName: (nvarchar(150), null)</t>
+  </si>
+  <si>
+    <t>Email: (nvarchar(200), null)</t>
+  </si>
+  <si>
+    <t>Company: (nvarchar(100), null)</t>
+  </si>
+  <si>
+    <t>ID: (PK, GUID, not null) – 0 Pending, 1 Approved, 2 Rejected, 3 Cancelled, 4 Completed</t>
+  </si>
+  <si>
+    <t>RoomBookingStatus</t>
+  </si>
+  <si>
+    <t>RoomBooking</t>
+  </si>
+  <si>
+    <t>UserNotification</t>
+  </si>
+  <si>
+    <t>IsView:(bool, not null)</t>
   </si>
 </sst>
 </file>
@@ -658,7 +767,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="8">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -701,6 +810,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="2">
     <border>
@@ -729,7 +844,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -757,13 +872,19 @@
     <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1388,7 +1509,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{964FE91A-D8DF-42C2-BA38-81E4FBFE8C98}">
   <dimension ref="A1:N54"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A5" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
       <selection activeCell="C32" sqref="C32"/>
     </sheetView>
   </sheetViews>
@@ -2120,10 +2241,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7A56A3A2-9F47-4A03-BD8E-A94BF6CBF8B3}">
-  <dimension ref="A1:F50"/>
+  <dimension ref="A1:G50"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2133,37 +2254,39 @@
     <col min="3" max="3" width="50.88671875" style="5" customWidth="1"/>
     <col min="4" max="4" width="3.44140625" style="1" customWidth="1"/>
     <col min="5" max="5" width="48.6640625" style="5" customWidth="1"/>
-    <col min="6" max="6" width="56.5546875" style="5" customWidth="1"/>
-    <col min="7" max="16384" width="8.88671875" style="5"/>
+    <col min="6" max="6" width="3.44140625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="56.5546875" style="5" customWidth="1"/>
+    <col min="8" max="16384" width="8.88671875" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="2" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="13" t="s">
+    <row r="1" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="2" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="16" t="s">
         <v>76</v>
       </c>
       <c r="B2" s="1"/>
-      <c r="C2" s="13" t="s">
+      <c r="C2" s="16" t="s">
         <v>63</v>
       </c>
       <c r="D2" s="1"/>
-      <c r="E2" s="14" t="s">
+      <c r="E2" s="16" t="s">
         <v>188</v>
       </c>
-      <c r="F2" s="2" t="s">
+      <c r="F2" s="1"/>
+      <c r="G2" s="17" t="s">
         <v>189</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
         <v>80</v>
       </c>
       <c r="C3" s="5" t="s">
         <v>80</v>
       </c>
-      <c r="E3" s="15"/>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="E3" s="14"/>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
         <v>33</v>
       </c>
@@ -2173,11 +2296,11 @@
       <c r="E4" s="5" t="s">
         <v>80</v>
       </c>
-      <c r="F4" s="5" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G4" s="5" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" s="3" t="s">
         <v>79</v>
       </c>
@@ -2187,11 +2310,11 @@
       <c r="E5" s="5" t="s">
         <v>175</v>
       </c>
-      <c r="F5" s="5" t="s">
+      <c r="G5" s="5" t="s">
         <v>190</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" s="3" t="s">
         <v>78</v>
       </c>
@@ -2201,11 +2324,11 @@
       <c r="E6" s="5" t="s">
         <v>191</v>
       </c>
-      <c r="F6" s="5" t="s">
+      <c r="G6" s="5" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" s="3" t="s">
         <v>77</v>
       </c>
@@ -2215,11 +2338,11 @@
       <c r="E7" s="5" t="s">
         <v>187</v>
       </c>
-      <c r="F7" s="5" t="s">
+      <c r="G7" s="5" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8" s="3" t="s">
         <v>27</v>
       </c>
@@ -2229,11 +2352,11 @@
       <c r="E8" s="5" t="s">
         <v>170</v>
       </c>
-      <c r="F8" s="5" t="s">
+      <c r="G8" s="5" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9" s="3" t="s">
         <v>29</v>
       </c>
@@ -2243,11 +2366,11 @@
       <c r="E9" s="5" t="s">
         <v>171</v>
       </c>
-      <c r="F9" s="5" t="s">
+      <c r="G9" s="5" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A10" s="3" t="s">
         <v>28</v>
       </c>
@@ -2257,11 +2380,11 @@
       <c r="E10" s="5" t="s">
         <v>129</v>
       </c>
-      <c r="F10" s="5" t="s">
+      <c r="G10" s="5" t="s">
         <v>143</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A11" s="3" t="s">
         <v>83</v>
       </c>
@@ -2271,9 +2394,9 @@
       <c r="E11" s="5" t="s">
         <v>167</v>
       </c>
-      <c r="F11" s="1"/>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G11" s="1"/>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A12" s="3" t="s">
         <v>84</v>
       </c>
@@ -2284,124 +2407,147 @@
         <v>168</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A13" s="1"/>
       <c r="C13" s="5" t="s">
         <v>126</v>
       </c>
       <c r="E13" s="1"/>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A14" s="13" t="s">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A14" s="16" t="s">
         <v>81</v>
       </c>
       <c r="C14" s="5" t="s">
         <v>127</v>
       </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="E14" s="17" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A15" s="3" t="s">
         <v>80</v>
       </c>
       <c r="C15" s="5" t="s">
         <v>128</v>
       </c>
-      <c r="E15" s="3"/>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="E15" s="5" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A16" s="3" t="s">
         <v>82</v>
       </c>
       <c r="C16" s="5" t="s">
         <v>129</v>
       </c>
-      <c r="E16" s="3"/>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E16" s="5" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A17" s="3" t="s">
         <v>79</v>
       </c>
       <c r="C17" s="5" t="s">
         <v>130</v>
       </c>
-      <c r="E17" s="3"/>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E17" s="5" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A18" s="3" t="s">
         <v>78</v>
       </c>
       <c r="C18" s="5" t="s">
         <v>131</v>
       </c>
-      <c r="E18" s="3"/>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E18" s="3" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A19" s="3" t="s">
         <v>77</v>
       </c>
       <c r="C19" s="5" t="s">
         <v>132</v>
       </c>
-      <c r="E19" s="3"/>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E19" s="3" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A20" s="3" t="s">
         <v>27</v>
       </c>
       <c r="C20" s="5" t="s">
         <v>133</v>
       </c>
-      <c r="E20" s="3"/>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E20" s="3" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A21" s="3" t="s">
         <v>29</v>
       </c>
       <c r="C21" s="5" t="s">
         <v>134</v>
       </c>
-      <c r="E21" s="3"/>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E21" s="3" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A22" s="3" t="s">
         <v>28</v>
       </c>
       <c r="C22" s="5" t="s">
         <v>135</v>
       </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E22" s="3" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A23" s="3" t="s">
         <v>83</v>
       </c>
       <c r="C23" s="5" t="s">
         <v>136</v>
       </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E23" s="3" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A24" s="3" t="s">
         <v>84</v>
       </c>
       <c r="C24" s="5" t="s">
         <v>137</v>
       </c>
-      <c r="E24" s="3"/>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E24" s="1"/>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A25" s="1"/>
       <c r="C25" s="5" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A26" s="13" t="s">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A26" s="16" t="s">
         <v>86</v>
       </c>
       <c r="C26" s="5" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A27" s="3" t="s">
         <v>80</v>
       </c>
@@ -2409,7 +2555,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A28" s="3" t="s">
         <v>87</v>
       </c>
@@ -2417,7 +2563,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A29" s="3" t="s">
         <v>79</v>
       </c>
@@ -2425,7 +2571,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A30" s="3" t="s">
         <v>78</v>
       </c>
@@ -2434,8 +2580,9 @@
         <v>143</v>
       </c>
       <c r="D30" s="4"/>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F30" s="4"/>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A31" s="3" t="s">
         <v>77</v>
       </c>
@@ -2443,7 +2590,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A32" s="3" t="s">
         <v>27</v>
       </c>
@@ -2451,7 +2598,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A33" s="3" t="s">
         <v>29</v>
       </c>
@@ -2459,21 +2606,21 @@
         <v>186</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A34" s="3" t="s">
         <v>28</v>
       </c>
       <c r="C34" s="1"/>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A35" s="3" t="s">
         <v>83</v>
       </c>
-      <c r="C35" s="13" t="s">
+      <c r="C35" s="16" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A36" s="3" t="s">
         <v>84</v>
       </c>
@@ -2481,21 +2628,21 @@
         <v>80</v>
       </c>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A37" s="1"/>
       <c r="C37" s="5" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A38" s="13" t="s">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A38" s="16" t="s">
         <v>88</v>
       </c>
       <c r="C38" s="5" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A39" s="3" t="s">
         <v>89</v>
       </c>
@@ -2503,7 +2650,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A40" s="3" t="s">
         <v>90</v>
       </c>
@@ -2511,7 +2658,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A41" s="3" t="s">
         <v>79</v>
       </c>
@@ -2519,7 +2666,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A42" s="3" t="s">
         <v>27</v>
       </c>
@@ -2528,8 +2675,9 @@
         <v>150</v>
       </c>
       <c r="D42" s="4"/>
-    </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="F42" s="4"/>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A43" s="3" t="s">
         <v>29</v>
       </c>
@@ -2537,7 +2685,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A44" s="3" t="s">
         <v>28</v>
       </c>
@@ -2545,7 +2693,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A45" s="3" t="s">
         <v>83</v>
       </c>
@@ -2553,7 +2701,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A46" s="3" t="s">
         <v>84</v>
       </c>
@@ -2561,13 +2709,13 @@
         <v>130</v>
       </c>
     </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A47" s="1"/>
       <c r="C47" s="5" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C48" s="5" t="s">
         <v>142</v>
       </c>
@@ -2591,7 +2739,7 @@
   <dimension ref="A1:E42"/>
   <sheetViews>
     <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1:C13"/>
+      <selection activeCell="A19" sqref="A19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2605,19 +2753,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A1" s="14" t="s">
+      <c r="A1" s="13" t="s">
         <v>152</v>
       </c>
-      <c r="C1" s="14" t="s">
+      <c r="C1" s="13" t="s">
         <v>154</v>
       </c>
-      <c r="E1" s="14" t="s">
+      <c r="E1" s="13" t="s">
         <v>180</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A2" s="15"/>
-      <c r="C2" s="15"/>
+      <c r="A2" s="14"/>
+      <c r="C2" s="14"/>
       <c r="E2" s="5" t="s">
         <v>80</v>
       </c>
@@ -2748,7 +2896,7 @@
       <c r="A15" s="5" t="s">
         <v>130</v>
       </c>
-      <c r="C15" s="14" t="s">
+      <c r="C15" s="13" t="s">
         <v>182</v>
       </c>
     </row>
@@ -2783,7 +2931,7 @@
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A20" s="14" t="s">
+      <c r="A20" s="13" t="s">
         <v>181</v>
       </c>
       <c r="C20" s="5" t="s">
@@ -2860,6 +3008,359 @@
     <row r="42" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B42" s="4"/>
       <c r="D42" s="4"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9867D38E-22FE-4B1C-A981-C958F867CCE7}">
+  <dimension ref="A1:F42"/>
+  <sheetViews>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="C27" sqref="C27"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="73.77734375" customWidth="1"/>
+    <col min="2" max="2" width="3.44140625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="75.44140625" customWidth="1"/>
+    <col min="4" max="4" width="3.44140625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="36.88671875" customWidth="1"/>
+    <col min="6" max="6" width="3.44140625" style="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1" s="15" t="s">
+        <v>192</v>
+      </c>
+      <c r="C1" s="15" t="s">
+        <v>196</v>
+      </c>
+      <c r="E1" s="15" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>80</v>
+      </c>
+      <c r="C2" t="s">
+        <v>80</v>
+      </c>
+      <c r="E2" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>193</v>
+      </c>
+      <c r="C3" t="s">
+        <v>197</v>
+      </c>
+      <c r="E3" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>194</v>
+      </c>
+      <c r="C4" t="s">
+        <v>193</v>
+      </c>
+      <c r="E4" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>195</v>
+      </c>
+      <c r="C5" t="s">
+        <v>198</v>
+      </c>
+      <c r="E5" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>129</v>
+      </c>
+      <c r="C6" t="s">
+        <v>199</v>
+      </c>
+      <c r="E6" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A7" s="5" t="s">
+        <v>130</v>
+      </c>
+      <c r="C7" t="s">
+        <v>200</v>
+      </c>
+      <c r="E7" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A8" s="5" t="s">
+        <v>131</v>
+      </c>
+      <c r="C8" t="s">
+        <v>201</v>
+      </c>
+      <c r="E8" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A9" s="5" t="s">
+        <v>142</v>
+      </c>
+      <c r="C9" t="s">
+        <v>129</v>
+      </c>
+      <c r="E9" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A10" s="5" t="s">
+        <v>143</v>
+      </c>
+      <c r="C10" t="s">
+        <v>142</v>
+      </c>
+      <c r="E10" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A11" s="1"/>
+      <c r="C11" t="s">
+        <v>143</v>
+      </c>
+      <c r="E11" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A12" s="15" t="s">
+        <v>224</v>
+      </c>
+      <c r="C12" t="s">
+        <v>130</v>
+      </c>
+      <c r="E12" s="1"/>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>223</v>
+      </c>
+      <c r="C13" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>207</v>
+      </c>
+      <c r="C14" s="1"/>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>129</v>
+      </c>
+      <c r="C15" s="15" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A16" s="1"/>
+      <c r="C16" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A17" s="15" t="s">
+        <v>225</v>
+      </c>
+      <c r="C17" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>80</v>
+      </c>
+      <c r="C18" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>203</v>
+      </c>
+      <c r="C19" s="5" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>208</v>
+      </c>
+      <c r="C20" s="5" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
+        <v>164</v>
+      </c>
+      <c r="C21" s="5" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>204</v>
+      </c>
+      <c r="C22" s="5" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
+        <v>205</v>
+      </c>
+      <c r="C23" s="1"/>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
+        <v>209</v>
+      </c>
+      <c r="C24" s="15" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A25" t="s">
+        <v>210</v>
+      </c>
+      <c r="C25" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A26" t="s">
+        <v>211</v>
+      </c>
+      <c r="C26" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A27" t="s">
+        <v>212</v>
+      </c>
+      <c r="C27" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>213</v>
+      </c>
+      <c r="C28" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A29" t="s">
+        <v>214</v>
+      </c>
+      <c r="C29" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A30" t="s">
+        <v>215</v>
+      </c>
+      <c r="B30" s="4"/>
+      <c r="C30" t="s">
+        <v>129</v>
+      </c>
+      <c r="D30" s="4"/>
+      <c r="F30" s="4"/>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A31" t="s">
+        <v>130</v>
+      </c>
+      <c r="C31" s="5" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A32" t="s">
+        <v>131</v>
+      </c>
+      <c r="C32" s="5" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A33" t="s">
+        <v>216</v>
+      </c>
+      <c r="C33" s="5" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A34" t="s">
+        <v>129</v>
+      </c>
+      <c r="C34" s="5" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A35" s="5" t="s">
+        <v>130</v>
+      </c>
+      <c r="C35" s="1"/>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A36" s="5" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A37" s="5" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A38" s="5" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A39" s="1"/>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B42" s="4"/>
+      <c r="D42" s="4"/>
+      <c r="F42" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/ControlTowerSystemDatabaseSchema.xlsx
+++ b/ControlTowerSystemDatabaseSchema.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\thanthtet.myet\Documents\01_Willowglen\02_Workplace\ControlTower\ControlTower_Note\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8EC7E41F-9A05-4A5E-951E-95B096431988}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B0D08823-4B44-4916-9F42-47587102E9C9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="2" activeTab="3" xr2:uid="{EB4BDDAD-CEF0-4ED0-94FA-11B08D0D68E4}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="496" uniqueCount="228">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="530" uniqueCount="235">
   <si>
     <t>Table Name</t>
   </si>
@@ -736,6 +736,27 @@
   </si>
   <si>
     <t>IsView:(bool, not null)</t>
+  </si>
+  <si>
+    <t>OccupationLevel</t>
+  </si>
+  <si>
+    <t>Rank:(int,null)</t>
+  </si>
+  <si>
+    <t>OccupationLevelID:(FK from OccupationLevel Table)</t>
+  </si>
+  <si>
+    <t>SubDepartment</t>
+  </si>
+  <si>
+    <t>SubDepartmentID: (FK from SubDepartment)</t>
+  </si>
+  <si>
+    <t>Company</t>
+  </si>
+  <si>
+    <t>CompanyID: (FK from Company)</t>
   </si>
 </sst>
 </file>
@@ -1509,7 +1530,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{964FE91A-D8DF-42C2-BA38-81E4FBFE8C98}">
   <dimension ref="A1:N54"/>
   <sheetViews>
-    <sheetView topLeftCell="A5" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+    <sheetView topLeftCell="A16" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="C32" sqref="C32"/>
     </sheetView>
   </sheetViews>
@@ -2241,28 +2262,29 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7A56A3A2-9F47-4A03-BD8E-A94BF6CBF8B3}">
-  <dimension ref="A1:G50"/>
+  <dimension ref="A1:H84"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="G5" sqref="G5"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="37.6640625" style="5" customWidth="1"/>
+    <col min="1" max="1" width="51.77734375" style="5" customWidth="1"/>
     <col min="2" max="2" width="3.44140625" style="1" customWidth="1"/>
     <col min="3" max="3" width="50.88671875" style="5" customWidth="1"/>
     <col min="4" max="4" width="3.44140625" style="1" customWidth="1"/>
     <col min="5" max="5" width="48.6640625" style="5" customWidth="1"/>
     <col min="6" max="6" width="3.44140625" style="1" customWidth="1"/>
     <col min="7" max="7" width="56.5546875" style="5" customWidth="1"/>
-    <col min="8" max="16384" width="8.88671875" style="5"/>
+    <col min="8" max="8" width="3.44140625" style="1" customWidth="1"/>
+    <col min="9" max="16384" width="8.88671875" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="2" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="2" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2" s="16" t="s">
-        <v>76</v>
+        <v>233</v>
       </c>
       <c r="B2" s="1"/>
       <c r="C2" s="16" t="s">
@@ -2276,8 +2298,9 @@
       <c r="G2" s="17" t="s">
         <v>189</v>
       </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H2" s="1"/>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
         <v>80</v>
       </c>
@@ -2286,12 +2309,12 @@
       </c>
       <c r="E3" s="14"/>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
         <v>33</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>118</v>
+        <v>234</v>
       </c>
       <c r="E4" s="5" t="s">
         <v>80</v>
@@ -2300,12 +2323,12 @@
         <v>80</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5" s="3" t="s">
         <v>79</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>85</v>
+        <v>232</v>
       </c>
       <c r="E5" s="5" t="s">
         <v>175</v>
@@ -2314,12 +2337,12 @@
         <v>190</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6" s="3" t="s">
         <v>78</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>119</v>
+        <v>85</v>
       </c>
       <c r="E6" s="5" t="s">
         <v>191</v>
@@ -2328,12 +2351,12 @@
         <v>129</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A7" s="3" t="s">
-        <v>77</v>
+        <v>27</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="E7" s="5" t="s">
         <v>187</v>
@@ -2342,12 +2365,12 @@
         <v>130</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A8" s="3" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="E8" s="5" t="s">
         <v>170</v>
@@ -2356,12 +2379,12 @@
         <v>131</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A9" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="E9" s="5" t="s">
         <v>171</v>
@@ -2370,12 +2393,12 @@
         <v>142</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A10" s="3" t="s">
-        <v>28</v>
+        <v>83</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="E10" s="5" t="s">
         <v>129</v>
@@ -2384,349 +2407,522 @@
         <v>143</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A11" s="3" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="E11" s="5" t="s">
         <v>167</v>
       </c>
       <c r="G11" s="1"/>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A12" s="3" t="s">
-        <v>84</v>
-      </c>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A12" s="1"/>
       <c r="C12" s="5" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="E12" s="5" t="s">
         <v>168</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A13" s="1"/>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A13" s="16" t="s">
+        <v>76</v>
+      </c>
       <c r="C13" s="5" t="s">
+        <v>125</v>
+      </c>
+      <c r="E13" s="1"/>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A14" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="C14" s="5" t="s">
         <v>126</v>
-      </c>
-      <c r="E13" s="1"/>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A14" s="16" t="s">
-        <v>81</v>
-      </c>
-      <c r="C14" s="5" t="s">
-        <v>127</v>
       </c>
       <c r="E14" s="17" t="s">
         <v>226</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A15" s="3" t="s">
-        <v>80</v>
+        <v>33</v>
       </c>
       <c r="C15" s="5" t="s">
+        <v>127</v>
+      </c>
+      <c r="E15" s="5" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A16" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="C16" s="5" t="s">
         <v>128</v>
-      </c>
-      <c r="E15" s="5" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A16" s="3" t="s">
-        <v>82</v>
-      </c>
-      <c r="C16" s="5" t="s">
-        <v>129</v>
       </c>
       <c r="E16" s="5" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A17" s="3" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C17" s="5" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="E17" s="5" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A18" s="3" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C18" s="5" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="E18" s="3" t="s">
         <v>227</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A19" s="3" t="s">
-        <v>77</v>
+        <v>27</v>
       </c>
       <c r="C19" s="5" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E19" s="3" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A20" s="3" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="C20" s="5" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="E20" s="3" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A21" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C21" s="5" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="E21" s="3" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A22" s="3" t="s">
-        <v>28</v>
+        <v>83</v>
       </c>
       <c r="C22" s="5" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="E22" s="3" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A23" s="3" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="C23" s="5" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="E23" s="3" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A24" s="3" t="s">
-        <v>84</v>
-      </c>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A24" s="1"/>
       <c r="C24" s="5" t="s">
+        <v>136</v>
+      </c>
+      <c r="E24" s="1"/>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A25" s="16" t="s">
+        <v>231</v>
+      </c>
+      <c r="C25" s="5" t="s">
         <v>137</v>
       </c>
-      <c r="E24" s="1"/>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A25" s="1"/>
-      <c r="C25" s="5" t="s">
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A26" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="C26" s="5" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A26" s="16" t="s">
-        <v>86</v>
-      </c>
-      <c r="C26" s="5" t="s">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A27" s="5" t="s">
+        <v>118</v>
+      </c>
+      <c r="C27" s="5" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A27" s="3" t="s">
-        <v>80</v>
-      </c>
-      <c r="C27" s="5" t="s">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A28" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="C28" s="5" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A28" s="3" t="s">
-        <v>87</v>
-      </c>
-      <c r="C28" s="5" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A29" s="3" t="s">
         <v>79</v>
       </c>
       <c r="C29" s="5" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A30" s="3" t="s">
         <v>78</v>
       </c>
       <c r="B30" s="4"/>
       <c r="C30" s="5" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D30" s="4"/>
       <c r="F30" s="4"/>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="H30" s="4"/>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A31" s="3" t="s">
         <v>77</v>
       </c>
       <c r="C31" s="5" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A32" s="3" t="s">
         <v>27</v>
       </c>
       <c r="C32" s="5" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A33" s="3" t="s">
         <v>29</v>
       </c>
       <c r="C33" s="5" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A34" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="C34" s="1"/>
-    </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="C34" s="5" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A35" s="3" t="s">
         <v>83</v>
       </c>
-      <c r="C35" s="16" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="C35" s="1"/>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A36" s="3" t="s">
         <v>84</v>
       </c>
-      <c r="C36" s="5" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="C36" s="16" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A37" s="1"/>
       <c r="C37" s="5" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A38" s="16" t="s">
+        <v>81</v>
+      </c>
+      <c r="C38" s="5" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A38" s="16" t="s">
-        <v>88</v>
-      </c>
-      <c r="C38" s="5" t="s">
+    <row r="39" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A39" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="C39" s="5" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A39" s="3" t="s">
-        <v>89</v>
-      </c>
-      <c r="C39" s="5" t="s">
+    <row r="40" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A40" s="5" t="s">
+        <v>230</v>
+      </c>
+      <c r="C40" s="5" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A40" s="3" t="s">
-        <v>90</v>
-      </c>
-      <c r="C40" s="5" t="s">
+    <row r="41" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A41" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="C41" s="5" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A41" s="3" t="s">
+    <row r="42" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A42" s="3" t="s">
         <v>79</v>
-      </c>
-      <c r="C41" s="5" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A42" s="3" t="s">
-        <v>27</v>
       </c>
       <c r="B42" s="4"/>
       <c r="C42" s="5" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D42" s="4"/>
       <c r="F42" s="4"/>
-    </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="H42" s="4"/>
+    </row>
+    <row r="43" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A43" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="C43" s="5" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A44" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="C44" s="5" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A45" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="C45" s="5" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A46" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="C43" s="5" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A44" s="3" t="s">
+      <c r="C46" s="5" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A47" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="C44" s="5" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A45" s="3" t="s">
+      <c r="C47" s="5" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A48" s="3" t="s">
         <v>83</v>
       </c>
-      <c r="C45" s="5" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A46" s="3" t="s">
+      <c r="C48" s="5" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A49" s="3" t="s">
         <v>84</v>
       </c>
-      <c r="C46" s="5" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A47" s="1"/>
-      <c r="C47" s="5" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="C48" s="5" t="s">
+      <c r="C49" s="5" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="49" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C49" s="5" t="s">
+    <row r="50" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A50" s="1"/>
+      <c r="C50" s="5" t="s">
         <v>143</v>
       </c>
     </row>
-    <row r="50" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C50" s="1"/>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A51" s="16" t="s">
+        <v>228</v>
+      </c>
+      <c r="C51" s="1"/>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A52" s="3" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A53" s="3" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A54" s="3" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A55" s="3" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A56" s="3" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A57" s="3" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A58" s="3" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A59" s="3" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A60" s="3" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A62" s="1"/>
+    </row>
+    <row r="63" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A63" s="16" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A64" s="3" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="65" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A65" s="3" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="66" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A66" s="3" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="67" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A67" s="3" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="68" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A68" s="3" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="69" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A69" s="3" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="70" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A70" s="3" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="71" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A71" s="3" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="72" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A72" s="3" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="73" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A73" s="3" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="74" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A74" s="1"/>
+    </row>
+    <row r="75" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A75" s="16" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="76" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A76" s="3" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="77" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A77" s="3" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="78" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A78" s="3" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="79" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A79" s="3" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="80" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A80" s="3" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="81" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A81" s="3" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="82" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A82" s="3" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="83" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A83" s="3" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="84" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A84" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3018,9 +3214,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9867D38E-22FE-4B1C-A981-C958F867CCE7}">
   <dimension ref="A1:F42"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="C27" sqref="C27"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>

--- a/ControlTowerSystemDatabaseSchema.xlsx
+++ b/ControlTowerSystemDatabaseSchema.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\thanthtet.myet\Documents\01_Willowglen\02_Workplace\ControlTower\ControlTower_Note\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B0D08823-4B44-4916-9F42-47587102E9C9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8AC8C080-E048-478B-A051-B59E372E50B3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="2" activeTab="3" xr2:uid="{EB4BDDAD-CEF0-4ED0-94FA-11B08D0D68E4}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="2" activeTab="2" xr2:uid="{EB4BDDAD-CEF0-4ED0-94FA-11B08D0D68E4}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="4" r:id="rId2"/>
-    <sheet name="ServiceReportSystem" sheetId="2" r:id="rId3"/>
+    <sheet name="ReportSystem" sheetId="2" r:id="rId3"/>
     <sheet name="EmployeeManagementSystem" sheetId="3" r:id="rId4"/>
     <sheet name="NewsPortalSystem" sheetId="5" r:id="rId5"/>
     <sheet name="RoomBookingSystem" sheetId="6" r:id="rId6"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="530" uniqueCount="235">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="652" uniqueCount="284">
   <si>
     <t>Table Name</t>
   </si>
@@ -131,9 +131,6 @@
     <t>CreatedDate:(Date)</t>
   </si>
   <si>
-    <t>Name:(nvarchar,not null)</t>
-  </si>
-  <si>
     <t>ProjectNoWarehouse</t>
   </si>
   <si>
@@ -158,39 +155,6 @@
     <t>FormStatusWarehouse</t>
   </si>
   <si>
-    <t>ServiceReportForm</t>
-  </si>
-  <si>
-    <t>CustomerID: (FK from CustomerWarehouse)</t>
-  </si>
-  <si>
-    <t>ProjectNoID: (FK from ProjectNoWarehouse)</t>
-  </si>
-  <si>
-    <t>SystemID:(FK from SystemWarehouse)</t>
-  </si>
-  <si>
-    <t>LocationID:(FK from LocationWarehouse)</t>
-  </si>
-  <si>
-    <t>FollowupActionID: (FK from FollowupActionWarehouse)</t>
-  </si>
-  <si>
-    <t>FailureDetectedDate: (datetime)</t>
-  </si>
-  <si>
-    <t>ResponseDate: (datetime)</t>
-  </si>
-  <si>
-    <t>ArrivalDate: (datetime)</t>
-  </si>
-  <si>
-    <t>CompletionDate: (datetime)</t>
-  </si>
-  <si>
-    <t>ServiceTypeID: (FK from ServiceTypeWarehouse)</t>
-  </si>
-  <si>
     <t>IssueReported</t>
   </si>
   <si>
@@ -221,39 +185,15 @@
     <t>ActionTakenWarehouse</t>
   </si>
   <si>
-    <t>IssueReportID: (FK from IssueFoundWarehouse)</t>
-  </si>
-  <si>
-    <t>IssueReportID: (FK from IssueReportWarehouse)</t>
-  </si>
-  <si>
-    <t>IssueReportID: (FK from ActionTakenWarehouse)</t>
-  </si>
-  <si>
     <t>User</t>
   </si>
   <si>
-    <t>Email:(nvarchar,not null)</t>
-  </si>
-  <si>
-    <t>MobileNo: (nvarchar)</t>
-  </si>
-  <si>
-    <t>Gender: (nvarchar)</t>
-  </si>
-  <si>
-    <t>LoginPassword: (nvarchar)</t>
-  </si>
-  <si>
     <t>CreatedBy:(ID from User Table)</t>
   </si>
   <si>
     <t>UpdatedBy:(ID from User Table)</t>
   </si>
   <si>
-    <t>LastlogIn:(Date)</t>
-  </si>
-  <si>
     <t>Issue Reported &amp; Issue Found</t>
   </si>
   <si>
@@ -371,9 +311,6 @@
     <t>StoredDirectory: (nvarchar, not null)</t>
   </si>
   <si>
-    <t>ImportFormType: (FK from ImportFormTypes)</t>
-  </si>
-  <si>
     <t>ImportFileRecords</t>
   </si>
   <si>
@@ -381,9 +318,6 @@
   </si>
   <si>
     <t>UploadedStatus: (nvarchar, not null)</t>
-  </si>
-  <si>
-    <t>MaterialUsed</t>
   </si>
   <si>
     <t>Quantity: (int, not null)</t>
@@ -757,6 +691,219 @@
   </si>
   <si>
     <t>CompanyID: (FK from Company)</t>
+  </si>
+  <si>
+    <t>ReportFormType</t>
+  </si>
+  <si>
+    <t>ReportFormTypeID: (FK from ReportFormType)</t>
+  </si>
+  <si>
+    <t>ApprovedBy: (nvarchar,null)</t>
+  </si>
+  <si>
+    <t>ReportFormImage</t>
+  </si>
+  <si>
+    <t>FormStatus: (nvarchar, null)</t>
+  </si>
+  <si>
+    <t>UploadStatus: (nvarchar, null)</t>
+  </si>
+  <si>
+    <t>UploadHostname: (nvarchar, null)</t>
+  </si>
+  <si>
+    <t>UploadIPAddress:(nvarchar, null)</t>
+  </si>
+  <si>
+    <t>ProjectNo:  (nvarchar, null)</t>
+  </si>
+  <si>
+    <t>Customer: (nvarchar, null)</t>
+  </si>
+  <si>
+    <t>IssueReportedDescription: (nvarchar, null)</t>
+  </si>
+  <si>
+    <t>IssueFoundDescription:  (nvarchar, null)</t>
+  </si>
+  <si>
+    <t>ActionTakenDescription: (nvarchar, null)</t>
+  </si>
+  <si>
+    <t>FailureDetectedDate: (datetime, null))</t>
+  </si>
+  <si>
+    <t>ResponseDate: (datetime, null))</t>
+  </si>
+  <si>
+    <t>ArrivalDate: (datetime, null))</t>
+  </si>
+  <si>
+    <t>CompletionDate: (datetime, null))</t>
+  </si>
+  <si>
+    <t>ReportFormImageType</t>
+  </si>
+  <si>
+    <t>ReportForm</t>
+  </si>
+  <si>
+    <t>CMReportForm</t>
+  </si>
+  <si>
+    <t>ImportFormTypeID: (FK from ImportFormTypes, not null)</t>
+  </si>
+  <si>
+    <t>ReportFormID: (FK from ServiceReportForm)</t>
+  </si>
+  <si>
+    <t>ReportImageTypeID:  (FK from ReportFormImageType, not null)</t>
+  </si>
+  <si>
+    <t>CMReportFormID: (FK from ServiceReportForm)</t>
+  </si>
+  <si>
+    <t>AttnededBy: (nvarchar,null)</t>
+  </si>
+  <si>
+    <t>Remark: (nvarchar, null)</t>
+  </si>
+  <si>
+    <t>DateOfService: (datetime, null))</t>
+  </si>
+  <si>
+    <t>CMMaterialUsed</t>
+  </si>
+  <si>
+    <t>PMMainRtuCabinet</t>
+  </si>
+  <si>
+    <t>RTUCabinet: (nvarchar,  null)</t>
+  </si>
+  <si>
+    <t>EquipmentRack: (nvarchar, null)</t>
+  </si>
+  <si>
+    <t>Monitor: (nvarchar, null)</t>
+  </si>
+  <si>
+    <t>MouseKeyboard: (nvarchar, null)</t>
+  </si>
+  <si>
+    <t>CPU6000Card: (nvarchar, null)</t>
+  </si>
+  <si>
+    <t>InputCard: (nvarchar, null)</t>
+  </si>
+  <si>
+    <t>MegapopNTU: (nvarchar, null)</t>
+  </si>
+  <si>
+    <t>NetworkRouter: (nvarchar, null)</t>
+  </si>
+  <si>
+    <t>NetworkSwitch: (nvarchar, null)</t>
+  </si>
+  <si>
+    <t>DigitalVideoRecorder: (nvarchar, null)</t>
+  </si>
+  <si>
+    <t>RTUDoorContact: (nvarchar, null)</t>
+  </si>
+  <si>
+    <t>PowerSupplyUnit: (nvarchar, null)</t>
+  </si>
+  <si>
+    <t>UPSTakingOverTest: (nvarchar, null)</t>
+  </si>
+  <si>
+    <t>UPSBattery: (nvarchar, null)</t>
+  </si>
+  <si>
+    <t>Remarks: (nvarchar, null)</t>
+  </si>
+  <si>
+    <t>PMChamberMagneticContact</t>
+  </si>
+  <si>
+    <t>PMRTUCabinetCooling</t>
+  </si>
+  <si>
+    <t>PMDVREquipment</t>
+  </si>
+  <si>
+    <t>PMReportFormType</t>
+  </si>
+  <si>
+    <t>PMReportFormTypeID: (FK from PMReportFormType)</t>
+  </si>
+  <si>
+    <t>DVRComm: (nvarchar, null)</t>
+  </si>
+  <si>
+    <t>DVRRAIDComm: (nvarchar, null)</t>
+  </si>
+  <si>
+    <t>TimeSyncNTPServer: (nvarchar, null)</t>
+  </si>
+  <si>
+    <t>Recording24x7: (nvarchar, null)</t>
+  </si>
+  <si>
+    <t>CleaningOfCabinet: (nvarchar, null)</t>
+  </si>
+  <si>
+    <t>AttendedBy: (nvarchar,null)</t>
+  </si>
+  <si>
+    <t>ReportTitle: (nvarchar, null)</t>
+  </si>
+  <si>
+    <t>StationNameWarehouse</t>
+  </si>
+  <si>
+    <t>SystemNameWarehouse</t>
+  </si>
+  <si>
+    <t>SystemNameID: (FK From SystemNameWarehouse)</t>
+  </si>
+  <si>
+    <t>JobNo: (nvarchar, not null)</t>
+  </si>
+  <si>
+    <t>SystemNameID: (FK from SystemNameWarehouse)</t>
+  </si>
+  <si>
+    <t>StationNameID: (FK from StationNameWarehouse)</t>
+  </si>
+  <si>
+    <t>PMReportFormRTU</t>
+  </si>
+  <si>
+    <t>PMReportFormRTUID: (FK from ServiceReportForm)</t>
+  </si>
+  <si>
+    <t>ChamberOGBox: (nvarchar, null)</t>
+  </si>
+  <si>
+    <t>ChamberContact1 : (nvarchar, null)</t>
+  </si>
+  <si>
+    <t>ChamberContact2 : (nvarchar, null)</t>
+  </si>
+  <si>
+    <t>ChamberContact3 : (nvarchar, null)</t>
+  </si>
+  <si>
+    <t>ChamberNumber: (nvarchar, null)</t>
+  </si>
+  <si>
+    <t>FanNumber: (nvarchar, null)</t>
+  </si>
+  <si>
+    <t>FunctionalStatus: (nvarchar, null)</t>
   </si>
 </sst>
 </file>
@@ -827,13 +974,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF92D050"/>
+        <fgColor rgb="FF00B050"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF00B050"/>
+        <fgColor theme="1"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -865,7 +1012,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -879,9 +1026,6 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -890,22 +1034,35 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1316,7 +1473,7 @@
         <v>22</v>
       </c>
       <c r="B16" t="s">
-        <v>71</v>
+        <v>51</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.3">
@@ -1379,18 +1536,18 @@
   <sheetData>
     <row r="1" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
-        <v>91</v>
+        <v>71</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>98</v>
+        <v>78</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>98</v>
+        <v>78</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" s="5" t="s">
-        <v>97</v>
+        <v>77</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
@@ -1398,10 +1555,10 @@
         <v>15</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>99</v>
+        <v>79</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>100</v>
+        <v>80</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
@@ -1409,54 +1566,54 @@
         <v>13</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>101</v>
+        <v>81</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>100</v>
+        <v>80</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A5" s="8" t="s">
-        <v>92</v>
-      </c>
-      <c r="B5" s="8" t="s">
-        <v>102</v>
-      </c>
-      <c r="C5" s="8" t="s">
-        <v>100</v>
+      <c r="A5" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="B5" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="C5" s="7" t="s">
+        <v>80</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A6" s="8" t="s">
-        <v>93</v>
-      </c>
-      <c r="B6" s="8" t="s">
-        <v>117</v>
-      </c>
-      <c r="C6" s="8" t="s">
-        <v>50</v>
+      <c r="A6" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="B6" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="C6" s="7" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A7" s="8" t="s">
-        <v>94</v>
-      </c>
-      <c r="B7" s="8" t="s">
-        <v>117</v>
-      </c>
-      <c r="C7" s="8" t="s">
-        <v>52</v>
+      <c r="A7" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="B7" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="C7" s="7" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A8" s="8" t="s">
+      <c r="A8" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="B8" s="8" t="s">
-        <v>117</v>
-      </c>
-      <c r="C8" s="8" t="s">
-        <v>53</v>
+      <c r="B8" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="C8" s="7" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.3">
@@ -1464,10 +1621,10 @@
         <v>18</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>103</v>
+        <v>83</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>100</v>
+        <v>80</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.3">
@@ -1475,51 +1632,51 @@
         <v>25</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>104</v>
+        <v>84</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>105</v>
+        <v>85</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11" s="5" t="s">
-        <v>96</v>
+        <v>76</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>96</v>
+        <v>76</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>105</v>
+        <v>85</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A12" s="5" t="s">
-        <v>95</v>
+        <v>75</v>
       </c>
       <c r="B12" s="5" t="s">
         <v>2</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>100</v>
+        <v>80</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="C16" s="9"/>
+      <c r="C16" s="8"/>
     </row>
     <row r="17" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C17" s="9"/>
+      <c r="C17" s="8"/>
     </row>
     <row r="18" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C18" s="9"/>
+      <c r="C18" s="8"/>
     </row>
     <row r="19" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C19" s="9"/>
+      <c r="C19" s="8"/>
     </row>
     <row r="20" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C20" s="9"/>
+      <c r="C20" s="8"/>
     </row>
     <row r="21" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C21" s="9"/>
+      <c r="C21" s="8"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1528,735 +1685,1351 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{964FE91A-D8DF-42C2-BA38-81E4FBFE8C98}">
-  <dimension ref="A1:N54"/>
+  <dimension ref="A1:N136"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C32" sqref="C32"/>
+    <sheetView tabSelected="1" topLeftCell="G68" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="I82" sqref="I82"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="55.21875" style="2" customWidth="1"/>
-    <col min="2" max="2" width="3.44140625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="48.6640625" style="2" customWidth="1"/>
-    <col min="4" max="4" width="4" style="1" customWidth="1"/>
-    <col min="5" max="5" width="51.77734375" style="2" customWidth="1"/>
-    <col min="6" max="6" width="2.21875" style="1" customWidth="1"/>
-    <col min="7" max="7" width="49.77734375" style="2" customWidth="1"/>
-    <col min="8" max="8" width="3.6640625" style="1" customWidth="1"/>
-    <col min="9" max="9" width="54.33203125" style="2" customWidth="1"/>
-    <col min="10" max="10" width="4.5546875" style="1" customWidth="1"/>
+    <col min="2" max="2" width="3.44140625" style="19" customWidth="1"/>
+    <col min="3" max="3" width="59.6640625" style="2" customWidth="1"/>
+    <col min="4" max="4" width="4" style="19" customWidth="1"/>
+    <col min="5" max="5" width="59.5546875" style="2" customWidth="1"/>
+    <col min="6" max="6" width="2.21875" style="19" customWidth="1"/>
+    <col min="7" max="7" width="29.44140625" style="2" customWidth="1"/>
+    <col min="8" max="8" width="3.6640625" style="19" customWidth="1"/>
+    <col min="9" max="9" width="75" style="2" customWidth="1"/>
+    <col min="10" max="10" width="4.5546875" style="19" customWidth="1"/>
     <col min="11" max="11" width="29" style="2" customWidth="1"/>
-    <col min="12" max="12" width="3.77734375" style="1" customWidth="1"/>
+    <col min="12" max="12" width="3.77734375" style="19" customWidth="1"/>
     <col min="13" max="13" width="30.6640625" style="2" customWidth="1"/>
     <col min="14" max="14" width="4.77734375" style="1" customWidth="1"/>
     <col min="15" max="15" width="33.44140625" style="2" customWidth="1"/>
     <col min="16" max="16384" width="8.88671875" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="2" spans="1:11" ht="19.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="C2" s="7" t="s">
+    <row r="1" spans="1:12" s="19" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="C1" s="21"/>
+    </row>
+    <row r="2" spans="1:12" ht="19.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="14" t="s">
+        <v>87</v>
+      </c>
+      <c r="C2" s="14" t="s">
+        <v>231</v>
+      </c>
+      <c r="E2" s="14" t="s">
+        <v>232</v>
+      </c>
+      <c r="G2" s="14" t="s">
+        <v>260</v>
+      </c>
+      <c r="I2" s="14" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" ht="27" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="E3" s="16" t="s">
+        <v>60</v>
+      </c>
+      <c r="G3" s="16" t="s">
+        <v>60</v>
+      </c>
+      <c r="I3" s="16" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" ht="19.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="E2" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="G2" s="7" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" ht="27" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="3" t="s">
-        <v>80</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>80</v>
-      </c>
-      <c r="E3" s="3" t="s">
-        <v>80</v>
-      </c>
-      <c r="G3" s="3" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" ht="19.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="3" t="s">
-        <v>26</v>
-      </c>
       <c r="C4" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="E4" s="3" t="s">
-        <v>33</v>
+        <v>214</v>
+      </c>
+      <c r="E4" s="16" t="s">
+        <v>234</v>
       </c>
       <c r="G4" s="3" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" ht="23.4" customHeight="1" x14ac:dyDescent="0.3">
+        <v>32</v>
+      </c>
+      <c r="I4" s="16" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" ht="23.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="3" t="s">
         <v>27</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="E5" s="3" t="s">
-        <v>27</v>
+        <v>272</v>
+      </c>
+      <c r="E5" s="16" t="s">
+        <v>53</v>
       </c>
       <c r="G5" s="3" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="6" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="3" t="s">
+      <c r="I5" s="3" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="18"/>
+      <c r="C6" s="3" t="s">
+        <v>273</v>
+      </c>
+      <c r="E6" s="16" t="s">
+        <v>44</v>
+      </c>
+      <c r="G6" s="1"/>
+      <c r="I6" s="16" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="14" t="s">
+        <v>90</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>274</v>
+      </c>
+      <c r="E7" s="16"/>
+      <c r="I7" s="16" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A8" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="E8" s="16"/>
+      <c r="I8" s="16" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A9" s="3" t="s">
+        <v>233</v>
+      </c>
+      <c r="C9" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="C6" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="E6" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="G6" s="3" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="3" t="s">
+      <c r="E9" s="16" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" s="15" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="B10" s="19"/>
+      <c r="C10" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="C7" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="E7" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="G7" s="3" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A8" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="C8" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="E8" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="G8" s="3" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A9" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="C9" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="E9" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="G9" s="3" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="C10" s="4"/>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A11" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="C11" s="7" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="D10" s="19"/>
+      <c r="E10" s="16" t="s">
+        <v>222</v>
+      </c>
+      <c r="F10" s="19"/>
+      <c r="H10" s="19"/>
+      <c r="I10" s="16" t="s">
+        <v>239</v>
+      </c>
+      <c r="J10" s="19"/>
+      <c r="L10" s="19"/>
+    </row>
+    <row r="11" spans="1:12" s="15" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="B11" s="19"/>
+      <c r="C11" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="D11" s="19"/>
+      <c r="E11" s="16" t="s">
+        <v>223</v>
+      </c>
+      <c r="F11" s="19"/>
+      <c r="H11" s="19"/>
+      <c r="J11" s="19"/>
+      <c r="L11" s="19"/>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A12" s="3" t="s">
-        <v>80</v>
+        <v>91</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>80</v>
-      </c>
-      <c r="E12" s="3"/>
-      <c r="G12" s="3"/>
+        <v>50</v>
+      </c>
+      <c r="E12" s="16" t="s">
+        <v>224</v>
+      </c>
+      <c r="I12" s="16" t="s">
+        <v>266</v>
+      </c>
       <c r="K12" s="3"/>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A13" s="3" t="s">
-        <v>33</v>
+        <v>92</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="E13" s="3"/>
-      <c r="G13" s="3"/>
+        <v>218</v>
+      </c>
+      <c r="E13" s="16" t="s">
+        <v>225</v>
+      </c>
+      <c r="I13" s="3" t="s">
+        <v>256</v>
+      </c>
       <c r="K13" s="3"/>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A14" s="3" t="s">
         <v>27</v>
       </c>
       <c r="C14" s="3" t="s">
+        <v>219</v>
+      </c>
+      <c r="E14" s="16" t="s">
+        <v>238</v>
+      </c>
+      <c r="I14" t="s">
+        <v>267</v>
+      </c>
+      <c r="K14" s="3"/>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A15" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>220</v>
+      </c>
+      <c r="E15" s="16" t="s">
+        <v>226</v>
+      </c>
+      <c r="I15" s="3" t="s">
+        <v>215</v>
+      </c>
+      <c r="K15" s="3"/>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A16" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>217</v>
+      </c>
+      <c r="E16" s="16" t="s">
+        <v>227</v>
+      </c>
+      <c r="I16" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="E14" s="3"/>
-      <c r="G14" s="3"/>
-      <c r="K14" s="3"/>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A15" s="3" t="s">
+      <c r="K16" s="3"/>
+    </row>
+    <row r="17" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A17" s="6"/>
+      <c r="C17" s="19"/>
+      <c r="E17" s="16" t="s">
+        <v>228</v>
+      </c>
+      <c r="I17" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="C15" s="3" t="s">
+      <c r="K17" s="3"/>
+    </row>
+    <row r="18" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A18" s="14" t="s">
+        <v>213</v>
+      </c>
+      <c r="C18" s="14" t="s">
+        <v>270</v>
+      </c>
+      <c r="E18" s="16" t="s">
+        <v>229</v>
+      </c>
+      <c r="I18" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="K18" s="3"/>
+    </row>
+    <row r="19" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A19" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="C19" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="E19" t="s">
+        <v>237</v>
+      </c>
+      <c r="I19" s="3" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="B20" s="19"/>
+      <c r="C20" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="D20" s="19"/>
+      <c r="E20" s="3" t="s">
+        <v>215</v>
+      </c>
+      <c r="F20" s="19"/>
+      <c r="G20" s="15"/>
+      <c r="H20" s="19"/>
+      <c r="I20" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="J20" s="19"/>
+      <c r="K20" s="15"/>
+      <c r="L20" s="19"/>
+      <c r="M20" s="15"/>
+    </row>
+    <row r="21" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A21" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="C21" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="E21" s="3" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A22" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="E15" s="3"/>
-      <c r="G15" s="3"/>
-      <c r="K15" s="3"/>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A16" s="3" t="s">
+      <c r="C22" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="E22" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="I22" s="19"/>
+    </row>
+    <row r="23" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A23" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="C16" s="3" t="s">
+      <c r="B23" s="18"/>
+      <c r="C23" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="E16" s="3"/>
-      <c r="G16" s="3"/>
-      <c r="K16" s="3"/>
-    </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A17" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="C17" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="E17" s="3"/>
-      <c r="G17" s="3"/>
-      <c r="K17" s="3"/>
-    </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A18" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="C18" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="E18" s="3"/>
-      <c r="G18" s="3"/>
-      <c r="K18" s="3"/>
-    </row>
-    <row r="20" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A21" s="7" t="s">
-        <v>57</v>
-      </c>
-      <c r="C21" s="10" t="s">
-        <v>58</v>
-      </c>
-      <c r="D21" s="10"/>
-      <c r="E21" s="10" t="s">
-        <v>59</v>
-      </c>
-      <c r="F21" s="10"/>
-      <c r="G21" s="10" t="s">
+      <c r="E23" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="I23" s="14" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A24" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="C24" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="E24" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="I24" s="3" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A25" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="C25" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="E25" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="I25" s="16" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A26" s="18"/>
+      <c r="C26" s="18"/>
+      <c r="E26" s="1"/>
+      <c r="I26" s="3" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A27" s="14" t="s">
         <v>37</v>
       </c>
-      <c r="I21" s="7" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A22" s="3" t="s">
-        <v>80</v>
-      </c>
-      <c r="C22" s="11" t="s">
-        <v>80</v>
-      </c>
-      <c r="D22" s="10"/>
-      <c r="E22" s="11" t="s">
-        <v>80</v>
-      </c>
-      <c r="F22" s="10"/>
-      <c r="G22" s="11" t="s">
-        <v>80</v>
-      </c>
-      <c r="I22" s="3" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A23" s="3" t="s">
+      <c r="C27" s="14" t="s">
+        <v>269</v>
+      </c>
+      <c r="E27" s="14" t="s">
+        <v>240</v>
+      </c>
+      <c r="I27" s="3" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="28" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A28" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="C28" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="E28" s="16" t="s">
+        <v>60</v>
+      </c>
+      <c r="I28" s="3" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="29" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A29" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="C29" s="3" t="s">
+        <v>271</v>
+      </c>
+      <c r="E29" s="16" t="s">
+        <v>236</v>
+      </c>
+      <c r="I29" s="3" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="30" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A30" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="C30" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="E30" s="16" t="s">
+        <v>93</v>
+      </c>
+      <c r="I30" s="3" t="s">
+        <v>246</v>
+      </c>
+      <c r="K30" s="1"/>
+      <c r="M30" s="1"/>
+    </row>
+    <row r="31" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A31" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="C31" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="E31" s="16" t="s">
+        <v>42</v>
+      </c>
+      <c r="I31" s="3" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="32" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A32" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="C32" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="E32" s="16" t="s">
+        <v>94</v>
+      </c>
+      <c r="I32" s="16" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="33" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A33" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="C33" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="E33" s="16" t="s">
+        <v>29</v>
+      </c>
+      <c r="I33" s="3" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="34" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A34" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="C34" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="E34" s="16" t="s">
+        <v>28</v>
+      </c>
+      <c r="I34" s="3" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="35" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A35" s="18"/>
+      <c r="C35" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="E35" s="16" t="s">
+        <v>49</v>
+      </c>
+      <c r="I35" s="3" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="36" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A36" s="14" t="s">
+        <v>52</v>
+      </c>
+      <c r="C36" s="18"/>
+      <c r="E36" s="16" t="s">
+        <v>50</v>
+      </c>
+      <c r="I36" s="3" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="37" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A37" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="E37" s="20" t="s">
+        <v>27</v>
+      </c>
+      <c r="I37" s="3" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="38" spans="1:12" s="19" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A38" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="C38" s="15"/>
+      <c r="E38" s="14" t="s">
+        <v>216</v>
+      </c>
+      <c r="I38" s="3" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="39" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A39" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="E39" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="I39" s="3" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="40" spans="1:12" s="15" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A40" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="B40" s="19"/>
+      <c r="D40" s="19"/>
+      <c r="E40" s="16" t="s">
+        <v>234</v>
+      </c>
+      <c r="F40" s="19"/>
+      <c r="H40" s="19"/>
+      <c r="I40" s="3" t="s">
+        <v>256</v>
+      </c>
+      <c r="J40" s="19"/>
+      <c r="L40" s="19"/>
+    </row>
+    <row r="41" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A41" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="E41" s="5" t="s">
+        <v>235</v>
+      </c>
+      <c r="I41" s="3" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="42" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A42" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="E42" s="5" t="s">
+        <v>165</v>
+      </c>
+      <c r="I42" s="3" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="43" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A43" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="E43" s="5" t="s">
+        <v>148</v>
+      </c>
+      <c r="I43" s="3" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="44" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A44" s="18"/>
+      <c r="E44" s="5" t="s">
+        <v>149</v>
+      </c>
+      <c r="I44" s="3" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="45" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="E45" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="I45" s="3" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="46" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="E46" s="5" t="s">
+        <v>145</v>
+      </c>
+      <c r="I46" s="19"/>
+    </row>
+    <row r="47" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="E47" s="5" t="s">
+        <v>146</v>
+      </c>
+      <c r="I47" s="14" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="48" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="E48" s="1"/>
+      <c r="I48" s="3" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="49" spans="5:9" x14ac:dyDescent="0.3">
+      <c r="E49" s="14" t="s">
+        <v>230</v>
+      </c>
+      <c r="I49" s="16" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="50" spans="5:9" x14ac:dyDescent="0.3">
+      <c r="E50" s="5"/>
+      <c r="I50" s="3" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="51" spans="5:9" x14ac:dyDescent="0.3">
+      <c r="E51" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="I51" s="3" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="52" spans="5:9" x14ac:dyDescent="0.3">
+      <c r="E52" s="5" t="s">
+        <v>168</v>
+      </c>
+      <c r="I52" s="3" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="53" spans="5:9" x14ac:dyDescent="0.3">
+      <c r="E53" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="I53" s="3" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="54" spans="5:9" x14ac:dyDescent="0.3">
+      <c r="E54" s="5" t="s">
+        <v>108</v>
+      </c>
+      <c r="I54" s="3" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="55" spans="5:9" x14ac:dyDescent="0.3">
+      <c r="E55" s="5" t="s">
+        <v>109</v>
+      </c>
+      <c r="I55" s="3" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="56" spans="5:9" x14ac:dyDescent="0.3">
+      <c r="E56" s="5" t="s">
+        <v>120</v>
+      </c>
+      <c r="I56" s="3"/>
+    </row>
+    <row r="57" spans="5:9" x14ac:dyDescent="0.3">
+      <c r="E57" s="5" t="s">
+        <v>121</v>
+      </c>
+      <c r="I57" s="3"/>
+    </row>
+    <row r="58" spans="5:9" x14ac:dyDescent="0.3">
+      <c r="E58" s="19"/>
+      <c r="I58" s="3"/>
+    </row>
+    <row r="59" spans="5:9" x14ac:dyDescent="0.3">
+      <c r="I59" s="3"/>
+    </row>
+    <row r="60" spans="5:9" x14ac:dyDescent="0.3">
+      <c r="I60" s="3"/>
+    </row>
+    <row r="61" spans="5:9" x14ac:dyDescent="0.3">
+      <c r="I61" s="3"/>
+    </row>
+    <row r="62" spans="5:9" x14ac:dyDescent="0.3">
+      <c r="I62" s="3"/>
+    </row>
+    <row r="63" spans="5:9" x14ac:dyDescent="0.3">
+      <c r="I63" s="19"/>
+    </row>
+    <row r="64" spans="5:9" x14ac:dyDescent="0.3">
+      <c r="I64" s="14" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="65" spans="9:9" x14ac:dyDescent="0.3">
+      <c r="I65" s="3" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="66" spans="9:9" x14ac:dyDescent="0.3">
+      <c r="I66" s="16" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="67" spans="9:9" x14ac:dyDescent="0.3">
+      <c r="I67" s="3" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="68" spans="9:9" x14ac:dyDescent="0.3">
+      <c r="I68" s="23" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="69" spans="9:9" x14ac:dyDescent="0.3">
+      <c r="I69" s="23" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="70" spans="9:9" x14ac:dyDescent="0.3">
+      <c r="I70" s="23"/>
+    </row>
+    <row r="71" spans="9:9" x14ac:dyDescent="0.3">
+      <c r="I71" s="23"/>
+    </row>
+    <row r="72" spans="9:9" x14ac:dyDescent="0.3">
+      <c r="I72" s="3" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="73" spans="9:9" x14ac:dyDescent="0.3">
+      <c r="I73" s="3" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="74" spans="9:9" x14ac:dyDescent="0.3">
+      <c r="I74" s="3" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="75" spans="9:9" x14ac:dyDescent="0.3">
+      <c r="I75" s="3" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="76" spans="9:9" x14ac:dyDescent="0.3">
+      <c r="I76" s="3" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="77" spans="9:9" x14ac:dyDescent="0.3">
+      <c r="I77" s="19"/>
+    </row>
+    <row r="78" spans="9:9" x14ac:dyDescent="0.3">
+      <c r="I78" s="14" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="79" spans="9:9" x14ac:dyDescent="0.3">
+      <c r="I79" s="3" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="80" spans="9:9" x14ac:dyDescent="0.3">
+      <c r="I80" s="16" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="81" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="I81" s="3" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="82" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="I82" s="23" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="83" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="I83" s="3" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="84" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="I84" s="3" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="85" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="I85" s="3" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="86" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="I86" s="3" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="87" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="I87" s="19"/>
+    </row>
+    <row r="90" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B90" s="19"/>
+      <c r="D90" s="19"/>
+      <c r="F90" s="19"/>
+      <c r="H90" s="19"/>
+      <c r="J90" s="19"/>
+      <c r="L90" s="19"/>
+    </row>
+    <row r="91" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A91" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="C91" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="E91" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="G91" s="9" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="92" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A92" s="10" t="s">
+        <v>60</v>
+      </c>
+      <c r="C92" s="10" t="s">
+        <v>60</v>
+      </c>
+      <c r="E92" s="10" t="s">
+        <v>60</v>
+      </c>
+      <c r="G92" s="10" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="93" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A93" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="C93" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="E93" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="G93" s="10" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="94" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A94" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="C94" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="E94" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="G94" s="10" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="95" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A95" s="10" t="s">
+        <v>43</v>
+      </c>
+      <c r="C95" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="E95" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="G95" s="10" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="96" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A96" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="C96" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="E96" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="G96" s="10" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="97" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A97" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="C97" s="10" t="s">
+        <v>49</v>
+      </c>
+      <c r="E97" s="10" t="s">
+        <v>49</v>
+      </c>
+      <c r="G97" s="10" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="98" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A98" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="C98" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="E98" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="G98" s="10" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="99" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A99" s="10" t="s">
+        <v>49</v>
+      </c>
+      <c r="E99" s="9"/>
+      <c r="G99" s="9"/>
+    </row>
+    <row r="100" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A100" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="C100" s="6"/>
+      <c r="D100" s="18"/>
+      <c r="E100" s="6"/>
+      <c r="F100" s="18"/>
+      <c r="G100" s="6"/>
+    </row>
+    <row r="101" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A101" s="6"/>
+      <c r="C101" s="22" t="s">
+        <v>30</v>
+      </c>
+      <c r="D101" s="9"/>
+      <c r="E101" s="22" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="102" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A102" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="C102" s="10" t="s">
+        <v>60</v>
+      </c>
+      <c r="D102" s="9"/>
+      <c r="E102" s="10" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="103" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A103" s="10" t="s">
+        <v>60</v>
+      </c>
+      <c r="C103" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="D103" s="9"/>
+      <c r="E103" s="10" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="104" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A104" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="C104" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="D104" s="9"/>
+      <c r="E104" s="10" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="105" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A105" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="C105" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="D105" s="9"/>
+      <c r="E105" s="10" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="106" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A106" s="10" t="s">
+        <v>43</v>
+      </c>
+      <c r="C106" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="D106" s="9"/>
+      <c r="E106" s="10" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="107" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A107" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="C107" s="10" t="s">
+        <v>49</v>
+      </c>
+      <c r="D107" s="9"/>
+      <c r="E107" s="10" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="108" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A108" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="C108" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="D108" s="9"/>
+      <c r="E108" s="10" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="109" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A109" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="C109" s="17"/>
+      <c r="D109" s="9"/>
+      <c r="E109" s="10" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="110" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A110" s="10" t="s">
+        <v>49</v>
+      </c>
+      <c r="C110" s="22" t="s">
+        <v>31</v>
+      </c>
+      <c r="D110" s="9"/>
+      <c r="E110" s="10" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="111" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A111" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="C111" s="10" t="s">
+        <v>60</v>
+      </c>
+      <c r="D111" s="9"/>
+      <c r="E111" s="10" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="112" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A112" s="17"/>
+      <c r="C112" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="D112" s="9"/>
+      <c r="E112" s="9"/>
+    </row>
+    <row r="113" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A113" s="6"/>
+      <c r="C113" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="D113" s="9"/>
+      <c r="E113" s="9"/>
+    </row>
+    <row r="114" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A114" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="C114" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="D114" s="9"/>
+      <c r="E114" s="9"/>
+    </row>
+    <row r="115" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A115" s="10" t="s">
+        <v>60</v>
+      </c>
+      <c r="C115" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="D115" s="9"/>
+      <c r="E115" s="9"/>
+    </row>
+    <row r="116" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A116" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="C116" s="10" t="s">
+        <v>49</v>
+      </c>
+      <c r="D116" s="9"/>
+      <c r="E116" s="9"/>
+    </row>
+    <row r="117" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A117" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="C117" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="D117" s="9"/>
+      <c r="E117" s="9"/>
+    </row>
+    <row r="118" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A118" s="10" t="s">
+        <v>43</v>
+      </c>
+      <c r="C118" s="9"/>
+      <c r="D118" s="9"/>
+      <c r="E118" s="9"/>
+    </row>
+    <row r="119" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A119" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="C119" s="22" t="s">
         <v>33</v>
       </c>
-      <c r="C23" s="11" t="s">
-        <v>33</v>
-      </c>
-      <c r="D23" s="10"/>
-      <c r="E23" s="11" t="s">
-        <v>33</v>
-      </c>
-      <c r="F23" s="10"/>
-      <c r="G23" s="11" t="s">
-        <v>33</v>
-      </c>
-      <c r="I23" s="5" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A24" s="3" t="s">
+      <c r="D119" s="9"/>
+      <c r="E119" s="9"/>
+    </row>
+    <row r="120" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A120" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="C120" s="10" t="s">
+        <v>60</v>
+      </c>
+      <c r="D120" s="9"/>
+      <c r="E120" s="9"/>
+    </row>
+    <row r="121" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A121" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="C121" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="D121" s="9"/>
+      <c r="E121" s="9"/>
+    </row>
+    <row r="122" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A122" s="10" t="s">
+        <v>49</v>
+      </c>
+      <c r="C122" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="C24" s="11" t="s">
+      <c r="D122" s="9"/>
+      <c r="E122" s="9"/>
+    </row>
+    <row r="123" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A123" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="C123" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="D123" s="9"/>
+      <c r="E123" s="9"/>
+    </row>
+    <row r="124" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A124" s="6"/>
+      <c r="C124" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="D124" s="9"/>
+      <c r="E124" s="9"/>
+    </row>
+    <row r="125" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A125" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="C125" s="10" t="s">
+        <v>49</v>
+      </c>
+      <c r="D125" s="9"/>
+      <c r="E125" s="9"/>
+    </row>
+    <row r="126" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A126" s="10" t="s">
+        <v>60</v>
+      </c>
+      <c r="C126" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="D126" s="9"/>
+      <c r="E126" s="9"/>
+    </row>
+    <row r="127" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A127" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="C127" s="9"/>
+      <c r="D127" s="9"/>
+      <c r="E127" s="9"/>
+    </row>
+    <row r="128" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A128" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="D24" s="10"/>
-      <c r="E24" s="11" t="s">
+      <c r="C128" s="22" t="s">
+        <v>34</v>
+      </c>
+      <c r="D128" s="9"/>
+      <c r="E128" s="9"/>
+    </row>
+    <row r="129" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A129" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="C129" s="10" t="s">
+        <v>60</v>
+      </c>
+      <c r="D129" s="9"/>
+      <c r="E129" s="9"/>
+    </row>
+    <row r="130" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A130" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="C130" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="D130" s="9"/>
+      <c r="E130" s="9"/>
+    </row>
+    <row r="131" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A131" s="10" t="s">
+        <v>49</v>
+      </c>
+      <c r="C131" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="F24" s="10"/>
-      <c r="G24" s="11" t="s">
-        <v>27</v>
-      </c>
-      <c r="I24" s="5" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A25" s="3" t="s">
+      <c r="D131" s="9"/>
+      <c r="E131" s="9"/>
+    </row>
+    <row r="132" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A132" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="C132" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="C25" s="11" t="s">
-        <v>29</v>
-      </c>
-      <c r="D25" s="10"/>
-      <c r="E25" s="11" t="s">
-        <v>29</v>
-      </c>
-      <c r="F25" s="10"/>
-      <c r="G25" s="11" t="s">
-        <v>29</v>
-      </c>
-      <c r="I25" s="3" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A26" s="3" t="s">
+      <c r="D132" s="9"/>
+      <c r="E132" s="9"/>
+    </row>
+    <row r="133" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A133" s="6"/>
+      <c r="C133" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="C26" s="11" t="s">
-        <v>28</v>
-      </c>
-      <c r="D26" s="10"/>
-      <c r="E26" s="11" t="s">
-        <v>28</v>
-      </c>
-      <c r="F26" s="10"/>
-      <c r="G26" s="11" t="s">
-        <v>28</v>
-      </c>
-      <c r="I26" s="3" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A27" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="C27" s="11" t="s">
-        <v>68</v>
-      </c>
-      <c r="D27" s="10"/>
-      <c r="E27" s="11" t="s">
-        <v>68</v>
-      </c>
-      <c r="F27" s="10"/>
-      <c r="G27" s="11" t="s">
-        <v>68</v>
-      </c>
-      <c r="I27" s="3" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A28" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="C28" s="11" t="s">
-        <v>69</v>
-      </c>
-      <c r="D28" s="10"/>
-      <c r="E28" s="11" t="s">
-        <v>69</v>
-      </c>
-      <c r="F28" s="10"/>
-      <c r="G28" s="11" t="s">
-        <v>69</v>
-      </c>
-      <c r="I28" s="3" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="C29" s="10"/>
-      <c r="D29" s="10"/>
-      <c r="E29" s="10"/>
-      <c r="F29" s="10"/>
-      <c r="G29" s="10"/>
-      <c r="I29" s="3" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A30" s="6"/>
-      <c r="B30" s="6"/>
-      <c r="C30" s="6"/>
-      <c r="D30" s="6"/>
-      <c r="E30" s="6"/>
-      <c r="G30" s="6"/>
-      <c r="I30" s="6"/>
-      <c r="K30" s="1"/>
-    </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A31" s="7" t="s">
+      <c r="D133" s="9"/>
+      <c r="E133" s="9"/>
+    </row>
+    <row r="134" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="C134" s="10" t="s">
+        <v>49</v>
+      </c>
+      <c r="D134" s="9"/>
+      <c r="E134" s="9"/>
+    </row>
+    <row r="135" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="C135" s="10" t="s">
         <v>50</v>
       </c>
-      <c r="C31" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="E31" s="7" t="s">
-        <v>53</v>
-      </c>
-      <c r="G31" s="7" t="s">
-        <v>74</v>
-      </c>
-      <c r="I31" s="12" t="s">
-        <v>39</v>
-      </c>
-      <c r="K31" s="3"/>
-    </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A32" s="3" t="s">
-        <v>80</v>
-      </c>
-      <c r="C32" s="3" t="s">
-        <v>80</v>
-      </c>
-      <c r="E32" s="3" t="s">
-        <v>80</v>
-      </c>
-      <c r="G32" s="3" t="s">
-        <v>80</v>
-      </c>
-      <c r="I32" s="3" t="s">
-        <v>80</v>
-      </c>
-      <c r="K32" s="3"/>
-    </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A33" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="C33" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="E33" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="G33" s="3" t="s">
-        <v>75</v>
-      </c>
-      <c r="I33" s="3" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A34" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="C34" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="E34" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="G34" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="I34" s="3" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A35" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="C35" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="E35" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="G35" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="I35" s="3" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A36" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="C36" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="E36" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="G36" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="I36" s="3" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A37" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="C37" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="E37" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="G37" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="I37" s="3" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A38" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="C38" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="E38" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="G38" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="I38" s="3" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A39" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="C39" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="E39" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="G39" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="I39" s="3" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="40" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A40" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="C40" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="E40" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="G40" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="I40" s="3" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A41" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="C41" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="E41" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="G41" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="I41" s="3" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A42" s="6"/>
-      <c r="B42" s="6"/>
-      <c r="C42" s="6"/>
-      <c r="D42" s="6"/>
-      <c r="E42" s="6"/>
-      <c r="G42" s="6"/>
-      <c r="I42" s="3" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="C43" s="7" t="s">
-        <v>107</v>
-      </c>
-      <c r="E43" s="7" t="s">
-        <v>111</v>
-      </c>
-      <c r="G43" s="7" t="s">
-        <v>114</v>
-      </c>
-      <c r="I43" s="3" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="C44" s="3" t="s">
-        <v>80</v>
-      </c>
-      <c r="E44" s="3" t="s">
-        <v>80</v>
-      </c>
-      <c r="G44" s="3" t="s">
-        <v>80</v>
-      </c>
-      <c r="I44" s="3" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="C45" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="E45" s="3" t="s">
-        <v>110</v>
-      </c>
-      <c r="G45" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="I45" s="3" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="C46" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="E46" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="G46" s="3" t="s">
-        <v>115</v>
-      </c>
-      <c r="I46" s="3" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="C47" s="6"/>
-      <c r="E47" s="3" t="s">
-        <v>109</v>
-      </c>
-      <c r="G47" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="I47" s="3" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="C48" s="3"/>
-      <c r="E48" s="3" t="s">
-        <v>112</v>
-      </c>
-      <c r="G48" s="3" t="s">
-        <v>116</v>
-      </c>
-      <c r="I48" s="3" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="49" spans="3:9" x14ac:dyDescent="0.3">
-      <c r="C49" s="3"/>
-      <c r="E49" s="3" t="s">
-        <v>113</v>
-      </c>
-      <c r="G49" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="I49" s="3" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="50" spans="3:9" x14ac:dyDescent="0.3">
-      <c r="C50" s="3"/>
-      <c r="E50" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="G50" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="I50" s="1"/>
-    </row>
-    <row r="51" spans="3:9" x14ac:dyDescent="0.3">
-      <c r="E51" s="3" t="s">
-        <v>108</v>
-      </c>
-      <c r="G51" s="3" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="52" spans="3:9" x14ac:dyDescent="0.3">
-      <c r="E52" s="3" t="s">
-        <v>106</v>
-      </c>
-      <c r="G52" s="3" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="53" spans="3:9" x14ac:dyDescent="0.3">
-      <c r="E53" s="6"/>
-      <c r="G53" s="3" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="54" spans="3:9" x14ac:dyDescent="0.3">
-      <c r="G54" s="6"/>
+      <c r="D135" s="9"/>
+      <c r="E135" s="9"/>
+    </row>
+    <row r="136" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="C136" s="9"/>
+      <c r="D136" s="9"/>
+      <c r="E136" s="9"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -2264,8 +3037,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7A56A3A2-9F47-4A03-BD8E-A94BF6CBF8B3}">
   <dimension ref="A1:H84"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+    <sheetView topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G2" sqref="G2:G11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2283,72 +3056,72 @@
   <sheetData>
     <row r="1" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="16" t="s">
-        <v>233</v>
+      <c r="A2" s="14" t="s">
+        <v>211</v>
       </c>
       <c r="B2" s="1"/>
-      <c r="C2" s="16" t="s">
-        <v>63</v>
+      <c r="C2" s="14" t="s">
+        <v>48</v>
       </c>
       <c r="D2" s="1"/>
-      <c r="E2" s="16" t="s">
-        <v>188</v>
+      <c r="E2" s="14" t="s">
+        <v>166</v>
       </c>
       <c r="F2" s="1"/>
-      <c r="G2" s="17" t="s">
-        <v>189</v>
+      <c r="G2" s="14" t="s">
+        <v>167</v>
       </c>
       <c r="H2" s="1"/>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
-        <v>80</v>
+        <v>60</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>80</v>
-      </c>
-      <c r="E3" s="14"/>
+        <v>60</v>
+      </c>
+      <c r="E3" s="12"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>234</v>
+        <v>212</v>
       </c>
       <c r="E4" s="5" t="s">
-        <v>80</v>
+        <v>60</v>
       </c>
       <c r="G4" s="5" t="s">
-        <v>80</v>
+        <v>60</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5" s="3" t="s">
-        <v>79</v>
+        <v>59</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>232</v>
+        <v>210</v>
       </c>
       <c r="E5" s="5" t="s">
-        <v>175</v>
+        <v>153</v>
       </c>
       <c r="G5" s="5" t="s">
-        <v>190</v>
+        <v>168</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6" s="3" t="s">
-        <v>78</v>
+        <v>58</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>85</v>
+        <v>65</v>
       </c>
       <c r="E6" s="5" t="s">
-        <v>191</v>
+        <v>169</v>
       </c>
       <c r="G6" s="5" t="s">
-        <v>129</v>
+        <v>107</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.3">
@@ -2356,13 +3129,13 @@
         <v>27</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>119</v>
+        <v>97</v>
       </c>
       <c r="E7" s="5" t="s">
-        <v>187</v>
+        <v>165</v>
       </c>
       <c r="G7" s="5" t="s">
-        <v>130</v>
+        <v>108</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.3">
@@ -2370,13 +3143,13 @@
         <v>29</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>120</v>
+        <v>98</v>
       </c>
       <c r="E8" s="5" t="s">
-        <v>170</v>
+        <v>148</v>
       </c>
       <c r="G8" s="5" t="s">
-        <v>131</v>
+        <v>109</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.3">
@@ -2384,112 +3157,112 @@
         <v>28</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>121</v>
+        <v>99</v>
       </c>
       <c r="E9" s="5" t="s">
-        <v>171</v>
+        <v>149</v>
       </c>
       <c r="G9" s="5" t="s">
-        <v>142</v>
+        <v>120</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A10" s="3" t="s">
-        <v>83</v>
+        <v>63</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>122</v>
+        <v>100</v>
       </c>
       <c r="E10" s="5" t="s">
-        <v>129</v>
+        <v>107</v>
       </c>
       <c r="G10" s="5" t="s">
-        <v>143</v>
+        <v>121</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A11" s="3" t="s">
-        <v>84</v>
+        <v>64</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>123</v>
+        <v>101</v>
       </c>
       <c r="E11" s="5" t="s">
-        <v>167</v>
+        <v>145</v>
       </c>
       <c r="G11" s="1"/>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A12" s="1"/>
       <c r="C12" s="5" t="s">
-        <v>124</v>
+        <v>102</v>
       </c>
       <c r="E12" s="5" t="s">
-        <v>168</v>
+        <v>146</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A13" s="16" t="s">
-        <v>76</v>
+      <c r="A13" s="14" t="s">
+        <v>56</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>125</v>
+        <v>103</v>
       </c>
       <c r="E13" s="1"/>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A14" s="3" t="s">
-        <v>80</v>
+        <v>60</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>126</v>
-      </c>
-      <c r="E14" s="17" t="s">
-        <v>226</v>
+        <v>104</v>
+      </c>
+      <c r="E14" s="14" t="s">
+        <v>204</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A15" s="3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C15" s="5" t="s">
-        <v>127</v>
+        <v>105</v>
       </c>
       <c r="E15" s="5" t="s">
-        <v>80</v>
+        <v>60</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A16" s="3" t="s">
-        <v>79</v>
+        <v>59</v>
       </c>
       <c r="C16" s="5" t="s">
-        <v>128</v>
+        <v>106</v>
       </c>
       <c r="E16" s="5" t="s">
-        <v>145</v>
+        <v>123</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A17" s="3" t="s">
-        <v>78</v>
+        <v>58</v>
       </c>
       <c r="C17" s="5" t="s">
-        <v>129</v>
+        <v>107</v>
       </c>
       <c r="E17" s="5" t="s">
-        <v>146</v>
+        <v>124</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A18" s="3" t="s">
-        <v>77</v>
+        <v>57</v>
       </c>
       <c r="C18" s="5" t="s">
-        <v>130</v>
+        <v>108</v>
       </c>
       <c r="E18" s="3" t="s">
-        <v>227</v>
+        <v>205</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.3">
@@ -2497,7 +3270,7 @@
         <v>27</v>
       </c>
       <c r="C19" s="5" t="s">
-        <v>131</v>
+        <v>109</v>
       </c>
       <c r="E19" s="3" t="s">
         <v>27</v>
@@ -2508,7 +3281,7 @@
         <v>29</v>
       </c>
       <c r="C20" s="5" t="s">
-        <v>132</v>
+        <v>110</v>
       </c>
       <c r="E20" s="3" t="s">
         <v>29</v>
@@ -2519,7 +3292,7 @@
         <v>28</v>
       </c>
       <c r="C21" s="5" t="s">
-        <v>133</v>
+        <v>111</v>
       </c>
       <c r="E21" s="3" t="s">
         <v>28</v>
@@ -2527,80 +3300,80 @@
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A22" s="3" t="s">
-        <v>83</v>
+        <v>63</v>
       </c>
       <c r="C22" s="5" t="s">
-        <v>134</v>
+        <v>112</v>
       </c>
       <c r="E22" s="3" t="s">
-        <v>83</v>
+        <v>63</v>
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A23" s="3" t="s">
-        <v>84</v>
+        <v>64</v>
       </c>
       <c r="C23" s="5" t="s">
-        <v>135</v>
+        <v>113</v>
       </c>
       <c r="E23" s="3" t="s">
-        <v>84</v>
+        <v>64</v>
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A24" s="1"/>
       <c r="C24" s="5" t="s">
-        <v>136</v>
+        <v>114</v>
       </c>
       <c r="E24" s="1"/>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A25" s="16" t="s">
-        <v>231</v>
+      <c r="A25" s="14" t="s">
+        <v>209</v>
       </c>
       <c r="C25" s="5" t="s">
-        <v>137</v>
+        <v>115</v>
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A26" s="3" t="s">
-        <v>80</v>
+        <v>60</v>
       </c>
       <c r="C26" s="5" t="s">
-        <v>138</v>
+        <v>116</v>
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A27" s="5" t="s">
-        <v>118</v>
+        <v>96</v>
       </c>
       <c r="C27" s="5" t="s">
-        <v>139</v>
+        <v>117</v>
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A28" s="3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C28" s="5" t="s">
-        <v>140</v>
+        <v>118</v>
       </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A29" s="3" t="s">
-        <v>79</v>
+        <v>59</v>
       </c>
       <c r="C29" s="5" t="s">
-        <v>141</v>
+        <v>119</v>
       </c>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A30" s="3" t="s">
-        <v>78</v>
+        <v>58</v>
       </c>
       <c r="B30" s="4"/>
       <c r="C30" s="5" t="s">
-        <v>142</v>
+        <v>120</v>
       </c>
       <c r="D30" s="4"/>
       <c r="F30" s="4"/>
@@ -2608,10 +3381,10 @@
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A31" s="3" t="s">
-        <v>77</v>
+        <v>57</v>
       </c>
       <c r="C31" s="5" t="s">
-        <v>143</v>
+        <v>121</v>
       </c>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.3">
@@ -2619,7 +3392,7 @@
         <v>27</v>
       </c>
       <c r="C32" s="5" t="s">
-        <v>184</v>
+        <v>162</v>
       </c>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.3">
@@ -2627,7 +3400,7 @@
         <v>29</v>
       </c>
       <c r="C33" s="5" t="s">
-        <v>185</v>
+        <v>163</v>
       </c>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.3">
@@ -2635,68 +3408,68 @@
         <v>28</v>
       </c>
       <c r="C34" s="5" t="s">
-        <v>186</v>
+        <v>164</v>
       </c>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A35" s="3" t="s">
-        <v>83</v>
+        <v>63</v>
       </c>
       <c r="C35" s="1"/>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A36" s="3" t="s">
-        <v>84</v>
-      </c>
-      <c r="C36" s="16" t="s">
-        <v>144</v>
+        <v>64</v>
+      </c>
+      <c r="C36" s="14" t="s">
+        <v>122</v>
       </c>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A37" s="1"/>
       <c r="C37" s="5" t="s">
-        <v>80</v>
+        <v>60</v>
       </c>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A38" s="16" t="s">
-        <v>81</v>
+      <c r="A38" s="14" t="s">
+        <v>61</v>
       </c>
       <c r="C38" s="5" t="s">
-        <v>145</v>
+        <v>123</v>
       </c>
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A39" s="3" t="s">
-        <v>80</v>
+        <v>60</v>
       </c>
       <c r="C39" s="5" t="s">
-        <v>146</v>
+        <v>124</v>
       </c>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A40" s="5" t="s">
-        <v>230</v>
+        <v>208</v>
       </c>
       <c r="C40" s="5" t="s">
-        <v>147</v>
+        <v>125</v>
       </c>
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A41" s="3" t="s">
-        <v>82</v>
+        <v>62</v>
       </c>
       <c r="C41" s="5" t="s">
-        <v>148</v>
+        <v>126</v>
       </c>
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A42" s="3" t="s">
-        <v>79</v>
+        <v>59</v>
       </c>
       <c r="B42" s="4"/>
       <c r="C42" s="5" t="s">
-        <v>149</v>
+        <v>127</v>
       </c>
       <c r="D42" s="4"/>
       <c r="F42" s="4"/>
@@ -2704,18 +3477,18 @@
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A43" s="3" t="s">
-        <v>78</v>
+        <v>58</v>
       </c>
       <c r="C43" s="5" t="s">
-        <v>150</v>
+        <v>128</v>
       </c>
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A44" s="3" t="s">
-        <v>77</v>
+        <v>57</v>
       </c>
       <c r="C44" s="5" t="s">
-        <v>151</v>
+        <v>129</v>
       </c>
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.3">
@@ -2723,7 +3496,7 @@
         <v>27</v>
       </c>
       <c r="C45" s="5" t="s">
-        <v>127</v>
+        <v>105</v>
       </c>
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.3">
@@ -2731,7 +3504,7 @@
         <v>29</v>
       </c>
       <c r="C46" s="5" t="s">
-        <v>129</v>
+        <v>107</v>
       </c>
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.3">
@@ -2739,55 +3512,55 @@
         <v>28</v>
       </c>
       <c r="C47" s="5" t="s">
-        <v>130</v>
+        <v>108</v>
       </c>
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A48" s="3" t="s">
-        <v>83</v>
+        <v>63</v>
       </c>
       <c r="C48" s="5" t="s">
-        <v>131</v>
+        <v>109</v>
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A49" s="3" t="s">
-        <v>84</v>
+        <v>64</v>
       </c>
       <c r="C49" s="5" t="s">
-        <v>142</v>
+        <v>120</v>
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A50" s="1"/>
       <c r="C50" s="5" t="s">
-        <v>143</v>
+        <v>121</v>
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A51" s="16" t="s">
-        <v>228</v>
+      <c r="A51" s="14" t="s">
+        <v>206</v>
       </c>
       <c r="C51" s="1"/>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A52" s="3" t="s">
-        <v>80</v>
+        <v>60</v>
       </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A53" s="3" t="s">
-        <v>90</v>
+        <v>70</v>
       </c>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A54" s="3" t="s">
-        <v>79</v>
+        <v>59</v>
       </c>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A55" s="3" t="s">
-        <v>229</v>
+        <v>207</v>
       </c>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.3">
@@ -2807,45 +3580,45 @@
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A59" s="3" t="s">
-        <v>83</v>
+        <v>63</v>
       </c>
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A60" s="3" t="s">
-        <v>84</v>
+        <v>64</v>
       </c>
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A62" s="1"/>
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A63" s="16" t="s">
-        <v>86</v>
+      <c r="A63" s="14" t="s">
+        <v>66</v>
       </c>
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A64" s="3" t="s">
-        <v>80</v>
+        <v>60</v>
       </c>
     </row>
     <row r="65" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A65" s="3" t="s">
-        <v>87</v>
+        <v>67</v>
       </c>
     </row>
     <row r="66" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A66" s="3" t="s">
-        <v>79</v>
+        <v>59</v>
       </c>
     </row>
     <row r="67" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A67" s="3" t="s">
-        <v>78</v>
+        <v>58</v>
       </c>
     </row>
     <row r="68" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A68" s="3" t="s">
-        <v>77</v>
+        <v>57</v>
       </c>
     </row>
     <row r="69" spans="1:1" x14ac:dyDescent="0.3">
@@ -2865,35 +3638,35 @@
     </row>
     <row r="72" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A72" s="3" t="s">
-        <v>83</v>
+        <v>63</v>
       </c>
     </row>
     <row r="73" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A73" s="3" t="s">
-        <v>84</v>
+        <v>64</v>
       </c>
     </row>
     <row r="74" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A74" s="1"/>
     </row>
     <row r="75" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A75" s="16" t="s">
-        <v>88</v>
+      <c r="A75" s="14" t="s">
+        <v>68</v>
       </c>
     </row>
     <row r="76" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A76" s="3" t="s">
-        <v>89</v>
+        <v>69</v>
       </c>
     </row>
     <row r="77" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A77" s="3" t="s">
-        <v>90</v>
+        <v>70</v>
       </c>
     </row>
     <row r="78" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A78" s="3" t="s">
-        <v>79</v>
+        <v>59</v>
       </c>
     </row>
     <row r="79" spans="1:1" x14ac:dyDescent="0.3">
@@ -2913,12 +3686,12 @@
     </row>
     <row r="82" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A82" s="3" t="s">
-        <v>83</v>
+        <v>63</v>
       </c>
     </row>
     <row r="83" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A83" s="3" t="s">
-        <v>84</v>
+        <v>64</v>
       </c>
     </row>
     <row r="84" spans="1:1" x14ac:dyDescent="0.3">
@@ -2949,253 +3722,253 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A1" s="13" t="s">
-        <v>152</v>
-      </c>
-      <c r="C1" s="13" t="s">
-        <v>154</v>
-      </c>
-      <c r="E1" s="13" t="s">
-        <v>180</v>
+      <c r="A1" s="11" t="s">
+        <v>130</v>
+      </c>
+      <c r="C1" s="11" t="s">
+        <v>132</v>
+      </c>
+      <c r="E1" s="11" t="s">
+        <v>158</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A2" s="14"/>
-      <c r="C2" s="14"/>
+      <c r="A2" s="12"/>
+      <c r="C2" s="12"/>
       <c r="E2" s="5" t="s">
-        <v>80</v>
+        <v>60</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" s="5" t="s">
-        <v>80</v>
+        <v>60</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>80</v>
+        <v>60</v>
       </c>
       <c r="E3" s="5" t="s">
-        <v>163</v>
+        <v>141</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" s="5" t="s">
-        <v>155</v>
+        <v>133</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>166</v>
+        <v>144</v>
       </c>
       <c r="E4" s="5" t="s">
-        <v>156</v>
+        <v>134</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" s="5" t="s">
-        <v>156</v>
+        <v>134</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>169</v>
+        <v>147</v>
       </c>
       <c r="E5" s="5" t="s">
-        <v>164</v>
+        <v>142</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" s="5" t="s">
-        <v>157</v>
+        <v>135</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>170</v>
+        <v>148</v>
       </c>
       <c r="E6" s="5" t="s">
-        <v>165</v>
+        <v>143</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" s="5" t="s">
-        <v>158</v>
+        <v>136</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>171</v>
+        <v>149</v>
       </c>
       <c r="E7" s="5" t="s">
-        <v>129</v>
+        <v>107</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8" s="5" t="s">
-        <v>159</v>
+        <v>137</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>172</v>
+        <v>150</v>
       </c>
       <c r="E8" s="5" t="s">
-        <v>130</v>
+        <v>108</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9" s="5" t="s">
-        <v>183</v>
+        <v>161</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>173</v>
+        <v>151</v>
       </c>
       <c r="E9" s="5" t="s">
-        <v>131</v>
+        <v>109</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10" s="5" t="s">
-        <v>153</v>
+        <v>131</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>174</v>
+        <v>152</v>
       </c>
       <c r="E10" s="5" t="s">
-        <v>142</v>
+        <v>120</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A11" s="5" t="s">
-        <v>160</v>
+        <v>138</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>129</v>
+        <v>107</v>
       </c>
       <c r="E11" s="5" t="s">
-        <v>143</v>
+        <v>121</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A12" s="5" t="s">
-        <v>161</v>
+        <v>139</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>167</v>
+        <v>145</v>
       </c>
       <c r="E12" s="1"/>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A13" s="5" t="s">
-        <v>162</v>
+        <v>140</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>168</v>
+        <v>146</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A14" s="5" t="s">
-        <v>129</v>
+        <v>107</v>
       </c>
       <c r="C14" s="1"/>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A15" s="5" t="s">
-        <v>130</v>
-      </c>
-      <c r="C15" s="13" t="s">
-        <v>182</v>
+        <v>108</v>
+      </c>
+      <c r="C15" s="11" t="s">
+        <v>160</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A16" s="5" t="s">
-        <v>131</v>
+        <v>109</v>
       </c>
       <c r="C16" s="5" t="s">
-        <v>80</v>
+        <v>60</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A17" s="5" t="s">
-        <v>142</v>
+        <v>120</v>
       </c>
       <c r="C17" s="5" t="s">
-        <v>166</v>
+        <v>144</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A18" s="5" t="s">
-        <v>143</v>
+        <v>121</v>
       </c>
       <c r="C18" s="5" t="s">
-        <v>175</v>
+        <v>153</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A19" s="1"/>
       <c r="C19" s="5" t="s">
-        <v>179</v>
+        <v>157</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A20" s="13" t="s">
-        <v>181</v>
+      <c r="A20" s="11" t="s">
+        <v>159</v>
       </c>
       <c r="C20" s="5" t="s">
-        <v>129</v>
+        <v>107</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A21" s="5" t="s">
-        <v>80</v>
+        <v>60</v>
       </c>
       <c r="C21" s="5" t="s">
-        <v>130</v>
+        <v>108</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A22" s="5" t="s">
-        <v>166</v>
+        <v>144</v>
       </c>
       <c r="C22" s="5" t="s">
-        <v>142</v>
+        <v>120</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A23" s="5" t="s">
-        <v>175</v>
+        <v>153</v>
       </c>
       <c r="C23" s="1"/>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A24" s="5" t="s">
-        <v>176</v>
+        <v>154</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A25" s="5" t="s">
-        <v>177</v>
+        <v>155</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A26" s="5" t="s">
-        <v>178</v>
+        <v>156</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A27" s="5" t="s">
-        <v>129</v>
+        <v>107</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A28" s="5" t="s">
-        <v>130</v>
+        <v>108</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A29" s="5" t="s">
-        <v>131</v>
+        <v>109</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A30" s="5" t="s">
-        <v>142</v>
+        <v>120</v>
       </c>
       <c r="B30" s="4"/>
       <c r="D30" s="4"/>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A31" s="5" t="s">
-        <v>143</v>
+        <v>121</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.3">
@@ -3227,325 +4000,325 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A1" s="15" t="s">
-        <v>192</v>
-      </c>
-      <c r="C1" s="15" t="s">
-        <v>196</v>
-      </c>
-      <c r="E1" s="15" t="s">
-        <v>202</v>
+      <c r="A1" s="13" t="s">
+        <v>170</v>
+      </c>
+      <c r="C1" s="13" t="s">
+        <v>174</v>
+      </c>
+      <c r="E1" s="13" t="s">
+        <v>180</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>80</v>
+        <v>60</v>
       </c>
       <c r="C2" t="s">
-        <v>80</v>
+        <v>60</v>
       </c>
       <c r="E2" t="s">
-        <v>80</v>
+        <v>60</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>193</v>
+        <v>171</v>
       </c>
       <c r="C3" t="s">
-        <v>197</v>
+        <v>175</v>
       </c>
       <c r="E3" t="s">
-        <v>203</v>
+        <v>181</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>194</v>
+        <v>172</v>
       </c>
       <c r="C4" t="s">
-        <v>193</v>
+        <v>171</v>
       </c>
       <c r="E4" t="s">
-        <v>204</v>
+        <v>182</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>195</v>
+        <v>173</v>
       </c>
       <c r="C5" t="s">
-        <v>198</v>
+        <v>176</v>
       </c>
       <c r="E5" t="s">
-        <v>205</v>
+        <v>183</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>129</v>
+        <v>107</v>
       </c>
       <c r="C6" t="s">
-        <v>199</v>
+        <v>177</v>
       </c>
       <c r="E6" t="s">
-        <v>206</v>
+        <v>184</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" s="5" t="s">
-        <v>130</v>
+        <v>108</v>
       </c>
       <c r="C7" t="s">
-        <v>200</v>
+        <v>178</v>
       </c>
       <c r="E7" t="s">
-        <v>129</v>
+        <v>107</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8" s="5" t="s">
-        <v>131</v>
+        <v>109</v>
       </c>
       <c r="C8" t="s">
-        <v>201</v>
+        <v>179</v>
       </c>
       <c r="E8" t="s">
-        <v>142</v>
+        <v>120</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9" s="5" t="s">
-        <v>142</v>
+        <v>120</v>
       </c>
       <c r="C9" t="s">
-        <v>129</v>
+        <v>107</v>
       </c>
       <c r="E9" t="s">
-        <v>143</v>
+        <v>121</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10" s="5" t="s">
-        <v>143</v>
+        <v>121</v>
       </c>
       <c r="C10" t="s">
-        <v>142</v>
+        <v>120</v>
       </c>
       <c r="E10" t="s">
-        <v>130</v>
+        <v>108</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="C11" t="s">
-        <v>143</v>
+        <v>121</v>
       </c>
       <c r="E11" t="s">
-        <v>131</v>
+        <v>109</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A12" s="15" t="s">
-        <v>224</v>
+      <c r="A12" s="13" t="s">
+        <v>202</v>
       </c>
       <c r="C12" t="s">
-        <v>130</v>
+        <v>108</v>
       </c>
       <c r="E12" s="1"/>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>223</v>
+        <v>201</v>
       </c>
       <c r="C13" t="s">
-        <v>131</v>
+        <v>109</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>207</v>
+        <v>185</v>
       </c>
       <c r="C14" s="1"/>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>129</v>
-      </c>
-      <c r="C15" s="15" t="s">
-        <v>217</v>
+        <v>107</v>
+      </c>
+      <c r="C15" s="13" t="s">
+        <v>195</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A16" s="1"/>
       <c r="C16" t="s">
-        <v>218</v>
+        <v>196</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A17" s="15" t="s">
-        <v>225</v>
+      <c r="A17" s="13" t="s">
+        <v>203</v>
       </c>
       <c r="C17" t="s">
-        <v>175</v>
+        <v>153</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>80</v>
+        <v>60</v>
       </c>
       <c r="C18" t="s">
-        <v>129</v>
+        <v>107</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>203</v>
+        <v>181</v>
       </c>
       <c r="C19" s="5" t="s">
-        <v>130</v>
+        <v>108</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>208</v>
+        <v>186</v>
       </c>
       <c r="C20" s="5" t="s">
-        <v>131</v>
+        <v>109</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>164</v>
+        <v>142</v>
       </c>
       <c r="C21" s="5" t="s">
-        <v>142</v>
+        <v>120</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>204</v>
+        <v>182</v>
       </c>
       <c r="C22" s="5" t="s">
-        <v>143</v>
+        <v>121</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>205</v>
+        <v>183</v>
       </c>
       <c r="C23" s="1"/>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>209</v>
-      </c>
-      <c r="C24" s="15" t="s">
-        <v>219</v>
+        <v>187</v>
+      </c>
+      <c r="C24" s="13" t="s">
+        <v>197</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>210</v>
+        <v>188</v>
       </c>
       <c r="C25" t="s">
-        <v>80</v>
+        <v>60</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
-        <v>211</v>
+        <v>189</v>
       </c>
       <c r="C26" t="s">
-        <v>218</v>
+        <v>196</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
-        <v>212</v>
+        <v>190</v>
       </c>
       <c r="C27" t="s">
-        <v>220</v>
+        <v>198</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>213</v>
+        <v>191</v>
       </c>
       <c r="C28" t="s">
-        <v>221</v>
+        <v>199</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
-        <v>214</v>
+        <v>192</v>
       </c>
       <c r="C29" t="s">
-        <v>222</v>
+        <v>200</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
-        <v>215</v>
+        <v>193</v>
       </c>
       <c r="B30" s="4"/>
       <c r="C30" t="s">
-        <v>129</v>
+        <v>107</v>
       </c>
       <c r="D30" s="4"/>
       <c r="F30" s="4"/>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>130</v>
+        <v>108</v>
       </c>
       <c r="C31" s="5" t="s">
-        <v>130</v>
+        <v>108</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>131</v>
+        <v>109</v>
       </c>
       <c r="C32" s="5" t="s">
-        <v>131</v>
+        <v>109</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
-        <v>216</v>
+        <v>194</v>
       </c>
       <c r="C33" s="5" t="s">
-        <v>142</v>
+        <v>120</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>129</v>
+        <v>107</v>
       </c>
       <c r="C34" s="5" t="s">
-        <v>143</v>
+        <v>121</v>
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A35" s="5" t="s">
-        <v>130</v>
+        <v>108</v>
       </c>
       <c r="C35" s="1"/>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A36" s="5" t="s">
-        <v>131</v>
+        <v>109</v>
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A37" s="5" t="s">
-        <v>142</v>
+        <v>120</v>
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A38" s="5" t="s">
-        <v>143</v>
+        <v>121</v>
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.3">

--- a/ControlTowerSystemDatabaseSchema.xlsx
+++ b/ControlTowerSystemDatabaseSchema.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\thanthtet.myet\Documents\01_Willowglen\02_Workplace\ControlTower\ControlTower_Note\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8AC8C080-E048-478B-A051-B59E372E50B3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B21ECF51-8FE9-4829-9E01-288C6FC4CE55}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="2" activeTab="2" xr2:uid="{EB4BDDAD-CEF0-4ED0-94FA-11B08D0D68E4}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="652" uniqueCount="284">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="663" uniqueCount="285">
   <si>
     <t>Table Name</t>
   </si>
@@ -904,6 +904,9 @@
   </si>
   <si>
     <t>FunctionalStatus: (nvarchar, null)</t>
+  </si>
+  <si>
+    <t>z</t>
   </si>
 </sst>
 </file>
@@ -1012,7 +1015,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1062,7 +1065,6 @@
     <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1687,8 +1689,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{964FE91A-D8DF-42C2-BA38-81E4FBFE8C98}">
   <dimension ref="A1:N136"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G68" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="I82" sqref="I82"/>
+    <sheetView tabSelected="1" topLeftCell="G66" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="I83" sqref="I83:I87"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2396,144 +2398,169 @@
       <c r="E56" s="5" t="s">
         <v>120</v>
       </c>
-      <c r="I56" s="3"/>
+      <c r="I56" s="3" t="s">
+        <v>27</v>
+      </c>
     </row>
     <row r="57" spans="5:9" x14ac:dyDescent="0.3">
       <c r="E57" s="5" t="s">
         <v>121</v>
       </c>
-      <c r="I57" s="3"/>
+      <c r="I57" s="3" t="s">
+        <v>29</v>
+      </c>
     </row>
     <row r="58" spans="5:9" x14ac:dyDescent="0.3">
       <c r="E58" s="19"/>
-      <c r="I58" s="3"/>
+      <c r="I58" s="3" t="s">
+        <v>28</v>
+      </c>
     </row>
     <row r="59" spans="5:9" x14ac:dyDescent="0.3">
-      <c r="I59" s="3"/>
+      <c r="I59" s="3" t="s">
+        <v>49</v>
+      </c>
     </row>
     <row r="60" spans="5:9" x14ac:dyDescent="0.3">
-      <c r="I60" s="3"/>
+      <c r="I60" s="3" t="s">
+        <v>50</v>
+      </c>
     </row>
     <row r="61" spans="5:9" x14ac:dyDescent="0.3">
-      <c r="I61" s="3"/>
+      <c r="I61" s="19"/>
     </row>
     <row r="62" spans="5:9" x14ac:dyDescent="0.3">
-      <c r="I62" s="3"/>
+      <c r="I62" s="14" t="s">
+        <v>258</v>
+      </c>
     </row>
     <row r="63" spans="5:9" x14ac:dyDescent="0.3">
-      <c r="I63" s="19"/>
+      <c r="I63" s="3" t="s">
+        <v>60</v>
+      </c>
     </row>
     <row r="64" spans="5:9" x14ac:dyDescent="0.3">
-      <c r="I64" s="14" t="s">
-        <v>258</v>
+      <c r="I64" s="16" t="s">
+        <v>276</v>
       </c>
     </row>
     <row r="65" spans="9:9" x14ac:dyDescent="0.3">
       <c r="I65" s="3" t="s">
-        <v>60</v>
+        <v>256</v>
       </c>
     </row>
     <row r="66" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I66" s="16" t="s">
-        <v>276</v>
+      <c r="I66" s="5" t="s">
+        <v>282</v>
       </c>
     </row>
     <row r="67" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I67" s="3" t="s">
-        <v>256</v>
+      <c r="I67" s="5" t="s">
+        <v>283</v>
       </c>
     </row>
     <row r="68" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I68" s="23" t="s">
-        <v>282</v>
+      <c r="I68" s="3" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="69" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I69" s="23" t="s">
-        <v>283</v>
+      <c r="I69" s="3" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="70" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I70" s="23"/>
+      <c r="I70" s="3" t="s">
+        <v>28</v>
+      </c>
     </row>
     <row r="71" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I71" s="23"/>
+      <c r="I71" s="3" t="s">
+        <v>49</v>
+      </c>
     </row>
     <row r="72" spans="9:9" x14ac:dyDescent="0.3">
       <c r="I72" s="3" t="s">
-        <v>27</v>
+        <v>50</v>
       </c>
     </row>
     <row r="73" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I73" s="3" t="s">
-        <v>29</v>
-      </c>
+      <c r="I73" s="19"/>
     </row>
     <row r="74" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I74" s="3" t="s">
-        <v>28</v>
+      <c r="I74" s="14" t="s">
+        <v>259</v>
       </c>
     </row>
     <row r="75" spans="9:9" x14ac:dyDescent="0.3">
       <c r="I75" s="3" t="s">
-        <v>49</v>
+        <v>60</v>
       </c>
     </row>
     <row r="76" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I76" s="3" t="s">
-        <v>50</v>
+      <c r="I76" s="16" t="s">
+        <v>276</v>
       </c>
     </row>
     <row r="77" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I77" s="19"/>
+      <c r="I77" s="3" t="s">
+        <v>256</v>
+      </c>
     </row>
     <row r="78" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I78" s="14" t="s">
-        <v>259</v>
+      <c r="I78" s="5" t="s">
+        <v>283</v>
       </c>
     </row>
     <row r="79" spans="9:9" x14ac:dyDescent="0.3">
       <c r="I79" s="3" t="s">
-        <v>60</v>
+        <v>262</v>
       </c>
     </row>
     <row r="80" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I80" s="16" t="s">
-        <v>276</v>
+      <c r="I80" s="3" t="s">
+        <v>263</v>
       </c>
     </row>
     <row r="81" spans="1:12" x14ac:dyDescent="0.3">
       <c r="I81" s="3" t="s">
-        <v>256</v>
+        <v>264</v>
       </c>
     </row>
     <row r="82" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="I82" s="23" t="s">
-        <v>283</v>
+      <c r="I82" s="3" t="s">
+        <v>265</v>
       </c>
     </row>
     <row r="83" spans="1:12" x14ac:dyDescent="0.3">
       <c r="I83" s="3" t="s">
-        <v>262</v>
+        <v>27</v>
       </c>
     </row>
     <row r="84" spans="1:12" x14ac:dyDescent="0.3">
       <c r="I84" s="3" t="s">
-        <v>263</v>
+        <v>29</v>
       </c>
     </row>
     <row r="85" spans="1:12" x14ac:dyDescent="0.3">
       <c r="I85" s="3" t="s">
-        <v>264</v>
+        <v>28</v>
       </c>
     </row>
     <row r="86" spans="1:12" x14ac:dyDescent="0.3">
       <c r="I86" s="3" t="s">
-        <v>265</v>
+        <v>49</v>
       </c>
     </row>
     <row r="87" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="I87" s="19"/>
+      <c r="I87" s="3" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="88" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="I88" s="19" t="s">
+        <v>284</v>
+      </c>
     </row>
     <row r="90" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B90" s="19"/>

--- a/ControlTowerSystemDatabaseSchema.xlsx
+++ b/ControlTowerSystemDatabaseSchema.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\thanthtet.myet\Documents\01_Willowglen\02_Workplace\ControlTower\ControlTower_Note\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B21ECF51-8FE9-4829-9E01-288C6FC4CE55}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E2DBC08D-C8AF-4055-A342-84392B478801}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="2" activeTab="2" xr2:uid="{EB4BDDAD-CEF0-4ED0-94FA-11B08D0D68E4}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="663" uniqueCount="285">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="665" uniqueCount="288">
   <si>
     <t>Table Name</t>
   </si>
@@ -318,12 +318,6 @@
   </si>
   <si>
     <t>UploadedStatus: (nvarchar, not null)</t>
-  </si>
-  <si>
-    <t>Quantity: (int, not null)</t>
-  </si>
-  <si>
-    <t>SerialNo:(nvarchar)</t>
   </si>
   <si>
     <t>Description</t>
@@ -762,9 +756,6 @@
     <t>ReportImageTypeID:  (FK from ReportFormImageType, not null)</t>
   </si>
   <si>
-    <t>CMReportFormID: (FK from ServiceReportForm)</t>
-  </si>
-  <si>
     <t>AttnededBy: (nvarchar,null)</t>
   </si>
   <si>
@@ -882,9 +873,6 @@
     <t>PMReportFormRTU</t>
   </si>
   <si>
-    <t>PMReportFormRTUID: (FK from ServiceReportForm)</t>
-  </si>
-  <si>
     <t>ChamberOGBox: (nvarchar, null)</t>
   </si>
   <si>
@@ -907,6 +895,27 @@
   </si>
   <si>
     <t>z</t>
+  </si>
+  <si>
+    <t>ReportFormID: (FK from ReportForm)</t>
+  </si>
+  <si>
+    <t>PMReportFormRTUID: (FK from PMReportFormRTU)</t>
+  </si>
+  <si>
+    <t>CMReportFormID: (FK from CMReportForm)</t>
+  </si>
+  <si>
+    <t>ItemDescription: (nvarchar,null)</t>
+  </si>
+  <si>
+    <t>NewSerialNo: (nvarchar,null)</t>
+  </si>
+  <si>
+    <t>OldSerialNo: (nvarchar,null)</t>
+  </si>
+  <si>
+    <t>Remark: (nvarchar,null)</t>
   </si>
 </sst>
 </file>
@@ -1590,7 +1599,7 @@
         <v>73</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="C6" s="7" t="s">
         <v>38</v>
@@ -1601,7 +1610,7 @@
         <v>74</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="C7" s="7" t="s">
         <v>40</v>
@@ -1612,7 +1621,7 @@
         <v>24</v>
       </c>
       <c r="B8" s="7" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="C8" s="7" t="s">
         <v>41</v>
@@ -1689,8 +1698,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{964FE91A-D8DF-42C2-BA38-81E4FBFE8C98}">
   <dimension ref="A1:N136"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G66" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="I83" sqref="I83:I87"/>
+    <sheetView tabSelected="1" topLeftCell="B25" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="E35" sqref="E35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1721,16 +1730,16 @@
         <v>87</v>
       </c>
       <c r="C2" s="14" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="E2" s="14" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="G2" s="14" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="I2" s="14" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
     </row>
     <row r="3" spans="1:12" ht="27" customHeight="1" x14ac:dyDescent="0.3">
@@ -1755,16 +1764,16 @@
         <v>32</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="E4" s="16" t="s">
-        <v>234</v>
+        <v>281</v>
       </c>
       <c r="G4" s="3" t="s">
         <v>32</v>
       </c>
       <c r="I4" s="16" t="s">
-        <v>234</v>
+        <v>281</v>
       </c>
     </row>
     <row r="5" spans="1:12" ht="23.4" customHeight="1" x14ac:dyDescent="0.3">
@@ -1772,7 +1781,7 @@
         <v>27</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="E5" s="16" t="s">
         <v>53</v>
@@ -1781,20 +1790,20 @@
         <v>27</v>
       </c>
       <c r="I5" s="3" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
     </row>
     <row r="6" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="18"/>
       <c r="C6" s="3" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="E6" s="16" t="s">
         <v>44</v>
       </c>
       <c r="G6" s="1"/>
       <c r="I6" s="16" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
     </row>
     <row r="7" spans="1:12" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
@@ -1802,11 +1811,11 @@
         <v>90</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="E7" s="16"/>
       <c r="I7" s="16" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.3">
@@ -1818,18 +1827,18 @@
       </c>
       <c r="E8" s="16"/>
       <c r="I8" s="16" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A9" s="3" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="C9" s="3" t="s">
         <v>29</v>
       </c>
       <c r="E9" s="16" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
     </row>
     <row r="10" spans="1:12" s="15" customFormat="1" x14ac:dyDescent="0.3">
@@ -1842,12 +1851,12 @@
       </c>
       <c r="D10" s="19"/>
       <c r="E10" s="16" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="F10" s="19"/>
       <c r="H10" s="19"/>
       <c r="I10" s="16" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="J10" s="19"/>
       <c r="L10" s="19"/>
@@ -1862,7 +1871,7 @@
       </c>
       <c r="D11" s="19"/>
       <c r="E11" s="16" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="F11" s="19"/>
       <c r="H11" s="19"/>
@@ -1877,10 +1886,10 @@
         <v>50</v>
       </c>
       <c r="E12" s="16" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="I12" s="16" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="K12" s="3"/>
     </row>
@@ -1889,13 +1898,13 @@
         <v>92</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="E13" s="16" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="I13" s="3" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="K13" s="3"/>
     </row>
@@ -1904,13 +1913,13 @@
         <v>27</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="E14" s="16" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="I14" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="K14" s="3"/>
     </row>
@@ -1919,13 +1928,13 @@
         <v>88</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="E15" s="16" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="I15" s="3" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="K15" s="3"/>
     </row>
@@ -1934,10 +1943,10 @@
         <v>86</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="E16" s="16" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="I16" s="3" t="s">
         <v>27</v>
@@ -1948,7 +1957,7 @@
       <c r="A17" s="6"/>
       <c r="C17" s="19"/>
       <c r="E17" s="16" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="I17" s="3" t="s">
         <v>29</v>
@@ -1957,13 +1966,13 @@
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A18" s="14" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="C18" s="14" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="E18" s="16" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="I18" s="3" t="s">
         <v>28</v>
@@ -1978,7 +1987,7 @@
         <v>60</v>
       </c>
       <c r="E19" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="I19" s="3" t="s">
         <v>49</v>
@@ -1994,7 +2003,7 @@
       </c>
       <c r="D20" s="19"/>
       <c r="E20" s="3" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="F20" s="19"/>
       <c r="G20" s="15"/>
@@ -2042,7 +2051,7 @@
         <v>28</v>
       </c>
       <c r="I23" s="14" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
     </row>
     <row r="24" spans="1:13" x14ac:dyDescent="0.3">
@@ -2070,7 +2079,7 @@
         <v>50</v>
       </c>
       <c r="I25" s="16" t="s">
-        <v>276</v>
+        <v>282</v>
       </c>
     </row>
     <row r="26" spans="1:13" x14ac:dyDescent="0.3">
@@ -2078,7 +2087,7 @@
       <c r="C26" s="18"/>
       <c r="E26" s="1"/>
       <c r="I26" s="3" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
     </row>
     <row r="27" spans="1:13" x14ac:dyDescent="0.3">
@@ -2086,13 +2095,13 @@
         <v>37</v>
       </c>
       <c r="C27" s="14" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="E27" s="14" t="s">
+        <v>237</v>
+      </c>
+      <c r="I27" s="3" t="s">
         <v>240</v>
-      </c>
-      <c r="I27" s="3" t="s">
-        <v>243</v>
       </c>
     </row>
     <row r="28" spans="1:13" x14ac:dyDescent="0.3">
@@ -2106,7 +2115,7 @@
         <v>60</v>
       </c>
       <c r="I28" s="3" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
     </row>
     <row r="29" spans="1:13" x14ac:dyDescent="0.3">
@@ -2114,13 +2123,13 @@
         <v>32</v>
       </c>
       <c r="C29" s="3" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="E29" s="16" t="s">
-        <v>236</v>
+        <v>283</v>
       </c>
       <c r="I29" s="3" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
     </row>
     <row r="30" spans="1:13" x14ac:dyDescent="0.3">
@@ -2131,10 +2140,10 @@
         <v>32</v>
       </c>
       <c r="E30" s="16" t="s">
-        <v>93</v>
+        <v>284</v>
       </c>
       <c r="I30" s="3" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="K30" s="1"/>
       <c r="M30" s="1"/>
@@ -2147,10 +2156,10 @@
         <v>27</v>
       </c>
       <c r="E31" s="16" t="s">
-        <v>42</v>
+        <v>285</v>
       </c>
       <c r="I31" s="3" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
     </row>
     <row r="32" spans="1:13" x14ac:dyDescent="0.3">
@@ -2161,10 +2170,10 @@
         <v>29</v>
       </c>
       <c r="E32" s="16" t="s">
-        <v>94</v>
+        <v>286</v>
       </c>
       <c r="I32" s="16" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
     </row>
     <row r="33" spans="1:12" x14ac:dyDescent="0.3">
@@ -2175,10 +2184,10 @@
         <v>28</v>
       </c>
       <c r="E33" s="16" t="s">
-        <v>29</v>
+        <v>287</v>
       </c>
       <c r="I33" s="3" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
     </row>
     <row r="34" spans="1:12" x14ac:dyDescent="0.3">
@@ -2188,11 +2197,11 @@
       <c r="C34" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="E34" s="16" t="s">
-        <v>28</v>
+      <c r="E34" s="5" t="s">
+        <v>105</v>
       </c>
       <c r="I34" s="3" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
     </row>
     <row r="35" spans="1:12" x14ac:dyDescent="0.3">
@@ -2201,10 +2210,10 @@
         <v>50</v>
       </c>
       <c r="E35" s="16" t="s">
-        <v>49</v>
+        <v>29</v>
       </c>
       <c r="I35" s="3" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
     </row>
     <row r="36" spans="1:12" x14ac:dyDescent="0.3">
@@ -2213,21 +2222,21 @@
       </c>
       <c r="C36" s="18"/>
       <c r="E36" s="16" t="s">
-        <v>50</v>
+        <v>28</v>
       </c>
       <c r="I36" s="3" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
     </row>
     <row r="37" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A37" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="E37" s="20" t="s">
-        <v>27</v>
+      <c r="E37" s="16" t="s">
+        <v>49</v>
       </c>
       <c r="I37" s="3" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
     </row>
     <row r="38" spans="1:12" s="19" customFormat="1" x14ac:dyDescent="0.3">
@@ -2235,22 +2244,22 @@
         <v>32</v>
       </c>
       <c r="C38" s="15"/>
-      <c r="E38" s="14" t="s">
-        <v>216</v>
+      <c r="E38" s="16" t="s">
+        <v>50</v>
       </c>
       <c r="I38" s="3" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
     </row>
     <row r="39" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A39" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="E39" s="5" t="s">
-        <v>60</v>
+      <c r="E39" s="20" t="s">
+        <v>27</v>
       </c>
       <c r="I39" s="3" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
     </row>
     <row r="40" spans="1:12" s="15" customFormat="1" x14ac:dyDescent="0.3">
@@ -2259,13 +2268,13 @@
       </c>
       <c r="B40" s="19"/>
       <c r="D40" s="19"/>
-      <c r="E40" s="16" t="s">
-        <v>234</v>
+      <c r="E40" s="14" t="s">
+        <v>214</v>
       </c>
       <c r="F40" s="19"/>
       <c r="H40" s="19"/>
       <c r="I40" s="3" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="J40" s="19"/>
       <c r="L40" s="19"/>
@@ -2275,7 +2284,7 @@
         <v>28</v>
       </c>
       <c r="E41" s="5" t="s">
-        <v>235</v>
+        <v>60</v>
       </c>
       <c r="I41" s="3" t="s">
         <v>27</v>
@@ -2285,8 +2294,8 @@
       <c r="A42" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="E42" s="5" t="s">
-        <v>165</v>
+      <c r="E42" s="16" t="s">
+        <v>232</v>
       </c>
       <c r="I42" s="3" t="s">
         <v>29</v>
@@ -2297,7 +2306,7 @@
         <v>50</v>
       </c>
       <c r="E43" s="5" t="s">
-        <v>148</v>
+        <v>233</v>
       </c>
       <c r="I43" s="3" t="s">
         <v>28</v>
@@ -2306,7 +2315,7 @@
     <row r="44" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A44" s="18"/>
       <c r="E44" s="5" t="s">
-        <v>149</v>
+        <v>163</v>
       </c>
       <c r="I44" s="3" t="s">
         <v>49</v>
@@ -2314,7 +2323,7 @@
     </row>
     <row r="45" spans="1:12" x14ac:dyDescent="0.3">
       <c r="E45" s="5" t="s">
-        <v>107</v>
+        <v>146</v>
       </c>
       <c r="I45" s="3" t="s">
         <v>50</v>
@@ -2322,81 +2331,81 @@
     </row>
     <row r="46" spans="1:12" x14ac:dyDescent="0.3">
       <c r="E46" s="5" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="I46" s="19"/>
     </row>
     <row r="47" spans="1:12" x14ac:dyDescent="0.3">
       <c r="E47" s="5" t="s">
-        <v>146</v>
+        <v>105</v>
       </c>
       <c r="I47" s="14" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
     </row>
     <row r="48" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="E48" s="1"/>
+      <c r="E48" s="5" t="s">
+        <v>143</v>
+      </c>
       <c r="I48" s="3" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="49" spans="5:9" x14ac:dyDescent="0.3">
-      <c r="E49" s="14" t="s">
-        <v>230</v>
+      <c r="E49" s="5" t="s">
+        <v>144</v>
       </c>
       <c r="I49" s="16" t="s">
-        <v>276</v>
+        <v>282</v>
       </c>
     </row>
     <row r="50" spans="5:9" x14ac:dyDescent="0.3">
-      <c r="E50" s="5"/>
+      <c r="E50" s="1"/>
       <c r="I50" s="3" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
     </row>
     <row r="51" spans="5:9" x14ac:dyDescent="0.3">
-      <c r="E51" s="5" t="s">
-        <v>60</v>
+      <c r="E51" s="14" t="s">
+        <v>228</v>
       </c>
       <c r="I51" s="3" t="s">
-        <v>281</v>
+        <v>277</v>
       </c>
     </row>
     <row r="52" spans="5:9" x14ac:dyDescent="0.3">
-      <c r="E52" s="5" t="s">
-        <v>168</v>
-      </c>
+      <c r="E52" s="5"/>
       <c r="I52" s="3" t="s">
-        <v>277</v>
+        <v>273</v>
       </c>
     </row>
     <row r="53" spans="5:9" x14ac:dyDescent="0.3">
       <c r="E53" s="5" t="s">
-        <v>107</v>
+        <v>60</v>
       </c>
       <c r="I53" s="3" t="s">
-        <v>278</v>
+        <v>274</v>
       </c>
     </row>
     <row r="54" spans="5:9" x14ac:dyDescent="0.3">
       <c r="E54" s="5" t="s">
-        <v>108</v>
+        <v>166</v>
       </c>
       <c r="I54" s="3" t="s">
-        <v>279</v>
+        <v>275</v>
       </c>
     </row>
     <row r="55" spans="5:9" x14ac:dyDescent="0.3">
       <c r="E55" s="5" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="I55" s="3" t="s">
-        <v>280</v>
+        <v>276</v>
       </c>
     </row>
     <row r="56" spans="5:9" x14ac:dyDescent="0.3">
       <c r="E56" s="5" t="s">
-        <v>120</v>
+        <v>106</v>
       </c>
       <c r="I56" s="3" t="s">
         <v>27</v>
@@ -2404,24 +2413,30 @@
     </row>
     <row r="57" spans="5:9" x14ac:dyDescent="0.3">
       <c r="E57" s="5" t="s">
-        <v>121</v>
+        <v>107</v>
       </c>
       <c r="I57" s="3" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="58" spans="5:9" x14ac:dyDescent="0.3">
-      <c r="E58" s="19"/>
+      <c r="E58" s="5" t="s">
+        <v>118</v>
+      </c>
       <c r="I58" s="3" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="59" spans="5:9" x14ac:dyDescent="0.3">
+      <c r="E59" s="5" t="s">
+        <v>119</v>
+      </c>
       <c r="I59" s="3" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="60" spans="5:9" x14ac:dyDescent="0.3">
+      <c r="E60" s="19"/>
       <c r="I60" s="3" t="s">
         <v>50</v>
       </c>
@@ -2431,7 +2446,7 @@
     </row>
     <row r="62" spans="5:9" x14ac:dyDescent="0.3">
       <c r="I62" s="14" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
     </row>
     <row r="63" spans="5:9" x14ac:dyDescent="0.3">
@@ -2441,22 +2456,22 @@
     </row>
     <row r="64" spans="5:9" x14ac:dyDescent="0.3">
       <c r="I64" s="16" t="s">
-        <v>276</v>
+        <v>282</v>
       </c>
     </row>
     <row r="65" spans="9:9" x14ac:dyDescent="0.3">
       <c r="I65" s="3" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
     </row>
     <row r="66" spans="9:9" x14ac:dyDescent="0.3">
       <c r="I66" s="5" t="s">
-        <v>282</v>
+        <v>278</v>
       </c>
     </row>
     <row r="67" spans="9:9" x14ac:dyDescent="0.3">
       <c r="I67" s="5" t="s">
-        <v>283</v>
+        <v>279</v>
       </c>
     </row>
     <row r="68" spans="9:9" x14ac:dyDescent="0.3">
@@ -2489,7 +2504,7 @@
     </row>
     <row r="74" spans="9:9" x14ac:dyDescent="0.3">
       <c r="I74" s="14" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
     </row>
     <row r="75" spans="9:9" x14ac:dyDescent="0.3">
@@ -2499,37 +2514,37 @@
     </row>
     <row r="76" spans="9:9" x14ac:dyDescent="0.3">
       <c r="I76" s="16" t="s">
-        <v>276</v>
+        <v>282</v>
       </c>
     </row>
     <row r="77" spans="9:9" x14ac:dyDescent="0.3">
       <c r="I77" s="3" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
     </row>
     <row r="78" spans="9:9" x14ac:dyDescent="0.3">
       <c r="I78" s="5" t="s">
-        <v>283</v>
+        <v>279</v>
       </c>
     </row>
     <row r="79" spans="9:9" x14ac:dyDescent="0.3">
       <c r="I79" s="3" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
     </row>
     <row r="80" spans="9:9" x14ac:dyDescent="0.3">
       <c r="I80" s="3" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
     </row>
     <row r="81" spans="1:12" x14ac:dyDescent="0.3">
       <c r="I81" s="3" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
     </row>
     <row r="82" spans="1:12" x14ac:dyDescent="0.3">
       <c r="I82" s="3" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
     </row>
     <row r="83" spans="1:12" x14ac:dyDescent="0.3">
@@ -2559,7 +2574,7 @@
     </row>
     <row r="88" spans="1:12" x14ac:dyDescent="0.3">
       <c r="I88" s="19" t="s">
-        <v>284</v>
+        <v>280</v>
       </c>
     </row>
     <row r="90" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
@@ -3084,7 +3099,7 @@
     <row r="1" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2" s="14" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="B2" s="1"/>
       <c r="C2" s="14" t="s">
@@ -3092,11 +3107,11 @@
       </c>
       <c r="D2" s="1"/>
       <c r="E2" s="14" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="F2" s="1"/>
       <c r="G2" s="14" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="H2" s="1"/>
     </row>
@@ -3114,7 +3129,7 @@
         <v>32</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="E4" s="5" t="s">
         <v>60</v>
@@ -3128,13 +3143,13 @@
         <v>59</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="E5" s="5" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="G5" s="5" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.3">
@@ -3145,10 +3160,10 @@
         <v>65</v>
       </c>
       <c r="E6" s="5" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="G6" s="5" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.3">
@@ -3156,13 +3171,13 @@
         <v>27</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="E7" s="5" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="G7" s="5" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.3">
@@ -3170,13 +3185,13 @@
         <v>29</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="E8" s="5" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="G8" s="5" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.3">
@@ -3184,13 +3199,13 @@
         <v>28</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="E9" s="5" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="G9" s="5" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.3">
@@ -3198,13 +3213,13 @@
         <v>63</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="E10" s="5" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="G10" s="5" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.3">
@@ -3212,20 +3227,20 @@
         <v>64</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="E11" s="5" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="G11" s="1"/>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A12" s="1"/>
       <c r="C12" s="5" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="E12" s="5" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.3">
@@ -3233,7 +3248,7 @@
         <v>56</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="E13" s="1"/>
     </row>
@@ -3242,10 +3257,10 @@
         <v>60</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="E14" s="14" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.3">
@@ -3253,7 +3268,7 @@
         <v>32</v>
       </c>
       <c r="C15" s="5" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="E15" s="5" t="s">
         <v>60</v>
@@ -3264,10 +3279,10 @@
         <v>59</v>
       </c>
       <c r="C16" s="5" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="E16" s="5" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.3">
@@ -3275,10 +3290,10 @@
         <v>58</v>
       </c>
       <c r="C17" s="5" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="E17" s="5" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.3">
@@ -3286,10 +3301,10 @@
         <v>57</v>
       </c>
       <c r="C18" s="5" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="E18" s="3" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.3">
@@ -3297,7 +3312,7 @@
         <v>27</v>
       </c>
       <c r="C19" s="5" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="E19" s="3" t="s">
         <v>27</v>
@@ -3308,7 +3323,7 @@
         <v>29</v>
       </c>
       <c r="C20" s="5" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="E20" s="3" t="s">
         <v>29</v>
@@ -3319,7 +3334,7 @@
         <v>28</v>
       </c>
       <c r="C21" s="5" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="E21" s="3" t="s">
         <v>28</v>
@@ -3330,7 +3345,7 @@
         <v>63</v>
       </c>
       <c r="C22" s="5" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="E22" s="3" t="s">
         <v>63</v>
@@ -3341,7 +3356,7 @@
         <v>64</v>
       </c>
       <c r="C23" s="5" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="E23" s="3" t="s">
         <v>64</v>
@@ -3350,16 +3365,16 @@
     <row r="24" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A24" s="1"/>
       <c r="C24" s="5" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="E24" s="1"/>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A25" s="14" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="C25" s="5" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.3">
@@ -3367,15 +3382,15 @@
         <v>60</v>
       </c>
       <c r="C26" s="5" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A27" s="5" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="C27" s="5" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.3">
@@ -3383,7 +3398,7 @@
         <v>32</v>
       </c>
       <c r="C28" s="5" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.3">
@@ -3391,7 +3406,7 @@
         <v>59</v>
       </c>
       <c r="C29" s="5" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.3">
@@ -3400,7 +3415,7 @@
       </c>
       <c r="B30" s="4"/>
       <c r="C30" s="5" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="D30" s="4"/>
       <c r="F30" s="4"/>
@@ -3411,7 +3426,7 @@
         <v>57</v>
       </c>
       <c r="C31" s="5" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.3">
@@ -3419,7 +3434,7 @@
         <v>27</v>
       </c>
       <c r="C32" s="5" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.3">
@@ -3427,7 +3442,7 @@
         <v>29</v>
       </c>
       <c r="C33" s="5" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.3">
@@ -3435,7 +3450,7 @@
         <v>28</v>
       </c>
       <c r="C34" s="5" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.3">
@@ -3449,7 +3464,7 @@
         <v>64</v>
       </c>
       <c r="C36" s="14" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.3">
@@ -3463,7 +3478,7 @@
         <v>61</v>
       </c>
       <c r="C38" s="5" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.3">
@@ -3471,15 +3486,15 @@
         <v>60</v>
       </c>
       <c r="C39" s="5" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A40" s="5" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="C40" s="5" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.3">
@@ -3487,7 +3502,7 @@
         <v>62</v>
       </c>
       <c r="C41" s="5" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.3">
@@ -3496,7 +3511,7 @@
       </c>
       <c r="B42" s="4"/>
       <c r="C42" s="5" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="D42" s="4"/>
       <c r="F42" s="4"/>
@@ -3507,7 +3522,7 @@
         <v>58</v>
       </c>
       <c r="C43" s="5" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.3">
@@ -3515,7 +3530,7 @@
         <v>57</v>
       </c>
       <c r="C44" s="5" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.3">
@@ -3523,7 +3538,7 @@
         <v>27</v>
       </c>
       <c r="C45" s="5" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.3">
@@ -3531,7 +3546,7 @@
         <v>29</v>
       </c>
       <c r="C46" s="5" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.3">
@@ -3539,7 +3554,7 @@
         <v>28</v>
       </c>
       <c r="C47" s="5" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.3">
@@ -3547,7 +3562,7 @@
         <v>63</v>
       </c>
       <c r="C48" s="5" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.3">
@@ -3555,18 +3570,18 @@
         <v>64</v>
       </c>
       <c r="C49" s="5" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A50" s="1"/>
       <c r="C50" s="5" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A51" s="14" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="C51" s="1"/>
     </row>
@@ -3587,7 +3602,7 @@
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A55" s="3" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.3">
@@ -3750,13 +3765,13 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" s="11" t="s">
+        <v>128</v>
+      </c>
+      <c r="C1" s="11" t="s">
         <v>130</v>
       </c>
-      <c r="C1" s="11" t="s">
-        <v>132</v>
-      </c>
       <c r="E1" s="11" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
@@ -3774,131 +3789,131 @@
         <v>60</v>
       </c>
       <c r="E3" s="5" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" s="5" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="E4" s="5" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" s="5" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="E5" s="5" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" s="5" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="E6" s="5" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" s="5" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="E7" s="5" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8" s="5" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="E8" s="5" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9" s="5" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="E9" s="5" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10" s="5" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="E10" s="5" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A11" s="5" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="E11" s="5" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A12" s="5" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="E12" s="1"/>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A13" s="5" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A14" s="5" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="C14" s="1"/>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A15" s="5" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="C15" s="11" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A16" s="5" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="C16" s="5" t="s">
         <v>60</v>
@@ -3906,32 +3921,32 @@
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A17" s="5" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="C17" s="5" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A18" s="5" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="C18" s="5" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A19" s="1"/>
       <c r="C19" s="5" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A20" s="11" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="C20" s="5" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.3">
@@ -3939,63 +3954,63 @@
         <v>60</v>
       </c>
       <c r="C21" s="5" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A22" s="5" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="C22" s="5" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A23" s="5" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="C23" s="1"/>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A24" s="5" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A25" s="5" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A26" s="5" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A27" s="5" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A28" s="5" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A29" s="5" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A30" s="5" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="B30" s="4"/>
       <c r="D30" s="4"/>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A31" s="5" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.3">
@@ -4028,13 +4043,13 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" s="13" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="C1" s="13" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="E1" s="13" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
@@ -4050,144 +4065,144 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="C3" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="E3" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="C4" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="E4" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="C5" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="E5" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="C6" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="E6" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" s="5" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="C7" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="E7" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8" s="5" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="C8" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="E8" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9" s="5" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="C9" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="E9" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10" s="5" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="C10" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="E10" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="C11" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="E11" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A12" s="13" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="C12" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="E12" s="1"/>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="C13" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="C14" s="1"/>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="C15" s="13" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A16" s="1"/>
       <c r="C16" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A17" s="13" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="C17" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.3">
@@ -4195,58 +4210,58 @@
         <v>60</v>
       </c>
       <c r="C18" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="C19" s="5" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="C20" s="5" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="C21" s="5" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="C22" s="5" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="C23" s="1"/>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="C24" s="13" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="C25" t="s">
         <v>60</v>
@@ -4254,98 +4269,98 @@
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="C26" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="C27" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="C28" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="C29" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="B30" s="4"/>
       <c r="C30" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="D30" s="4"/>
       <c r="F30" s="4"/>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="C31" s="5" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="C32" s="5" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="C33" s="5" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="C34" s="5" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A35" s="5" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="C35" s="1"/>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A36" s="5" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A37" s="5" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A38" s="5" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.3">

--- a/ControlTowerSystemDatabaseSchema.xlsx
+++ b/ControlTowerSystemDatabaseSchema.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\thanthtet.myet\Documents\01_Willowglen\02_Workplace\ControlTower\ControlTower_Note\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E2DBC08D-C8AF-4055-A342-84392B478801}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{79D8D690-70B3-4F76-9AE2-2A010D236B3C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="2" activeTab="2" xr2:uid="{EB4BDDAD-CEF0-4ED0-94FA-11B08D0D68E4}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="665" uniqueCount="288">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="675" uniqueCount="290">
   <si>
     <t>Table Name</t>
   </si>
@@ -916,6 +916,12 @@
   </si>
   <si>
     <t>Remark: (nvarchar,null)</t>
+  </si>
+  <si>
+    <t>CMReportFormType</t>
+  </si>
+  <si>
+    <t>CMReportFormTypeID: (FK from CMReportFormType)</t>
   </si>
 </sst>
 </file>
@@ -1698,8 +1704,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{964FE91A-D8DF-42C2-BA38-81E4FBFE8C98}">
   <dimension ref="A1:N136"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B25" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E35" sqref="E35"/>
+    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="G11" sqref="G11:G14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1813,7 +1819,12 @@
       <c r="C7" s="3" t="s">
         <v>271</v>
       </c>
-      <c r="E7" s="16"/>
+      <c r="E7" s="3" t="s">
+        <v>289</v>
+      </c>
+      <c r="G7" s="14" t="s">
+        <v>288</v>
+      </c>
       <c r="I7" s="16" t="s">
         <v>220</v>
       </c>
@@ -1825,7 +1836,12 @@
       <c r="C8" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="E8" s="16"/>
+      <c r="E8" s="16" t="s">
+        <v>265</v>
+      </c>
+      <c r="G8" s="16" t="s">
+        <v>60</v>
+      </c>
       <c r="I8" s="16" t="s">
         <v>265</v>
       </c>
@@ -1840,6 +1856,9 @@
       <c r="E9" s="16" t="s">
         <v>219</v>
       </c>
+      <c r="G9" s="3" t="s">
+        <v>32</v>
+      </c>
     </row>
     <row r="10" spans="1:12" s="15" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A10" s="3" t="s">
@@ -1854,6 +1873,9 @@
         <v>220</v>
       </c>
       <c r="F10" s="19"/>
+      <c r="G10" s="3" t="s">
+        <v>27</v>
+      </c>
       <c r="H10" s="19"/>
       <c r="I10" s="16" t="s">
         <v>236</v>
@@ -1874,6 +1896,9 @@
         <v>221</v>
       </c>
       <c r="F11" s="19"/>
+      <c r="G11" s="3" t="s">
+        <v>29</v>
+      </c>
       <c r="H11" s="19"/>
       <c r="J11" s="19"/>
       <c r="L11" s="19"/>
@@ -1888,6 +1913,9 @@
       <c r="E12" s="16" t="s">
         <v>222</v>
       </c>
+      <c r="G12" s="3" t="s">
+        <v>28</v>
+      </c>
       <c r="I12" s="16" t="s">
         <v>263</v>
       </c>
@@ -1903,6 +1931,9 @@
       <c r="E13" s="16" t="s">
         <v>223</v>
       </c>
+      <c r="G13" s="3" t="s">
+        <v>49</v>
+      </c>
       <c r="I13" s="3" t="s">
         <v>253</v>
       </c>
@@ -1918,6 +1949,9 @@
       <c r="E14" s="16" t="s">
         <v>235</v>
       </c>
+      <c r="G14" s="3" t="s">
+        <v>50</v>
+      </c>
       <c r="I14" t="s">
         <v>264</v>
       </c>
@@ -1933,6 +1967,7 @@
       <c r="E15" s="16" t="s">
         <v>224</v>
       </c>
+      <c r="G15" s="1"/>
       <c r="I15" s="3" t="s">
         <v>213</v>
       </c>

--- a/ControlTowerSystemDatabaseSchema.xlsx
+++ b/ControlTowerSystemDatabaseSchema.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\thanthtet.myet\Documents\01_Willowglen\02_Workplace\ControlTower\ControlTower_Note\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{79D8D690-70B3-4F76-9AE2-2A010D236B3C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{799B9543-31FF-4053-9447-82B69875C7EE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="2" activeTab="2" xr2:uid="{EB4BDDAD-CEF0-4ED0-94FA-11B08D0D68E4}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="675" uniqueCount="290">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1070" uniqueCount="372">
   <si>
     <t>Table Name</t>
   </si>
@@ -922,6 +922,252 @@
   </si>
   <si>
     <t>CMReportFormTypeID: (FK from CMReportFormType)</t>
+  </si>
+  <si>
+    <t>PMReportFormServer</t>
+  </si>
+  <si>
+    <t>PMReportFormServerID: (FK from PMReportFormServer)</t>
+  </si>
+  <si>
+    <t>ServerName: (nvarchar, null)</t>
+  </si>
+  <si>
+    <t>ResultStatus</t>
+  </si>
+  <si>
+    <t>ServerDiskStatus</t>
+  </si>
+  <si>
+    <t>DiskName: (nvarchar, null)</t>
+  </si>
+  <si>
+    <t>Capacity: (nvarchar, null)</t>
+  </si>
+  <si>
+    <t>FreeSpace: (nvarchar, null)</t>
+  </si>
+  <si>
+    <t>Usage: (nvarchar, null)</t>
+  </si>
+  <si>
+    <t>PMServerHealth</t>
+  </si>
+  <si>
+    <t>PMServerHealthDetails</t>
+  </si>
+  <si>
+    <t>PMServerHardDriveHealth</t>
+  </si>
+  <si>
+    <t>PMServerHardDriveHealthDetails</t>
+  </si>
+  <si>
+    <t>PMServerDiskUsageHealth</t>
+  </si>
+  <si>
+    <t>PMServerDiskUsageHealthDetails</t>
+  </si>
+  <si>
+    <t>PMServerDiskUsageHealthID: (FK from PMServerDiskUsageHealth)</t>
+  </si>
+  <si>
+    <t>PMServerHardDriveHealthID: (FK from PMServerHardDriveHealth)</t>
+  </si>
+  <si>
+    <t>PMServerHealthID: (FK from PMServerHealth)</t>
+  </si>
+  <si>
+    <t>PMServerCPUAndMemoryUsage</t>
+  </si>
+  <si>
+    <t>PMServerCPUUsageDetails</t>
+  </si>
+  <si>
+    <t>PMServerCPUAndMemoryUsageID : (FK from PMServerCPUAndMemoryUsage)</t>
+  </si>
+  <si>
+    <t>SerialNo: (nvarchar, null)</t>
+  </si>
+  <si>
+    <t>CPUUsage: (nvarchar, null)</t>
+  </si>
+  <si>
+    <t>PMServerMemoryUsageDetails</t>
+  </si>
+  <si>
+    <t>MemorySize: (nvarchar, null)</t>
+  </si>
+  <si>
+    <t>MemoryInUse: (nvarchar, null)</t>
+  </si>
+  <si>
+    <t>PMServerNetworkHealth</t>
+  </si>
+  <si>
+    <t>DateChecked: (Date, null)</t>
+  </si>
+  <si>
+    <t>PMServerWillowlynxProcessStatus</t>
+  </si>
+  <si>
+    <t>NetworkStatus</t>
+  </si>
+  <si>
+    <t>ServerDiskStatusID: (FK from ServerDiskStatus)</t>
+  </si>
+  <si>
+    <t>YesNoStatus</t>
+  </si>
+  <si>
+    <t>NetworkStatusID: (FK from NetworkStatus)</t>
+  </si>
+  <si>
+    <t>YesNoStatusID: (FK from YesNoStatus)</t>
+  </si>
+  <si>
+    <t>WillowlynxProcessStatus</t>
+  </si>
+  <si>
+    <t>WillowlynxProcessStatusID: (FK from WillowlynxProcessStatus)</t>
+  </si>
+  <si>
+    <t>PMServerWillowlynxNetworkStatus</t>
+  </si>
+  <si>
+    <t>WillowlynxNetworkStatus</t>
+  </si>
+  <si>
+    <t>WillowlynxNetworkStatusID: (FK from WillowlynxNetworkStatus)</t>
+  </si>
+  <si>
+    <t>PMServerWillowlynxRTUStatus</t>
+  </si>
+  <si>
+    <t>WillowlynxRTUStatus</t>
+  </si>
+  <si>
+    <t>WillowlynxRTUStatusID: (FK from WillowlynxRTUStatus)</t>
+  </si>
+  <si>
+    <t>PMServerWillowlynxHistoricalTrend</t>
+  </si>
+  <si>
+    <t>PMServerWillowlynxHistoricalReport</t>
+  </si>
+  <si>
+    <t>v</t>
+  </si>
+  <si>
+    <t>PMServerWillowlynxCCTVCamera</t>
+  </si>
+  <si>
+    <t>WillowlynxHistoricalTrendStatus</t>
+  </si>
+  <si>
+    <t>WillowlynxHistoricalReportStatus</t>
+  </si>
+  <si>
+    <t>WillowlynxHistoricalReportStatusID: (FK from WillowlynxHistoricalReportStatus)</t>
+  </si>
+  <si>
+    <t>WillowlynxHistoricalTrendStatusID: (FK from WillowlynxHistoricalTrendStatus)</t>
+  </si>
+  <si>
+    <t>WillowlynxCCTVCameraStatus</t>
+  </si>
+  <si>
+    <t>WillowlynxCCTVCameraStatusID: (FK from WillowlynxCCTVCameraStatus)</t>
+  </si>
+  <si>
+    <t>PMServerMonthlyDatabaseCreation</t>
+  </si>
+  <si>
+    <t>PMServerMonthlyDatabaseCreationDetails</t>
+  </si>
+  <si>
+    <t>PMServerMonthlyDatabaseCreationID: (FK from PMServerMonthlyDatabaseCreation)</t>
+  </si>
+  <si>
+    <t>PMServerMonthlyDatabaseBackupDetails</t>
+  </si>
+  <si>
+    <t>PMServerMonthlyDatabaseBackup</t>
+  </si>
+  <si>
+    <t>PMServerMonthlyDatabaseBackupID: (FK from PMServerMonthlyDatabaseBackup)</t>
+  </si>
+  <si>
+    <t>PMServerMonthlySCADADataBackupDetails</t>
+  </si>
+  <si>
+    <t>LatestBackupFileName: (nvarchar, null)</t>
+  </si>
+  <si>
+    <t>PMServerTimeSync</t>
+  </si>
+  <si>
+    <t>PMServerTimeSyncDetails</t>
+  </si>
+  <si>
+    <t>ResultStatusID: (FK from ResultStatus)</t>
+  </si>
+  <si>
+    <t>PMServerTimeSyncID: (FK from PMServerTimeSync)</t>
+  </si>
+  <si>
+    <t>PMServerHotFixes</t>
+  </si>
+  <si>
+    <t>PMServerHotFixesDetails</t>
+  </si>
+  <si>
+    <t>PMServerHotFixesID: (FK from PMServerHotFixes)</t>
+  </si>
+  <si>
+    <t>LatestHotFixsApplied: (nvarchar, null)</t>
+  </si>
+  <si>
+    <t>PMServerFailOver</t>
+  </si>
+  <si>
+    <t>FailOverStatus</t>
+  </si>
+  <si>
+    <t>FailOverStatusID: (FK from FailOverStatus)</t>
+  </si>
+  <si>
+    <t>SortOrder: (Int, null)</t>
+  </si>
+  <si>
+    <t>PMServerFailOverDetails</t>
+  </si>
+  <si>
+    <t>PMServerFailOverID: (FK from PMServerFailOver)</t>
+  </si>
+  <si>
+    <t>Description: (nvarchar, not null)</t>
+  </si>
+  <si>
+    <t>ASAFirewallStatus</t>
+  </si>
+  <si>
+    <t>CommandInput: (nvarchar, not null)</t>
+  </si>
+  <si>
+    <t>PMServerASAFirewall</t>
+  </si>
+  <si>
+    <t>ASAFirewallStatusID: (FK from ASAFirewallStatus)</t>
+  </si>
+  <si>
+    <t>PMServerSoftwarePatchSummary</t>
+  </si>
+  <si>
+    <t>PreviousPatch: (nvarchar, null)</t>
+  </si>
+  <si>
+    <t>CurrentPatch: (nvarchar, null)</t>
   </si>
 </sst>
 </file>
@@ -1702,10 +1948,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{964FE91A-D8DF-42C2-BA38-81E4FBFE8C98}">
-  <dimension ref="A1:N136"/>
+  <dimension ref="A1:AI136"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="G11" sqref="G11:G14"/>
+    <sheetView tabSelected="1" topLeftCell="Z1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="AB5" sqref="AB5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1720,18 +1966,36 @@
     <col min="8" max="8" width="3.6640625" style="19" customWidth="1"/>
     <col min="9" max="9" width="75" style="2" customWidth="1"/>
     <col min="10" max="10" width="4.5546875" style="19" customWidth="1"/>
-    <col min="11" max="11" width="29" style="2" customWidth="1"/>
+    <col min="11" max="11" width="52.33203125" style="2" customWidth="1"/>
     <col min="12" max="12" width="3.77734375" style="19" customWidth="1"/>
-    <col min="13" max="13" width="30.6640625" style="2" customWidth="1"/>
-    <col min="14" max="14" width="4.77734375" style="1" customWidth="1"/>
-    <col min="15" max="15" width="33.44140625" style="2" customWidth="1"/>
-    <col min="16" max="16384" width="8.88671875" style="2"/>
+    <col min="13" max="13" width="67.33203125" style="3" customWidth="1"/>
+    <col min="14" max="14" width="3.77734375" style="19" customWidth="1"/>
+    <col min="15" max="15" width="71" style="2" customWidth="1"/>
+    <col min="16" max="16" width="5.44140625" style="19" customWidth="1"/>
+    <col min="17" max="17" width="31" style="2" customWidth="1"/>
+    <col min="18" max="18" width="5.44140625" style="19" customWidth="1"/>
+    <col min="19" max="19" width="73.21875" style="2" customWidth="1"/>
+    <col min="20" max="20" width="3.77734375" style="19" customWidth="1"/>
+    <col min="21" max="21" width="42.21875" style="2" customWidth="1"/>
+    <col min="22" max="22" width="3.77734375" style="19" customWidth="1"/>
+    <col min="23" max="23" width="75.88671875" style="2" customWidth="1"/>
+    <col min="24" max="24" width="3.77734375" style="19" customWidth="1"/>
+    <col min="25" max="25" width="72.88671875" style="2" customWidth="1"/>
+    <col min="26" max="26" width="3.77734375" style="19" customWidth="1"/>
+    <col min="27" max="27" width="54.21875" style="2" customWidth="1"/>
+    <col min="28" max="28" width="3.77734375" style="19" customWidth="1"/>
+    <col min="29" max="29" width="39.33203125" style="2" customWidth="1"/>
+    <col min="30" max="30" width="3.77734375" style="19" customWidth="1"/>
+    <col min="31" max="31" width="42.6640625" style="2" customWidth="1"/>
+    <col min="32" max="32" width="3.77734375" style="19" customWidth="1"/>
+    <col min="33" max="16384" width="8.88671875" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" s="19" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:32" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C1" s="21"/>
-    </row>
-    <row r="2" spans="1:12" ht="19.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="M1" s="20"/>
+    </row>
+    <row r="2" spans="1:32" ht="19.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="14" t="s">
         <v>87</v>
       </c>
@@ -1747,8 +2011,41 @@
       <c r="I2" s="14" t="s">
         <v>272</v>
       </c>
-    </row>
-    <row r="3" spans="1:12" ht="27" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="K2" s="14" t="s">
+        <v>290</v>
+      </c>
+      <c r="M2" s="14" t="s">
+        <v>299</v>
+      </c>
+      <c r="O2" s="14" t="s">
+        <v>304</v>
+      </c>
+      <c r="Q2" s="14" t="s">
+        <v>294</v>
+      </c>
+      <c r="S2" s="14" t="s">
+        <v>318</v>
+      </c>
+      <c r="U2" s="14" t="s">
+        <v>324</v>
+      </c>
+      <c r="W2" s="14" t="s">
+        <v>342</v>
+      </c>
+      <c r="Y2" s="14" t="s">
+        <v>350</v>
+      </c>
+      <c r="AA2" s="14" t="s">
+        <v>367</v>
+      </c>
+      <c r="AC2" s="14" t="s">
+        <v>365</v>
+      </c>
+      <c r="AE2" s="14" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="3" spans="1:32" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
         <v>60</v>
       </c>
@@ -1764,8 +2061,41 @@
       <c r="I3" s="16" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="4" spans="1:12" ht="19.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="K3" s="16" t="s">
+        <v>60</v>
+      </c>
+      <c r="M3" s="16" t="s">
+        <v>60</v>
+      </c>
+      <c r="O3" s="16" t="s">
+        <v>60</v>
+      </c>
+      <c r="Q3" s="16" t="s">
+        <v>60</v>
+      </c>
+      <c r="S3" s="16" t="s">
+        <v>60</v>
+      </c>
+      <c r="U3" s="16" t="s">
+        <v>60</v>
+      </c>
+      <c r="W3" s="16" t="s">
+        <v>60</v>
+      </c>
+      <c r="Y3" s="16" t="s">
+        <v>60</v>
+      </c>
+      <c r="AA3" s="16" t="s">
+        <v>60</v>
+      </c>
+      <c r="AC3" s="16" t="s">
+        <v>60</v>
+      </c>
+      <c r="AE3" s="16" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="4" spans="1:32" ht="19.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
         <v>32</v>
       </c>
@@ -1781,8 +2111,41 @@
       <c r="I4" s="16" t="s">
         <v>281</v>
       </c>
-    </row>
-    <row r="5" spans="1:12" ht="23.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="K4" s="16" t="s">
+        <v>281</v>
+      </c>
+      <c r="M4" s="16" t="s">
+        <v>291</v>
+      </c>
+      <c r="O4" s="16" t="s">
+        <v>305</v>
+      </c>
+      <c r="Q4" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="S4" s="16" t="s">
+        <v>291</v>
+      </c>
+      <c r="U4" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="W4" s="16" t="s">
+        <v>291</v>
+      </c>
+      <c r="Y4" s="16" t="s">
+        <v>291</v>
+      </c>
+      <c r="AA4" s="16" t="s">
+        <v>291</v>
+      </c>
+      <c r="AC4" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="AE4" s="3" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="5" spans="1:32" ht="23.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="3" t="s">
         <v>27</v>
       </c>
@@ -1798,8 +2161,41 @@
       <c r="I5" s="3" t="s">
         <v>258</v>
       </c>
-    </row>
-    <row r="6" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="K5" s="3" t="s">
+        <v>258</v>
+      </c>
+      <c r="M5" s="3" t="s">
+        <v>253</v>
+      </c>
+      <c r="O5" s="3" t="s">
+        <v>320</v>
+      </c>
+      <c r="Q5" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="S5" s="3" t="s">
+        <v>325</v>
+      </c>
+      <c r="U5" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="W5" s="3" t="s">
+        <v>253</v>
+      </c>
+      <c r="Y5" s="3" t="s">
+        <v>253</v>
+      </c>
+      <c r="AA5" s="16" t="s">
+        <v>368</v>
+      </c>
+      <c r="AC5" s="3" t="s">
+        <v>364</v>
+      </c>
+      <c r="AE5" s="3" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="6" spans="1:32" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="18"/>
       <c r="C6" s="3" t="s">
         <v>270</v>
@@ -1811,8 +2207,37 @@
       <c r="I6" s="16" t="s">
         <v>219</v>
       </c>
-    </row>
-    <row r="7" spans="1:12" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="K6" s="16" t="s">
+        <v>219</v>
+      </c>
+      <c r="M6" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="O6" s="3" t="s">
+        <v>352</v>
+      </c>
+      <c r="Q6" s="1"/>
+      <c r="S6" s="3" t="s">
+        <v>323</v>
+      </c>
+      <c r="U6" s="20"/>
+      <c r="W6" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="Y6" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="AA6" s="3" t="s">
+        <v>352</v>
+      </c>
+      <c r="AC6" s="3" t="s">
+        <v>366</v>
+      </c>
+      <c r="AE6" s="20" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="7" spans="1:32" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="14" t="s">
         <v>90</v>
       </c>
@@ -1828,8 +2253,32 @@
       <c r="I7" s="16" t="s">
         <v>220</v>
       </c>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="K7" s="16" t="s">
+        <v>220</v>
+      </c>
+      <c r="M7" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="O7" s="3" t="s">
+        <v>295</v>
+      </c>
+      <c r="S7" s="3" t="s">
+        <v>253</v>
+      </c>
+      <c r="W7" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="Y7" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="AA7" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="AC7" s="3" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="8" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A8" s="3" t="s">
         <v>60</v>
       </c>
@@ -1845,8 +2294,32 @@
       <c r="I8" s="16" t="s">
         <v>265</v>
       </c>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="K8" s="16" t="s">
+        <v>265</v>
+      </c>
+      <c r="M8" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="O8" s="3" t="s">
+        <v>292</v>
+      </c>
+      <c r="S8" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="W8" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="Y8" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="AA8" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="AC8" s="3" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="9" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A9" s="3" t="s">
         <v>231</v>
       </c>
@@ -1859,8 +2332,27 @@
       <c r="G9" s="3" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="10" spans="1:12" s="15" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="M9" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="O9" s="3" t="s">
+        <v>296</v>
+      </c>
+      <c r="S9" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="W9" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="Y9" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="AA9" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="AC9" s="20"/>
+    </row>
+    <row r="10" spans="1:32" s="15" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A10" s="3" t="s">
         <v>32</v>
       </c>
@@ -1882,8 +2374,39 @@
       </c>
       <c r="J10" s="19"/>
       <c r="L10" s="19"/>
-    </row>
-    <row r="11" spans="1:12" s="15" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="M10" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="N10" s="19"/>
+      <c r="O10" s="3" t="s">
+        <v>297</v>
+      </c>
+      <c r="P10" s="19"/>
+      <c r="Q10" s="2"/>
+      <c r="R10" s="19"/>
+      <c r="S10" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="T10" s="19"/>
+      <c r="U10" s="2"/>
+      <c r="V10" s="19"/>
+      <c r="W10" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="X10" s="19"/>
+      <c r="Y10" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="Z10" s="19"/>
+      <c r="AA10" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="AB10" s="19"/>
+      <c r="AC10" s="2"/>
+      <c r="AD10" s="19"/>
+      <c r="AF10" s="19"/>
+    </row>
+    <row r="11" spans="1:32" s="15" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A11" s="3" t="s">
         <v>89</v>
       </c>
@@ -1902,8 +2425,37 @@
       <c r="H11" s="19"/>
       <c r="J11" s="19"/>
       <c r="L11" s="19"/>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M11" s="20"/>
+      <c r="N11" s="19"/>
+      <c r="O11" s="3" t="s">
+        <v>298</v>
+      </c>
+      <c r="P11" s="19"/>
+      <c r="Q11" s="2"/>
+      <c r="R11" s="19"/>
+      <c r="S11" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="T11" s="19"/>
+      <c r="U11" s="2"/>
+      <c r="V11" s="19"/>
+      <c r="W11" s="20" t="s">
+        <v>334</v>
+      </c>
+      <c r="X11" s="19"/>
+      <c r="Y11" s="20" t="s">
+        <v>334</v>
+      </c>
+      <c r="Z11" s="19"/>
+      <c r="AA11" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="AB11" s="19"/>
+      <c r="AC11" s="2"/>
+      <c r="AD11" s="19"/>
+      <c r="AF11" s="19"/>
+    </row>
+    <row r="12" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A12" s="3" t="s">
         <v>91</v>
       </c>
@@ -1919,9 +2471,26 @@
       <c r="I12" s="16" t="s">
         <v>263</v>
       </c>
-      <c r="K12" s="3"/>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M12" s="14" t="s">
+        <v>300</v>
+      </c>
+      <c r="O12" s="3" t="s">
+        <v>253</v>
+      </c>
+      <c r="S12" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="W12" s="14" t="s">
+        <v>343</v>
+      </c>
+      <c r="Y12" s="14" t="s">
+        <v>351</v>
+      </c>
+      <c r="AA12" s="20" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="13" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A13" s="3" t="s">
         <v>92</v>
       </c>
@@ -1938,8 +2507,25 @@
         <v>253</v>
       </c>
       <c r="K13" s="3"/>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M13" s="16" t="s">
+        <v>60</v>
+      </c>
+      <c r="O13" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="S13" s="20"/>
+      <c r="U13" s="20"/>
+      <c r="W13" s="16" t="s">
+        <v>60</v>
+      </c>
+      <c r="Y13" s="16" t="s">
+        <v>60</v>
+      </c>
+      <c r="AA13" s="14" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="14" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A14" s="3" t="s">
         <v>27</v>
       </c>
@@ -1956,8 +2542,29 @@
         <v>264</v>
       </c>
       <c r="K14" s="3"/>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M14" s="16" t="s">
+        <v>307</v>
+      </c>
+      <c r="O14" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="S14" s="14" t="s">
+        <v>326</v>
+      </c>
+      <c r="U14" s="14" t="s">
+        <v>327</v>
+      </c>
+      <c r="W14" s="16" t="s">
+        <v>344</v>
+      </c>
+      <c r="Y14" s="16" t="s">
+        <v>353</v>
+      </c>
+      <c r="AA14" s="16" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="15" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A15" s="3" t="s">
         <v>88</v>
       </c>
@@ -1972,8 +2579,29 @@
         <v>213</v>
       </c>
       <c r="K15" s="3"/>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M15" s="3" t="s">
+        <v>352</v>
+      </c>
+      <c r="O15" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="S15" s="16" t="s">
+        <v>60</v>
+      </c>
+      <c r="U15" s="16" t="s">
+        <v>60</v>
+      </c>
+      <c r="W15" s="3" t="s">
+        <v>311</v>
+      </c>
+      <c r="Y15" s="3" t="s">
+        <v>311</v>
+      </c>
+      <c r="AA15" s="16" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="16" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A16" s="3" t="s">
         <v>86</v>
       </c>
@@ -1987,8 +2615,29 @@
         <v>27</v>
       </c>
       <c r="K16" s="3"/>
-    </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="M16" s="3" t="s">
+        <v>292</v>
+      </c>
+      <c r="O16" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="S16" s="16" t="s">
+        <v>291</v>
+      </c>
+      <c r="U16" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="W16" s="3" t="s">
+        <v>292</v>
+      </c>
+      <c r="Y16" s="3" t="s">
+        <v>292</v>
+      </c>
+      <c r="AA16" s="3" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="17" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A17" s="6"/>
       <c r="C17" s="19"/>
       <c r="E17" s="16" t="s">
@@ -1998,8 +2647,29 @@
         <v>29</v>
       </c>
       <c r="K17" s="3"/>
-    </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="M17" s="3" t="s">
+        <v>253</v>
+      </c>
+      <c r="O17" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="S17" s="3" t="s">
+        <v>328</v>
+      </c>
+      <c r="U17" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="W17" s="3" t="s">
+        <v>323</v>
+      </c>
+      <c r="Y17" s="3" t="s">
+        <v>352</v>
+      </c>
+      <c r="AA17" s="3" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="18" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A18" s="14" t="s">
         <v>211</v>
       </c>
@@ -2013,8 +2683,25 @@
         <v>28</v>
       </c>
       <c r="K18" s="3"/>
-    </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="M18" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="O18" s="19"/>
+      <c r="S18" s="3" t="s">
+        <v>323</v>
+      </c>
+      <c r="U18" s="20"/>
+      <c r="W18" s="3" t="s">
+        <v>253</v>
+      </c>
+      <c r="Y18" s="3" t="s">
+        <v>253</v>
+      </c>
+      <c r="AA18" s="3" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="19" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A19" s="3" t="s">
         <v>60</v>
       </c>
@@ -2027,8 +2714,26 @@
       <c r="I19" s="3" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="20" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="M19" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="O19" s="14" t="s">
+        <v>308</v>
+      </c>
+      <c r="S19" s="3" t="s">
+        <v>253</v>
+      </c>
+      <c r="W19" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="Y19" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="AA19" s="3" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="20" spans="1:35" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A20" s="3" t="s">
         <v>32</v>
       </c>
@@ -2049,9 +2754,43 @@
       <c r="J20" s="19"/>
       <c r="K20" s="15"/>
       <c r="L20" s="19"/>
-      <c r="M20" s="15"/>
-    </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="M20" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="N20" s="19"/>
+      <c r="O20" s="16" t="s">
+        <v>60</v>
+      </c>
+      <c r="P20" s="19"/>
+      <c r="Q20" s="2"/>
+      <c r="R20" s="19"/>
+      <c r="S20" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="T20" s="19"/>
+      <c r="U20" s="15"/>
+      <c r="V20" s="19"/>
+      <c r="W20" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="X20" s="19"/>
+      <c r="Y20" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="Z20" s="19"/>
+      <c r="AA20" s="3" t="s">
+        <v>253</v>
+      </c>
+      <c r="AB20" s="19"/>
+      <c r="AC20" s="2"/>
+      <c r="AD20" s="19"/>
+      <c r="AE20" s="15"/>
+      <c r="AF20" s="19"/>
+      <c r="AG20" s="15"/>
+      <c r="AH20" s="15"/>
+      <c r="AI20" s="15"/>
+    </row>
+    <row r="21" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A21" s="3" t="s">
         <v>27</v>
       </c>
@@ -2061,8 +2800,27 @@
       <c r="E21" s="3" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="M21" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="O21" s="16" t="s">
+        <v>291</v>
+      </c>
+      <c r="S21" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="W21" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="Y21" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="AA21" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="AC21" s="15"/>
+    </row>
+    <row r="22" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A22" s="3" t="s">
         <v>29</v>
       </c>
@@ -2073,8 +2831,26 @@
         <v>29</v>
       </c>
       <c r="I22" s="19"/>
-    </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="M22" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="O22" s="3" t="s">
+        <v>253</v>
+      </c>
+      <c r="S22" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="W22" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="Y22" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="AA22" s="3" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="23" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A23" s="3" t="s">
         <v>28</v>
       </c>
@@ -2088,8 +2864,24 @@
       <c r="I23" s="14" t="s">
         <v>238</v>
       </c>
-    </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="M23" s="20"/>
+      <c r="O23" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="S23" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="W23" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="Y23" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="AA23" s="3" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="24" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A24" s="3" t="s">
         <v>49</v>
       </c>
@@ -2102,8 +2894,26 @@
       <c r="I24" s="3" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="M24" s="14" t="s">
+        <v>301</v>
+      </c>
+      <c r="O24" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="S24" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="W24" s="20" t="s">
+        <v>334</v>
+      </c>
+      <c r="Y24" s="20" t="s">
+        <v>334</v>
+      </c>
+      <c r="AA24" s="3" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="25" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A25" s="3" t="s">
         <v>50</v>
       </c>
@@ -2116,16 +2926,54 @@
       <c r="I25" s="16" t="s">
         <v>282</v>
       </c>
-    </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="M25" s="16" t="s">
+        <v>60</v>
+      </c>
+      <c r="O25" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="S25" s="20"/>
+      <c r="U25" s="20"/>
+      <c r="W25" s="14" t="s">
+        <v>346</v>
+      </c>
+      <c r="Y25" s="14" t="s">
+        <v>354</v>
+      </c>
+      <c r="AA25" s="3" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="26" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A26" s="18"/>
       <c r="C26" s="18"/>
       <c r="E26" s="1"/>
       <c r="I26" s="3" t="s">
         <v>239</v>
       </c>
-    </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="M26" s="16" t="s">
+        <v>291</v>
+      </c>
+      <c r="O26" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="S26" s="14" t="s">
+        <v>329</v>
+      </c>
+      <c r="U26" s="14" t="s">
+        <v>330</v>
+      </c>
+      <c r="W26" s="16" t="s">
+        <v>60</v>
+      </c>
+      <c r="Y26" s="16" t="s">
+        <v>60</v>
+      </c>
+      <c r="AA26" s="20" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="27" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A27" s="14" t="s">
         <v>37</v>
       </c>
@@ -2138,8 +2986,26 @@
       <c r="I27" s="3" t="s">
         <v>240</v>
       </c>
-    </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="M27" s="3" t="s">
+        <v>253</v>
+      </c>
+      <c r="O27" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="S27" s="16" t="s">
+        <v>60</v>
+      </c>
+      <c r="U27" s="16" t="s">
+        <v>60</v>
+      </c>
+      <c r="W27" s="16" t="s">
+        <v>291</v>
+      </c>
+      <c r="Y27" s="16" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="28" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A28" s="3" t="s">
         <v>60</v>
       </c>
@@ -2152,8 +3018,24 @@
       <c r="I28" s="3" t="s">
         <v>241</v>
       </c>
-    </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="M28" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="O28" s="20"/>
+      <c r="S28" s="16" t="s">
+        <v>291</v>
+      </c>
+      <c r="U28" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="W28" s="3" t="s">
+        <v>253</v>
+      </c>
+      <c r="Y28" s="3" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="29" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A29" s="3" t="s">
         <v>32</v>
       </c>
@@ -2166,8 +3048,26 @@
       <c r="I29" s="3" t="s">
         <v>242</v>
       </c>
-    </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="M29" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="O29" s="14" t="s">
+        <v>309</v>
+      </c>
+      <c r="S29" s="3" t="s">
+        <v>331</v>
+      </c>
+      <c r="U29" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="W29" s="3" t="s">
+        <v>349</v>
+      </c>
+      <c r="Y29" s="3" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="30" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A30" s="3" t="s">
         <v>27</v>
       </c>
@@ -2180,10 +3080,25 @@
       <c r="I30" s="3" t="s">
         <v>243</v>
       </c>
-      <c r="K30" s="1"/>
-      <c r="M30" s="1"/>
-    </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="K30" s="15"/>
+      <c r="M30" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="O30" s="16" t="s">
+        <v>60</v>
+      </c>
+      <c r="S30" s="3" t="s">
+        <v>323</v>
+      </c>
+      <c r="U30" s="20"/>
+      <c r="W30" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="Y30" s="3" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="31" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A31" s="3" t="s">
         <v>29</v>
       </c>
@@ -2196,8 +3111,23 @@
       <c r="I31" s="3" t="s">
         <v>244</v>
       </c>
-    </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="M31" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="O31" s="16" t="s">
+        <v>310</v>
+      </c>
+      <c r="S31" s="3" t="s">
+        <v>253</v>
+      </c>
+      <c r="W31" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="Y31" s="3" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="32" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A32" s="3" t="s">
         <v>28</v>
       </c>
@@ -2210,8 +3140,23 @@
       <c r="I32" s="16" t="s">
         <v>245</v>
       </c>
-    </row>
-    <row r="33" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M32" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="O32" s="3" t="s">
+        <v>311</v>
+      </c>
+      <c r="S32" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="W32" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="Y32" s="3" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="33" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A33" s="3" t="s">
         <v>49</v>
       </c>
@@ -2224,8 +3169,21 @@
       <c r="I33" s="3" t="s">
         <v>246</v>
       </c>
-    </row>
-    <row r="34" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M33" s="20"/>
+      <c r="O33" s="3" t="s">
+        <v>292</v>
+      </c>
+      <c r="S33" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="W33" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="Y33" s="3" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="34" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A34" s="3" t="s">
         <v>50</v>
       </c>
@@ -2238,8 +3196,23 @@
       <c r="I34" s="3" t="s">
         <v>247</v>
       </c>
-    </row>
-    <row r="35" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M34" s="14" t="s">
+        <v>302</v>
+      </c>
+      <c r="O34" s="3" t="s">
+        <v>312</v>
+      </c>
+      <c r="S34" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="W34" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="Y34" s="20" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="35" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A35" s="18"/>
       <c r="C35" s="3" t="s">
         <v>50</v>
@@ -2250,8 +3223,23 @@
       <c r="I35" s="3" t="s">
         <v>248</v>
       </c>
-    </row>
-    <row r="36" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M35" s="16" t="s">
+        <v>60</v>
+      </c>
+      <c r="O35" s="3" t="s">
+        <v>352</v>
+      </c>
+      <c r="S35" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="W35" s="20" t="s">
+        <v>334</v>
+      </c>
+      <c r="Y35" s="14" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="36" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A36" s="14" t="s">
         <v>52</v>
       </c>
@@ -2262,8 +3250,24 @@
       <c r="I36" s="3" t="s">
         <v>249</v>
       </c>
-    </row>
-    <row r="37" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M36" s="16" t="s">
+        <v>306</v>
+      </c>
+      <c r="O36" s="3" t="s">
+        <v>253</v>
+      </c>
+      <c r="Q36" s="15"/>
+      <c r="S36" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="W36" s="14" t="s">
+        <v>345</v>
+      </c>
+      <c r="Y36" s="16" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="37" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A37" s="3" t="s">
         <v>60</v>
       </c>
@@ -2273,8 +3277,22 @@
       <c r="I37" s="3" t="s">
         <v>250</v>
       </c>
-    </row>
-    <row r="38" spans="1:12" s="19" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="M37" s="3" t="s">
+        <v>352</v>
+      </c>
+      <c r="O37" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="S37" s="20"/>
+      <c r="U37" s="20"/>
+      <c r="W37" s="16" t="s">
+        <v>60</v>
+      </c>
+      <c r="Y37" s="16" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="38" spans="1:32" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A38" s="3" t="s">
         <v>32</v>
       </c>
@@ -2285,8 +3303,29 @@
       <c r="I38" s="3" t="s">
         <v>251</v>
       </c>
-    </row>
-    <row r="39" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M38" s="3" t="s">
+        <v>292</v>
+      </c>
+      <c r="O38" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q38" s="2"/>
+      <c r="S38" s="14" t="s">
+        <v>332</v>
+      </c>
+      <c r="U38" s="14" t="s">
+        <v>336</v>
+      </c>
+      <c r="W38" s="16" t="s">
+        <v>347</v>
+      </c>
+      <c r="Y38" s="3" t="s">
+        <v>311</v>
+      </c>
+      <c r="AA38" s="15"/>
+      <c r="AC38" s="15"/>
+    </row>
+    <row r="39" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A39" s="3" t="s">
         <v>27</v>
       </c>
@@ -2296,8 +3335,26 @@
       <c r="I39" s="3" t="s">
         <v>252</v>
       </c>
-    </row>
-    <row r="40" spans="1:12" s="15" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="M39" s="3" t="s">
+        <v>253</v>
+      </c>
+      <c r="O39" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="S39" s="16" t="s">
+        <v>60</v>
+      </c>
+      <c r="U39" s="16" t="s">
+        <v>60</v>
+      </c>
+      <c r="W39" s="3" t="s">
+        <v>311</v>
+      </c>
+      <c r="Y39" s="3" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="40" spans="1:32" s="15" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A40" s="3" t="s">
         <v>29</v>
       </c>
@@ -2313,8 +3370,37 @@
       </c>
       <c r="J40" s="19"/>
       <c r="L40" s="19"/>
-    </row>
-    <row r="41" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M40" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="N40" s="19"/>
+      <c r="O40" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="P40" s="19"/>
+      <c r="Q40" s="2"/>
+      <c r="R40" s="19"/>
+      <c r="S40" s="16" t="s">
+        <v>291</v>
+      </c>
+      <c r="T40" s="19"/>
+      <c r="U40" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="V40" s="19"/>
+      <c r="W40" s="3" t="s">
+        <v>292</v>
+      </c>
+      <c r="X40" s="19"/>
+      <c r="Y40" s="3" t="s">
+        <v>357</v>
+      </c>
+      <c r="Z40" s="19"/>
+      <c r="AB40" s="19"/>
+      <c r="AD40" s="19"/>
+      <c r="AF40" s="19"/>
+    </row>
+    <row r="41" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A41" s="3" t="s">
         <v>28</v>
       </c>
@@ -2324,8 +3410,26 @@
       <c r="I41" s="3" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="42" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M41" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="O41" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="S41" s="3" t="s">
+        <v>339</v>
+      </c>
+      <c r="U41" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="W41" s="3" t="s">
+        <v>323</v>
+      </c>
+      <c r="Y41" s="3" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="42" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A42" s="3" t="s">
         <v>49</v>
       </c>
@@ -2335,8 +3439,22 @@
       <c r="I42" s="3" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="43" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M42" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="O42" s="20"/>
+      <c r="S42" s="3" t="s">
+        <v>323</v>
+      </c>
+      <c r="U42" s="20"/>
+      <c r="W42" s="3" t="s">
+        <v>253</v>
+      </c>
+      <c r="Y42" s="3" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="43" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A43" s="3" t="s">
         <v>50</v>
       </c>
@@ -2346,8 +3464,23 @@
       <c r="I43" s="3" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="44" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M43" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="O43" s="14" t="s">
+        <v>313</v>
+      </c>
+      <c r="S43" s="3" t="s">
+        <v>253</v>
+      </c>
+      <c r="W43" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="Y43" s="3" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="44" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A44" s="18"/>
       <c r="E44" s="5" t="s">
         <v>163</v>
@@ -2355,272 +3488,686 @@
       <c r="I44" s="3" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="45" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M44" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="O44" s="16" t="s">
+        <v>60</v>
+      </c>
+      <c r="S44" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="W44" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="Y44" s="3" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="45" spans="1:32" x14ac:dyDescent="0.3">
       <c r="E45" s="5" t="s">
         <v>146</v>
       </c>
       <c r="I45" s="3" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="46" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M45" s="20"/>
+      <c r="O45" s="16" t="s">
+        <v>310</v>
+      </c>
+      <c r="S45" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="W45" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="Y45" s="3" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="46" spans="1:32" x14ac:dyDescent="0.3">
       <c r="E46" s="5" t="s">
         <v>147</v>
       </c>
       <c r="I46" s="19"/>
-    </row>
-    <row r="47" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M46" s="14" t="s">
+        <v>303</v>
+      </c>
+      <c r="O46" s="3" t="s">
+        <v>311</v>
+      </c>
+      <c r="S46" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="W46" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="Y46" s="3" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="47" spans="1:32" x14ac:dyDescent="0.3">
       <c r="E47" s="5" t="s">
         <v>105</v>
       </c>
       <c r="I47" s="14" t="s">
         <v>254</v>
       </c>
-    </row>
-    <row r="48" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M47" s="16" t="s">
+        <v>60</v>
+      </c>
+      <c r="O47" s="3" t="s">
+        <v>292</v>
+      </c>
+      <c r="S47" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="W47" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="Y47" s="3" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="48" spans="1:32" x14ac:dyDescent="0.3">
       <c r="E48" s="5" t="s">
         <v>143</v>
       </c>
       <c r="I48" s="3" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="49" spans="5:9" x14ac:dyDescent="0.3">
+      <c r="M48" s="16" t="s">
+        <v>291</v>
+      </c>
+      <c r="O48" s="3" t="s">
+        <v>314</v>
+      </c>
+      <c r="S48" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="W48" s="20" t="s">
+        <v>334</v>
+      </c>
+      <c r="Y48" s="20" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="49" spans="5:27" x14ac:dyDescent="0.3">
       <c r="E49" s="5" t="s">
         <v>144</v>
       </c>
       <c r="I49" s="16" t="s">
         <v>282</v>
       </c>
-    </row>
-    <row r="50" spans="5:9" x14ac:dyDescent="0.3">
+      <c r="M49" s="3" t="s">
+        <v>253</v>
+      </c>
+      <c r="O49" s="3" t="s">
+        <v>315</v>
+      </c>
+      <c r="S49" s="20"/>
+      <c r="U49" s="20"/>
+      <c r="W49" s="14" t="s">
+        <v>348</v>
+      </c>
+      <c r="Y49" s="14" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="50" spans="5:27" x14ac:dyDescent="0.3">
       <c r="E50" s="1"/>
       <c r="I50" s="3" t="s">
         <v>253</v>
       </c>
-    </row>
-    <row r="51" spans="5:9" x14ac:dyDescent="0.3">
+      <c r="M50" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="O50" s="3" t="s">
+        <v>352</v>
+      </c>
+      <c r="S50" s="14" t="s">
+        <v>333</v>
+      </c>
+      <c r="U50" s="14" t="s">
+        <v>337</v>
+      </c>
+      <c r="W50" s="16" t="s">
+        <v>60</v>
+      </c>
+      <c r="Y50" s="16" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="51" spans="5:27" x14ac:dyDescent="0.3">
       <c r="E51" s="14" t="s">
         <v>228</v>
       </c>
       <c r="I51" s="3" t="s">
         <v>277</v>
       </c>
-    </row>
-    <row r="52" spans="5:9" x14ac:dyDescent="0.3">
+      <c r="M51" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="O51" s="3" t="s">
+        <v>253</v>
+      </c>
+      <c r="S51" s="16" t="s">
+        <v>60</v>
+      </c>
+      <c r="U51" s="16" t="s">
+        <v>60</v>
+      </c>
+      <c r="W51" s="16" t="s">
+        <v>347</v>
+      </c>
+      <c r="Y51" s="16" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="52" spans="5:27" x14ac:dyDescent="0.3">
       <c r="E52" s="5"/>
       <c r="I52" s="3" t="s">
         <v>273</v>
       </c>
-    </row>
-    <row r="53" spans="5:9" x14ac:dyDescent="0.3">
+      <c r="M52" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="O52" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="S52" s="16" t="s">
+        <v>291</v>
+      </c>
+      <c r="U52" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="W52" s="3" t="s">
+        <v>311</v>
+      </c>
+      <c r="Y52" s="3" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="53" spans="5:27" x14ac:dyDescent="0.3">
       <c r="E53" s="5" t="s">
         <v>60</v>
       </c>
       <c r="I53" s="3" t="s">
         <v>274</v>
       </c>
-    </row>
-    <row r="54" spans="5:9" x14ac:dyDescent="0.3">
+      <c r="M53" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="O53" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="S53" s="3" t="s">
+        <v>338</v>
+      </c>
+      <c r="U53" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="W53" s="3" t="s">
+        <v>292</v>
+      </c>
+      <c r="Y53" s="3" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="54" spans="5:27" x14ac:dyDescent="0.3">
       <c r="E54" s="5" t="s">
         <v>166</v>
       </c>
       <c r="I54" s="3" t="s">
         <v>275</v>
       </c>
-    </row>
-    <row r="55" spans="5:9" x14ac:dyDescent="0.3">
+      <c r="M54" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="O54" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="S54" s="3" t="s">
+        <v>323</v>
+      </c>
+      <c r="U54" s="20"/>
+      <c r="W54" s="3" t="s">
+        <v>323</v>
+      </c>
+      <c r="Y54" s="3" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="55" spans="5:27" x14ac:dyDescent="0.3">
       <c r="E55" s="5" t="s">
         <v>105</v>
       </c>
       <c r="I55" s="3" t="s">
         <v>276</v>
       </c>
-    </row>
-    <row r="56" spans="5:9" x14ac:dyDescent="0.3">
+      <c r="M55" s="19"/>
+      <c r="O55" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="S55" s="3" t="s">
+        <v>253</v>
+      </c>
+      <c r="W55" s="3" t="s">
+        <v>253</v>
+      </c>
+      <c r="Y55" s="3" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="56" spans="5:27" x14ac:dyDescent="0.3">
       <c r="E56" s="5" t="s">
         <v>106</v>
       </c>
       <c r="I56" s="3" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="57" spans="5:9" x14ac:dyDescent="0.3">
+      <c r="O56" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="S56" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="W56" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="Y56" s="3" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="57" spans="5:27" x14ac:dyDescent="0.3">
       <c r="E57" s="5" t="s">
         <v>107</v>
       </c>
       <c r="I57" s="3" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="58" spans="5:9" x14ac:dyDescent="0.3">
+      <c r="O57" s="20"/>
+      <c r="Q57" s="19"/>
+      <c r="S57" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="W57" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="Y57" s="3" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="58" spans="5:27" x14ac:dyDescent="0.3">
       <c r="E58" s="5" t="s">
         <v>118</v>
       </c>
       <c r="I58" s="3" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="59" spans="5:9" x14ac:dyDescent="0.3">
+      <c r="O58" s="14" t="s">
+        <v>316</v>
+      </c>
+      <c r="Q58" s="14" t="s">
+        <v>319</v>
+      </c>
+      <c r="S58" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="W58" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="Y58" s="20" t="s">
+        <v>334</v>
+      </c>
+      <c r="AA58" s="20"/>
+    </row>
+    <row r="59" spans="5:27" x14ac:dyDescent="0.3">
       <c r="E59" s="5" t="s">
         <v>119</v>
       </c>
       <c r="I59" s="3" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="60" spans="5:9" x14ac:dyDescent="0.3">
+      <c r="O59" s="16" t="s">
+        <v>60</v>
+      </c>
+      <c r="Q59" s="16" t="s">
+        <v>60</v>
+      </c>
+      <c r="S59" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="W59" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="Y59" s="14" t="s">
+        <v>362</v>
+      </c>
+      <c r="AA59" s="14" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="60" spans="5:27" x14ac:dyDescent="0.3">
       <c r="E60" s="19"/>
       <c r="I60" s="3" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="61" spans="5:9" x14ac:dyDescent="0.3">
+      <c r="O60" s="16" t="s">
+        <v>291</v>
+      </c>
+      <c r="Q60" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="S60" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="W60" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="Y60" s="16" t="s">
+        <v>60</v>
+      </c>
+      <c r="AA60" s="16" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="61" spans="5:27" x14ac:dyDescent="0.3">
       <c r="I61" s="19"/>
-    </row>
-    <row r="62" spans="5:9" x14ac:dyDescent="0.3">
+      <c r="O61" s="3" t="s">
+        <v>322</v>
+      </c>
+      <c r="Q61" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="S61" s="20"/>
+      <c r="U61" s="20"/>
+      <c r="W61" s="20" t="s">
+        <v>334</v>
+      </c>
+      <c r="Y61" s="16" t="s">
+        <v>363</v>
+      </c>
+      <c r="AA61" s="3" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="62" spans="5:27" x14ac:dyDescent="0.3">
       <c r="I62" s="14" t="s">
         <v>255</v>
       </c>
-    </row>
-    <row r="63" spans="5:9" x14ac:dyDescent="0.3">
+      <c r="O62" s="3" t="s">
+        <v>323</v>
+      </c>
+      <c r="Q62" s="19"/>
+      <c r="S62" s="14" t="s">
+        <v>335</v>
+      </c>
+      <c r="U62" s="14" t="s">
+        <v>340</v>
+      </c>
+      <c r="Y62" s="16" t="s">
+        <v>360</v>
+      </c>
+      <c r="AA62" s="3" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="63" spans="5:27" x14ac:dyDescent="0.3">
       <c r="I63" s="3" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="64" spans="5:9" x14ac:dyDescent="0.3">
+      <c r="O63" s="3" t="s">
+        <v>317</v>
+      </c>
+      <c r="Q63" s="14" t="s">
+        <v>321</v>
+      </c>
+      <c r="S63" s="16" t="s">
+        <v>60</v>
+      </c>
+      <c r="U63" s="16" t="s">
+        <v>60</v>
+      </c>
+      <c r="Y63" s="3" t="s">
+        <v>323</v>
+      </c>
+      <c r="AA63" s="3" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="64" spans="5:27" x14ac:dyDescent="0.3">
       <c r="I64" s="16" t="s">
         <v>282</v>
       </c>
-    </row>
-    <row r="65" spans="9:9" x14ac:dyDescent="0.3">
+      <c r="O64" s="3" t="s">
+        <v>253</v>
+      </c>
+      <c r="Q64" s="16" t="s">
+        <v>60</v>
+      </c>
+      <c r="S64" s="16" t="s">
+        <v>291</v>
+      </c>
+      <c r="U64" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="Y64" s="3" t="s">
+        <v>253</v>
+      </c>
+      <c r="AA64" s="3" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="65" spans="9:27" x14ac:dyDescent="0.3">
       <c r="I65" s="3" t="s">
         <v>253</v>
       </c>
-    </row>
-    <row r="66" spans="9:9" x14ac:dyDescent="0.3">
+      <c r="O65" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q65" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="S65" s="3" t="s">
+        <v>341</v>
+      </c>
+      <c r="U65" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="Y65" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="AA65" s="20"/>
+    </row>
+    <row r="66" spans="9:27" x14ac:dyDescent="0.3">
       <c r="I66" s="5" t="s">
         <v>278</v>
       </c>
-    </row>
-    <row r="67" spans="9:9" x14ac:dyDescent="0.3">
+      <c r="O66" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q66" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="S66" s="3" t="s">
+        <v>323</v>
+      </c>
+      <c r="U66" s="20"/>
+      <c r="Y66" s="3" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="67" spans="9:27" x14ac:dyDescent="0.3">
       <c r="I67" s="5" t="s">
         <v>279</v>
       </c>
-    </row>
-    <row r="68" spans="9:9" x14ac:dyDescent="0.3">
+      <c r="O67" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="Q67" s="19"/>
+      <c r="S67" s="3" t="s">
+        <v>253</v>
+      </c>
+      <c r="Y67" s="3" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="68" spans="9:27" x14ac:dyDescent="0.3">
       <c r="I68" s="3" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="69" spans="9:9" x14ac:dyDescent="0.3">
+      <c r="O68" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="S68" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="Y68" s="3" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="69" spans="9:27" x14ac:dyDescent="0.3">
       <c r="I69" s="3" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="70" spans="9:9" x14ac:dyDescent="0.3">
+      <c r="O69" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="S69" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="Y69" s="3" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="70" spans="9:27" x14ac:dyDescent="0.3">
       <c r="I70" s="3" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="71" spans="9:9" x14ac:dyDescent="0.3">
+      <c r="O70" s="20"/>
+      <c r="S70" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="Y70" s="20" t="s">
+        <v>334</v>
+      </c>
+      <c r="AA70" s="20"/>
+    </row>
+    <row r="71" spans="9:27" x14ac:dyDescent="0.3">
       <c r="I71" s="3" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="72" spans="9:9" x14ac:dyDescent="0.3">
+      <c r="S71" s="3" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="72" spans="9:27" x14ac:dyDescent="0.3">
       <c r="I72" s="3" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="73" spans="9:9" x14ac:dyDescent="0.3">
+      <c r="S72" s="3" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="73" spans="9:27" x14ac:dyDescent="0.3">
       <c r="I73" s="19"/>
-    </row>
-    <row r="74" spans="9:9" x14ac:dyDescent="0.3">
+      <c r="S73" s="20" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="74" spans="9:27" x14ac:dyDescent="0.3">
       <c r="I74" s="14" t="s">
         <v>256</v>
       </c>
     </row>
-    <row r="75" spans="9:9" x14ac:dyDescent="0.3">
+    <row r="75" spans="9:27" x14ac:dyDescent="0.3">
       <c r="I75" s="3" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="76" spans="9:9" x14ac:dyDescent="0.3">
+    <row r="76" spans="9:27" x14ac:dyDescent="0.3">
       <c r="I76" s="16" t="s">
         <v>282</v>
       </c>
     </row>
-    <row r="77" spans="9:9" x14ac:dyDescent="0.3">
+    <row r="77" spans="9:27" x14ac:dyDescent="0.3">
       <c r="I77" s="3" t="s">
         <v>253</v>
       </c>
     </row>
-    <row r="78" spans="9:9" x14ac:dyDescent="0.3">
+    <row r="78" spans="9:27" x14ac:dyDescent="0.3">
       <c r="I78" s="5" t="s">
         <v>279</v>
       </c>
     </row>
-    <row r="79" spans="9:9" x14ac:dyDescent="0.3">
+    <row r="79" spans="9:27" x14ac:dyDescent="0.3">
       <c r="I79" s="3" t="s">
         <v>259</v>
       </c>
     </row>
-    <row r="80" spans="9:9" x14ac:dyDescent="0.3">
+    <row r="80" spans="9:27" x14ac:dyDescent="0.3">
       <c r="I80" s="3" t="s">
         <v>260</v>
       </c>
     </row>
-    <row r="81" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:32" x14ac:dyDescent="0.3">
       <c r="I81" s="3" t="s">
         <v>261</v>
       </c>
     </row>
-    <row r="82" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:32" x14ac:dyDescent="0.3">
       <c r="I82" s="3" t="s">
         <v>262</v>
       </c>
     </row>
-    <row r="83" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:32" x14ac:dyDescent="0.3">
       <c r="I83" s="3" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="84" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:32" x14ac:dyDescent="0.3">
       <c r="I84" s="3" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="85" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:32" x14ac:dyDescent="0.3">
       <c r="I85" s="3" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="86" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:32" x14ac:dyDescent="0.3">
       <c r="I86" s="3" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="87" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:32" x14ac:dyDescent="0.3">
       <c r="I87" s="3" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="88" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:32" x14ac:dyDescent="0.3">
       <c r="I88" s="19" t="s">
         <v>280</v>
       </c>
     </row>
-    <row r="90" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:32" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B90" s="19"/>
       <c r="D90" s="19"/>
       <c r="F90" s="19"/>
       <c r="H90" s="19"/>
       <c r="J90" s="19"/>
       <c r="L90" s="19"/>
-    </row>
-    <row r="91" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="P90" s="19"/>
+      <c r="R90" s="19"/>
+      <c r="T90" s="19"/>
+      <c r="V90" s="19"/>
+      <c r="X90" s="19"/>
+      <c r="AB90" s="19"/>
+      <c r="AD90" s="19"/>
+      <c r="AF90" s="19"/>
+    </row>
+    <row r="91" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A91" s="9" t="s">
         <v>40</v>
       </c>
@@ -2634,7 +4181,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="92" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A92" s="10" t="s">
         <v>60</v>
       </c>
@@ -2648,7 +4195,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="93" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A93" s="10" t="s">
         <v>39</v>
       </c>
@@ -2662,7 +4209,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="94" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A94" s="10" t="s">
         <v>42</v>
       </c>
@@ -2676,7 +4223,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="95" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A95" s="10" t="s">
         <v>43</v>
       </c>
@@ -2690,7 +4237,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="96" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A96" s="10" t="s">
         <v>27</v>
       </c>

--- a/ControlTowerSystemDatabaseSchema.xlsx
+++ b/ControlTowerSystemDatabaseSchema.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29231"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\thanthtet.myet\Documents\01_Willowglen\02_Workplace\ControlTower\ControlTower_Note\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{799B9543-31FF-4053-9447-82B69875C7EE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{972F7775-49CE-474D-A2BA-456472064254}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="2" activeTab="2" xr2:uid="{EB4BDDAD-CEF0-4ED0-94FA-11B08D0D68E4}"/>
+    <workbookView xWindow="28665" yWindow="-135" windowWidth="29070" windowHeight="15750" firstSheet="2" activeTab="2" xr2:uid="{EB4BDDAD-CEF0-4ED0-94FA-11B08D0D68E4}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1070" uniqueCount="372">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1080" uniqueCount="374">
   <si>
     <t>Table Name</t>
   </si>
@@ -1168,6 +1168,12 @@
   </si>
   <si>
     <t>CurrentPatch: (nvarchar, null)</t>
+  </si>
+  <si>
+    <t>WitnessedBy: (nvarchar,null)</t>
+  </si>
+  <si>
+    <t>StartDate: (datetime, null))</t>
   </si>
 </sst>
 </file>
@@ -1950,8 +1956,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{964FE91A-D8DF-42C2-BA38-81E4FBFE8C98}">
   <dimension ref="A1:AI136"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="Z1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="AB5" sqref="AB5"/>
+    <sheetView tabSelected="1" topLeftCell="O1" zoomScale="73" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="R1" sqref="R1:R1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2332,6 +2338,9 @@
       <c r="G9" s="3" t="s">
         <v>32</v>
       </c>
+      <c r="K9" t="s">
+        <v>264</v>
+      </c>
       <c r="M9" s="3" t="s">
         <v>49</v>
       </c>
@@ -2373,6 +2382,9 @@
         <v>236</v>
       </c>
       <c r="J10" s="19"/>
+      <c r="K10" s="3" t="s">
+        <v>372</v>
+      </c>
       <c r="L10" s="19"/>
       <c r="M10" s="3" t="s">
         <v>50</v>
@@ -2424,6 +2436,9 @@
       </c>
       <c r="H11" s="19"/>
       <c r="J11" s="19"/>
+      <c r="K11" s="16" t="s">
+        <v>373</v>
+      </c>
       <c r="L11" s="19"/>
       <c r="M11" s="20"/>
       <c r="N11" s="19"/>
@@ -2471,6 +2486,9 @@
       <c r="I12" s="16" t="s">
         <v>263</v>
       </c>
+      <c r="K12" s="16" t="s">
+        <v>227</v>
+      </c>
       <c r="M12" s="14" t="s">
         <v>300</v>
       </c>
@@ -2506,7 +2524,9 @@
       <c r="I13" s="3" t="s">
         <v>253</v>
       </c>
-      <c r="K13" s="3"/>
+      <c r="K13" s="3" t="s">
+        <v>253</v>
+      </c>
       <c r="M13" s="16" t="s">
         <v>60</v>
       </c>
@@ -2541,7 +2561,9 @@
       <c r="I14" t="s">
         <v>264</v>
       </c>
-      <c r="K14" s="3"/>
+      <c r="K14" s="3" t="s">
+        <v>27</v>
+      </c>
       <c r="M14" s="16" t="s">
         <v>307</v>
       </c>
@@ -2578,7 +2600,9 @@
       <c r="I15" s="3" t="s">
         <v>213</v>
       </c>
-      <c r="K15" s="3"/>
+      <c r="K15" s="3" t="s">
+        <v>29</v>
+      </c>
       <c r="M15" s="3" t="s">
         <v>352</v>
       </c>
@@ -2614,7 +2638,9 @@
       <c r="I16" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="K16" s="3"/>
+      <c r="K16" s="3" t="s">
+        <v>28</v>
+      </c>
       <c r="M16" s="3" t="s">
         <v>292</v>
       </c>
@@ -2646,7 +2672,9 @@
       <c r="I17" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="K17" s="3"/>
+      <c r="K17" s="3" t="s">
+        <v>49</v>
+      </c>
       <c r="M17" s="3" t="s">
         <v>253</v>
       </c>
@@ -2682,7 +2710,9 @@
       <c r="I18" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="K18" s="3"/>
+      <c r="K18" s="3" t="s">
+        <v>50</v>
+      </c>
       <c r="M18" s="3" t="s">
         <v>27</v>
       </c>
@@ -2714,6 +2744,7 @@
       <c r="I19" s="3" t="s">
         <v>49</v>
       </c>
+      <c r="K19" s="20"/>
       <c r="M19" s="3" t="s">
         <v>29</v>
       </c>

--- a/ControlTowerSystemDatabaseSchema.xlsx
+++ b/ControlTowerSystemDatabaseSchema.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\thanthtet.myet\Documents\01_Willowglen\02_Workplace\ControlTower\ControlTower_Note\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\thanthtet.myet\Documents\01_Willowglen\02_Workplace\ControlTower\ControlTower_Database\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{972F7775-49CE-474D-A2BA-456472064254}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B1BB555A-1DF3-4B62-8AA3-4B1D9D7B46F2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28665" yWindow="-135" windowWidth="29070" windowHeight="15750" firstSheet="2" activeTab="2" xr2:uid="{EB4BDDAD-CEF0-4ED0-94FA-11B08D0D68E4}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" firstSheet="2" activeTab="2" xr2:uid="{EB4BDDAD-CEF0-4ED0-94FA-11B08D0D68E4}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1080" uniqueCount="374">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1090" uniqueCount="376">
   <si>
     <t>Table Name</t>
   </si>
@@ -1089,18 +1089,12 @@
     <t>PMServerMonthlyDatabaseCreationID: (FK from PMServerMonthlyDatabaseCreation)</t>
   </si>
   <si>
-    <t>PMServerMonthlyDatabaseBackupDetails</t>
-  </si>
-  <si>
     <t>PMServerMonthlyDatabaseBackup</t>
   </si>
   <si>
     <t>PMServerMonthlyDatabaseBackupID: (FK from PMServerMonthlyDatabaseBackup)</t>
   </si>
   <si>
-    <t>PMServerMonthlySCADADataBackupDetails</t>
-  </si>
-  <si>
     <t>LatestBackupFileName: (nvarchar, null)</t>
   </si>
   <si>
@@ -1174,6 +1168,18 @@
   </si>
   <si>
     <t>StartDate: (datetime, null))</t>
+  </si>
+  <si>
+    <t>PMServerSCADADataBackupDetails</t>
+  </si>
+  <si>
+    <t>PMServerMSSQLDatabaseBackupDetails</t>
+  </si>
+  <si>
+    <t>PMServerSoftwarePatchDetails</t>
+  </si>
+  <si>
+    <t>PMServerSoftwarePatchSummaryID: (FK from PMServerSoftwarePatchSummary)</t>
   </si>
 </sst>
 </file>
@@ -1205,7 +1211,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="9">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1254,6 +1260,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="2">
     <border>
@@ -1282,7 +1294,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1331,6 +1343,18 @@
     <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1956,8 +1980,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{964FE91A-D8DF-42C2-BA38-81E4FBFE8C98}">
   <dimension ref="A1:AI136"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="O1" zoomScale="73" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="R1" sqref="R1:R1048576"/>
+    <sheetView tabSelected="1" topLeftCell="Y10" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="AA36" sqref="AA36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1979,7 +2003,7 @@
     <col min="15" max="15" width="71" style="2" customWidth="1"/>
     <col min="16" max="16" width="5.44140625" style="19" customWidth="1"/>
     <col min="17" max="17" width="31" style="2" customWidth="1"/>
-    <col min="18" max="18" width="5.44140625" style="19" customWidth="1"/>
+    <col min="18" max="18" width="5.44140625" style="23" customWidth="1"/>
     <col min="19" max="19" width="73.21875" style="2" customWidth="1"/>
     <col min="20" max="20" width="3.77734375" style="19" customWidth="1"/>
     <col min="21" max="21" width="42.21875" style="2" customWidth="1"/>
@@ -1988,7 +2012,7 @@
     <col min="24" max="24" width="3.77734375" style="19" customWidth="1"/>
     <col min="25" max="25" width="72.88671875" style="2" customWidth="1"/>
     <col min="26" max="26" width="3.77734375" style="19" customWidth="1"/>
-    <col min="27" max="27" width="54.21875" style="2" customWidth="1"/>
+    <col min="27" max="27" width="69.88671875" style="2" customWidth="1"/>
     <col min="28" max="28" width="3.77734375" style="19" customWidth="1"/>
     <col min="29" max="29" width="39.33203125" style="2" customWidth="1"/>
     <col min="30" max="30" width="3.77734375" style="19" customWidth="1"/>
@@ -2000,6 +2024,7 @@
     <row r="1" spans="1:32" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C1" s="21"/>
       <c r="M1" s="20"/>
+      <c r="R1" s="23"/>
     </row>
     <row r="2" spans="1:32" ht="19.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="14" t="s">
@@ -2032,20 +2057,20 @@
       <c r="S2" s="14" t="s">
         <v>318</v>
       </c>
-      <c r="U2" s="14" t="s">
+      <c r="U2" s="24" t="s">
         <v>324</v>
       </c>
       <c r="W2" s="14" t="s">
         <v>342</v>
       </c>
       <c r="Y2" s="14" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="AA2" s="14" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="AC2" s="14" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="AE2" s="14" t="s">
         <v>293</v>
@@ -2082,7 +2107,7 @@
       <c r="S3" s="16" t="s">
         <v>60</v>
       </c>
-      <c r="U3" s="16" t="s">
+      <c r="U3" s="25" t="s">
         <v>60</v>
       </c>
       <c r="W3" s="16" t="s">
@@ -2132,7 +2157,7 @@
       <c r="S4" s="16" t="s">
         <v>291</v>
       </c>
-      <c r="U4" s="3" t="s">
+      <c r="U4" s="25" t="s">
         <v>32</v>
       </c>
       <c r="W4" s="16" t="s">
@@ -2179,10 +2204,10 @@
       <c r="Q5" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="S5" s="3" t="s">
+      <c r="S5" s="25" t="s">
         <v>325</v>
       </c>
-      <c r="U5" s="3" t="s">
+      <c r="U5" s="25" t="s">
         <v>27</v>
       </c>
       <c r="W5" s="3" t="s">
@@ -2192,10 +2217,10 @@
         <v>253</v>
       </c>
       <c r="AA5" s="16" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="AC5" s="3" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="AE5" s="3" t="s">
         <v>27</v>
@@ -2220,7 +2245,7 @@
         <v>27</v>
       </c>
       <c r="O6" s="3" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="Q6" s="1"/>
       <c r="S6" s="3" t="s">
@@ -2234,10 +2259,10 @@
         <v>27</v>
       </c>
       <c r="AA6" s="3" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="AC6" s="3" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="AE6" s="20" t="s">
         <v>334</v>
@@ -2281,7 +2306,7 @@
         <v>27</v>
       </c>
       <c r="AC7" s="3" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
     </row>
     <row r="8" spans="1:32" x14ac:dyDescent="0.3">
@@ -2383,7 +2408,7 @@
       </c>
       <c r="J10" s="19"/>
       <c r="K10" s="3" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="L10" s="19"/>
       <c r="M10" s="3" t="s">
@@ -2395,7 +2420,7 @@
       </c>
       <c r="P10" s="19"/>
       <c r="Q10" s="2"/>
-      <c r="R10" s="19"/>
+      <c r="R10" s="23"/>
       <c r="S10" s="3" t="s">
         <v>28</v>
       </c>
@@ -2437,7 +2462,7 @@
       <c r="H11" s="19"/>
       <c r="J11" s="19"/>
       <c r="K11" s="16" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="L11" s="19"/>
       <c r="M11" s="20"/>
@@ -2447,7 +2472,7 @@
       </c>
       <c r="P11" s="19"/>
       <c r="Q11" s="2"/>
-      <c r="R11" s="19"/>
+      <c r="R11" s="23"/>
       <c r="S11" s="3" t="s">
         <v>49</v>
       </c>
@@ -2502,7 +2527,7 @@
         <v>343</v>
       </c>
       <c r="Y12" s="14" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="AA12" s="20" t="s">
         <v>334</v>
@@ -2542,7 +2567,7 @@
         <v>60</v>
       </c>
       <c r="AA13" s="14" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
     </row>
     <row r="14" spans="1:32" x14ac:dyDescent="0.3">
@@ -2573,14 +2598,14 @@
       <c r="S14" s="14" t="s">
         <v>326</v>
       </c>
-      <c r="U14" s="14" t="s">
+      <c r="U14" s="24" t="s">
         <v>327</v>
       </c>
       <c r="W14" s="16" t="s">
         <v>344</v>
       </c>
       <c r="Y14" s="16" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="AA14" s="16" t="s">
         <v>60</v>
@@ -2604,7 +2629,7 @@
         <v>29</v>
       </c>
       <c r="M15" s="3" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="O15" s="3" t="s">
         <v>28</v>
@@ -2612,7 +2637,7 @@
       <c r="S15" s="16" t="s">
         <v>60</v>
       </c>
-      <c r="U15" s="16" t="s">
+      <c r="U15" s="25" t="s">
         <v>60</v>
       </c>
       <c r="W15" s="3" t="s">
@@ -2650,7 +2675,7 @@
       <c r="S16" s="16" t="s">
         <v>291</v>
       </c>
-      <c r="U16" s="3" t="s">
+      <c r="U16" s="25" t="s">
         <v>32</v>
       </c>
       <c r="W16" s="3" t="s">
@@ -2660,7 +2685,7 @@
         <v>292</v>
       </c>
       <c r="AA16" s="3" t="s">
-        <v>311</v>
+        <v>253</v>
       </c>
     </row>
     <row r="17" spans="1:35" x14ac:dyDescent="0.3">
@@ -2681,20 +2706,20 @@
       <c r="O17" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="S17" s="3" t="s">
+      <c r="S17" s="25" t="s">
         <v>328</v>
       </c>
-      <c r="U17" s="3" t="s">
+      <c r="U17" s="25" t="s">
         <v>27</v>
       </c>
       <c r="W17" s="3" t="s">
         <v>323</v>
       </c>
       <c r="Y17" s="3" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="AA17" s="3" t="s">
-        <v>292</v>
+        <v>27</v>
       </c>
     </row>
     <row r="18" spans="1:35" x14ac:dyDescent="0.3">
@@ -2728,7 +2753,7 @@
         <v>253</v>
       </c>
       <c r="AA18" s="3" t="s">
-        <v>370</v>
+        <v>29</v>
       </c>
     </row>
     <row r="19" spans="1:35" x14ac:dyDescent="0.3">
@@ -2761,7 +2786,7 @@
         <v>27</v>
       </c>
       <c r="AA19" s="3" t="s">
-        <v>371</v>
+        <v>28</v>
       </c>
     </row>
     <row r="20" spans="1:35" s="1" customFormat="1" x14ac:dyDescent="0.3">
@@ -2794,7 +2819,7 @@
       </c>
       <c r="P20" s="19"/>
       <c r="Q20" s="2"/>
-      <c r="R20" s="19"/>
+      <c r="R20" s="23"/>
       <c r="S20" s="3" t="s">
         <v>27</v>
       </c>
@@ -2810,7 +2835,7 @@
       </c>
       <c r="Z20" s="19"/>
       <c r="AA20" s="3" t="s">
-        <v>253</v>
+        <v>49</v>
       </c>
       <c r="AB20" s="19"/>
       <c r="AC20" s="2"/>
@@ -2847,7 +2872,7 @@
         <v>28</v>
       </c>
       <c r="AA21" s="3" t="s">
-        <v>27</v>
+        <v>50</v>
       </c>
       <c r="AC21" s="15"/>
     </row>
@@ -2877,8 +2902,8 @@
       <c r="Y22" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="AA22" s="3" t="s">
-        <v>29</v>
+      <c r="AA22" s="20" t="s">
+        <v>334</v>
       </c>
     </row>
     <row r="23" spans="1:35" x14ac:dyDescent="0.3">
@@ -2908,8 +2933,8 @@
       <c r="Y23" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="AA23" s="3" t="s">
-        <v>28</v>
+      <c r="AA23" s="26" t="s">
+        <v>374</v>
       </c>
     </row>
     <row r="24" spans="1:35" x14ac:dyDescent="0.3">
@@ -2940,8 +2965,8 @@
       <c r="Y24" s="20" t="s">
         <v>334</v>
       </c>
-      <c r="AA24" s="3" t="s">
-        <v>49</v>
+      <c r="AA24" s="16" t="s">
+        <v>60</v>
       </c>
     </row>
     <row r="25" spans="1:35" x14ac:dyDescent="0.3">
@@ -2966,13 +2991,13 @@
       <c r="S25" s="20"/>
       <c r="U25" s="20"/>
       <c r="W25" s="14" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="Y25" s="14" t="s">
-        <v>354</v>
-      </c>
-      <c r="AA25" s="3" t="s">
-        <v>50</v>
+        <v>352</v>
+      </c>
+      <c r="AA25" s="16" t="s">
+        <v>375</v>
       </c>
     </row>
     <row r="26" spans="1:35" x14ac:dyDescent="0.3">
@@ -2991,7 +3016,7 @@
       <c r="S26" s="14" t="s">
         <v>329</v>
       </c>
-      <c r="U26" s="14" t="s">
+      <c r="U26" s="24" t="s">
         <v>330</v>
       </c>
       <c r="W26" s="16" t="s">
@@ -3000,8 +3025,8 @@
       <c r="Y26" s="16" t="s">
         <v>60</v>
       </c>
-      <c r="AA26" s="20" t="s">
-        <v>334</v>
+      <c r="AA26" s="3" t="s">
+        <v>311</v>
       </c>
     </row>
     <row r="27" spans="1:35" x14ac:dyDescent="0.3">
@@ -3026,7 +3051,7 @@
       <c r="S27" s="16" t="s">
         <v>60</v>
       </c>
-      <c r="U27" s="16" t="s">
+      <c r="U27" s="25" t="s">
         <v>60</v>
       </c>
       <c r="W27" s="16" t="s">
@@ -3034,6 +3059,9 @@
       </c>
       <c r="Y27" s="16" t="s">
         <v>291</v>
+      </c>
+      <c r="AA27" s="3" t="s">
+        <v>292</v>
       </c>
     </row>
     <row r="28" spans="1:35" x14ac:dyDescent="0.3">
@@ -3056,7 +3084,7 @@
       <c r="S28" s="16" t="s">
         <v>291</v>
       </c>
-      <c r="U28" s="3" t="s">
+      <c r="U28" s="25" t="s">
         <v>32</v>
       </c>
       <c r="W28" s="3" t="s">
@@ -3064,6 +3092,9 @@
       </c>
       <c r="Y28" s="3" t="s">
         <v>253</v>
+      </c>
+      <c r="AA28" s="3" t="s">
+        <v>368</v>
       </c>
     </row>
     <row r="29" spans="1:35" x14ac:dyDescent="0.3">
@@ -3085,17 +3116,20 @@
       <c r="O29" s="14" t="s">
         <v>309</v>
       </c>
-      <c r="S29" s="3" t="s">
+      <c r="S29" s="25" t="s">
         <v>331</v>
       </c>
-      <c r="U29" s="3" t="s">
+      <c r="U29" s="25" t="s">
         <v>27</v>
       </c>
       <c r="W29" s="3" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="Y29" s="3" t="s">
         <v>27</v>
+      </c>
+      <c r="AA29" s="3" t="s">
+        <v>369</v>
       </c>
     </row>
     <row r="30" spans="1:35" x14ac:dyDescent="0.3">
@@ -3128,6 +3162,9 @@
       <c r="Y30" s="3" t="s">
         <v>29</v>
       </c>
+      <c r="AA30" s="3" t="s">
+        <v>253</v>
+      </c>
     </row>
     <row r="31" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A31" s="3" t="s">
@@ -3157,6 +3194,9 @@
       <c r="Y31" s="3" t="s">
         <v>28</v>
       </c>
+      <c r="AA31" s="3" t="s">
+        <v>27</v>
+      </c>
     </row>
     <row r="32" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A32" s="3" t="s">
@@ -3185,6 +3225,9 @@
       </c>
       <c r="Y32" s="3" t="s">
         <v>49</v>
+      </c>
+      <c r="AA32" s="3" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="33" spans="1:32" x14ac:dyDescent="0.3">
@@ -3213,6 +3256,9 @@
       <c r="Y33" s="3" t="s">
         <v>50</v>
       </c>
+      <c r="AA33" s="3" t="s">
+        <v>28</v>
+      </c>
     </row>
     <row r="34" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A34" s="3" t="s">
@@ -3241,6 +3287,9 @@
       </c>
       <c r="Y34" s="20" t="s">
         <v>334</v>
+      </c>
+      <c r="AA34" s="3" t="s">
+        <v>49</v>
       </c>
     </row>
     <row r="35" spans="1:32" x14ac:dyDescent="0.3">
@@ -3258,7 +3307,7 @@
         <v>60</v>
       </c>
       <c r="O35" s="3" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="S35" s="3" t="s">
         <v>49</v>
@@ -3267,7 +3316,10 @@
         <v>334</v>
       </c>
       <c r="Y35" s="14" t="s">
-        <v>355</v>
+        <v>353</v>
+      </c>
+      <c r="AA35" s="3" t="s">
+        <v>50</v>
       </c>
     </row>
     <row r="36" spans="1:32" x14ac:dyDescent="0.3">
@@ -3292,10 +3344,13 @@
         <v>50</v>
       </c>
       <c r="W36" s="14" t="s">
-        <v>345</v>
+        <v>373</v>
       </c>
       <c r="Y36" s="16" t="s">
         <v>60</v>
+      </c>
+      <c r="AA36" s="20" t="s">
+        <v>334</v>
       </c>
     </row>
     <row r="37" spans="1:32" x14ac:dyDescent="0.3">
@@ -3309,7 +3364,7 @@
         <v>250</v>
       </c>
       <c r="M37" s="3" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="O37" s="3" t="s">
         <v>27</v>
@@ -3320,7 +3375,7 @@
         <v>60</v>
       </c>
       <c r="Y37" s="16" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
     </row>
     <row r="38" spans="1:32" s="19" customFormat="1" x14ac:dyDescent="0.3">
@@ -3341,14 +3396,15 @@
         <v>29</v>
       </c>
       <c r="Q38" s="2"/>
+      <c r="R38" s="23"/>
       <c r="S38" s="14" t="s">
         <v>332</v>
       </c>
-      <c r="U38" s="14" t="s">
+      <c r="U38" s="24" t="s">
         <v>336</v>
       </c>
       <c r="W38" s="16" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="Y38" s="3" t="s">
         <v>311</v>
@@ -3375,7 +3431,7 @@
       <c r="S39" s="16" t="s">
         <v>60</v>
       </c>
-      <c r="U39" s="16" t="s">
+      <c r="U39" s="25" t="s">
         <v>60</v>
       </c>
       <c r="W39" s="3" t="s">
@@ -3410,12 +3466,12 @@
       </c>
       <c r="P40" s="19"/>
       <c r="Q40" s="2"/>
-      <c r="R40" s="19"/>
+      <c r="R40" s="23"/>
       <c r="S40" s="16" t="s">
         <v>291</v>
       </c>
       <c r="T40" s="19"/>
-      <c r="U40" s="3" t="s">
+      <c r="U40" s="25" t="s">
         <v>32</v>
       </c>
       <c r="V40" s="19"/>
@@ -3424,7 +3480,7 @@
       </c>
       <c r="X40" s="19"/>
       <c r="Y40" s="3" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="Z40" s="19"/>
       <c r="AB40" s="19"/>
@@ -3447,17 +3503,17 @@
       <c r="O41" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="S41" s="3" t="s">
+      <c r="S41" s="25" t="s">
         <v>339</v>
       </c>
-      <c r="U41" s="3" t="s">
+      <c r="U41" s="25" t="s">
         <v>27</v>
       </c>
       <c r="W41" s="3" t="s">
         <v>323</v>
       </c>
       <c r="Y41" s="3" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
     </row>
     <row r="42" spans="1:32" x14ac:dyDescent="0.3">
@@ -3639,10 +3695,10 @@
       <c r="S49" s="20"/>
       <c r="U49" s="20"/>
       <c r="W49" s="14" t="s">
-        <v>348</v>
+        <v>372</v>
       </c>
       <c r="Y49" s="14" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
     </row>
     <row r="50" spans="5:27" x14ac:dyDescent="0.3">
@@ -3654,12 +3710,12 @@
         <v>27</v>
       </c>
       <c r="O50" s="3" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="S50" s="14" t="s">
         <v>333</v>
       </c>
-      <c r="U50" s="14" t="s">
+      <c r="U50" s="24" t="s">
         <v>337</v>
       </c>
       <c r="W50" s="16" t="s">
@@ -3685,11 +3741,11 @@
       <c r="S51" s="16" t="s">
         <v>60</v>
       </c>
-      <c r="U51" s="16" t="s">
+      <c r="U51" s="25" t="s">
         <v>60</v>
       </c>
       <c r="W51" s="16" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="Y51" s="16" t="s">
         <v>291</v>
@@ -3709,7 +3765,7 @@
       <c r="S52" s="16" t="s">
         <v>291</v>
       </c>
-      <c r="U52" s="3" t="s">
+      <c r="U52" s="25" t="s">
         <v>32</v>
       </c>
       <c r="W52" s="3" t="s">
@@ -3732,10 +3788,10 @@
       <c r="O53" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="S53" s="3" t="s">
+      <c r="S53" s="25" t="s">
         <v>338</v>
       </c>
-      <c r="U53" s="3" t="s">
+      <c r="U53" s="25" t="s">
         <v>27</v>
       </c>
       <c r="W53" s="3" t="s">
@@ -3839,7 +3895,7 @@
       <c r="O58" s="14" t="s">
         <v>316</v>
       </c>
-      <c r="Q58" s="14" t="s">
+      <c r="Q58" s="24" t="s">
         <v>319</v>
       </c>
       <c r="S58" s="3" t="s">
@@ -3863,7 +3919,7 @@
       <c r="O59" s="16" t="s">
         <v>60</v>
       </c>
-      <c r="Q59" s="16" t="s">
+      <c r="Q59" s="25" t="s">
         <v>60</v>
       </c>
       <c r="S59" s="3" t="s">
@@ -3873,10 +3929,10 @@
         <v>49</v>
       </c>
       <c r="Y59" s="14" t="s">
-        <v>362</v>
-      </c>
-      <c r="AA59" s="14" t="s">
-        <v>359</v>
+        <v>360</v>
+      </c>
+      <c r="AA59" s="24" t="s">
+        <v>357</v>
       </c>
     </row>
     <row r="60" spans="5:27" x14ac:dyDescent="0.3">
@@ -3887,7 +3943,7 @@
       <c r="O60" s="16" t="s">
         <v>291</v>
       </c>
-      <c r="Q60" s="3" t="s">
+      <c r="Q60" s="25" t="s">
         <v>32</v>
       </c>
       <c r="S60" s="3" t="s">
@@ -3899,16 +3955,16 @@
       <c r="Y60" s="16" t="s">
         <v>60</v>
       </c>
-      <c r="AA60" s="16" t="s">
+      <c r="AA60" s="25" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="61" spans="5:27" x14ac:dyDescent="0.3">
       <c r="I61" s="19"/>
-      <c r="O61" s="3" t="s">
+      <c r="O61" s="25" t="s">
         <v>322</v>
       </c>
-      <c r="Q61" s="3" t="s">
+      <c r="Q61" s="25" t="s">
         <v>27</v>
       </c>
       <c r="S61" s="20"/>
@@ -3917,9 +3973,9 @@
         <v>334</v>
       </c>
       <c r="Y61" s="16" t="s">
-        <v>363</v>
-      </c>
-      <c r="AA61" s="3" t="s">
+        <v>361</v>
+      </c>
+      <c r="AA61" s="25" t="s">
         <v>32</v>
       </c>
     </row>
@@ -3934,14 +3990,14 @@
       <c r="S62" s="14" t="s">
         <v>335</v>
       </c>
-      <c r="U62" s="14" t="s">
+      <c r="U62" s="24" t="s">
         <v>340</v>
       </c>
-      <c r="Y62" s="16" t="s">
-        <v>360</v>
-      </c>
-      <c r="AA62" s="3" t="s">
-        <v>364</v>
+      <c r="Y62" s="25" t="s">
+        <v>358</v>
+      </c>
+      <c r="AA62" s="25" t="s">
+        <v>362</v>
       </c>
     </row>
     <row r="63" spans="5:27" x14ac:dyDescent="0.3">
@@ -3957,14 +4013,14 @@
       <c r="S63" s="16" t="s">
         <v>60</v>
       </c>
-      <c r="U63" s="16" t="s">
+      <c r="U63" s="25" t="s">
         <v>60</v>
       </c>
       <c r="Y63" s="3" t="s">
         <v>323</v>
       </c>
-      <c r="AA63" s="3" t="s">
-        <v>361</v>
+      <c r="AA63" s="25" t="s">
+        <v>359</v>
       </c>
     </row>
     <row r="64" spans="5:27" x14ac:dyDescent="0.3">
@@ -3980,13 +4036,13 @@
       <c r="S64" s="16" t="s">
         <v>291</v>
       </c>
-      <c r="U64" s="3" t="s">
+      <c r="U64" s="25" t="s">
         <v>32</v>
       </c>
       <c r="Y64" s="3" t="s">
         <v>253</v>
       </c>
-      <c r="AA64" s="3" t="s">
+      <c r="AA64" s="25" t="s">
         <v>27</v>
       </c>
     </row>
@@ -4000,10 +4056,10 @@
       <c r="Q65" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="S65" s="3" t="s">
+      <c r="S65" s="25" t="s">
         <v>341</v>
       </c>
-      <c r="U65" s="3" t="s">
+      <c r="U65" s="25" t="s">
         <v>27</v>
       </c>
       <c r="Y65" s="3" t="s">
@@ -4190,7 +4246,7 @@
       <c r="J90" s="19"/>
       <c r="L90" s="19"/>
       <c r="P90" s="19"/>
-      <c r="R90" s="19"/>
+      <c r="R90" s="23"/>
       <c r="T90" s="19"/>
       <c r="V90" s="19"/>
       <c r="X90" s="19"/>

--- a/ControlTowerSystemDatabaseSchema.xlsx
+++ b/ControlTowerSystemDatabaseSchema.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\thanthtet.myet\Documents\01_Willowglen\02_Workplace\ControlTower\ControlTower_Database\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B1BB555A-1DF3-4B62-8AA3-4B1D9D7B46F2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{71313D54-3A0D-4836-911F-EE8B942D3361}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" firstSheet="2" activeTab="2" xr2:uid="{EB4BDDAD-CEF0-4ED0-94FA-11B08D0D68E4}"/>
   </bookViews>
@@ -1294,7 +1294,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1355,6 +1355,10 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1980,8 +1984,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{964FE91A-D8DF-42C2-BA38-81E4FBFE8C98}">
   <dimension ref="A1:AI136"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="Y10" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="AA36" sqref="AA36"/>
+    <sheetView tabSelected="1" topLeftCell="L43" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="K10" sqref="K10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2363,7 +2367,7 @@
       <c r="G9" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="K9" t="s">
+      <c r="K9" s="27" t="s">
         <v>264</v>
       </c>
       <c r="M9" s="3" t="s">
@@ -2407,7 +2411,7 @@
         <v>236</v>
       </c>
       <c r="J10" s="19"/>
-      <c r="K10" s="3" t="s">
+      <c r="K10" s="28" t="s">
         <v>370</v>
       </c>
       <c r="L10" s="19"/>
@@ -2461,7 +2465,7 @@
       </c>
       <c r="H11" s="19"/>
       <c r="J11" s="19"/>
-      <c r="K11" s="16" t="s">
+      <c r="K11" s="28" t="s">
         <v>371</v>
       </c>
       <c r="L11" s="19"/>
@@ -2511,7 +2515,7 @@
       <c r="I12" s="16" t="s">
         <v>263</v>
       </c>
-      <c r="K12" s="16" t="s">
+      <c r="K12" s="28" t="s">
         <v>227</v>
       </c>
       <c r="M12" s="14" t="s">
@@ -2549,7 +2553,7 @@
       <c r="I13" s="3" t="s">
         <v>253</v>
       </c>
-      <c r="K13" s="3" t="s">
+      <c r="K13" s="28" t="s">
         <v>253</v>
       </c>
       <c r="M13" s="16" t="s">

--- a/ControlTowerSystemDatabaseSchema.xlsx
+++ b/ControlTowerSystemDatabaseSchema.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\thanthtet.myet\Documents\01_Willowglen\02_Workplace\ControlTower\ControlTower_Database\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{71313D54-3A0D-4836-911F-EE8B942D3361}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{32205899-DFD6-46A5-B44B-6F39038E2D0E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" firstSheet="2" activeTab="2" xr2:uid="{EB4BDDAD-CEF0-4ED0-94FA-11B08D0D68E4}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1090" uniqueCount="376">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1082" uniqueCount="368">
   <si>
     <t>Table Name</t>
   </si>
@@ -1020,36 +1020,24 @@
     <t>YesNoStatus</t>
   </si>
   <si>
-    <t>NetworkStatusID: (FK from NetworkStatus)</t>
-  </si>
-  <si>
     <t>YesNoStatusID: (FK from YesNoStatus)</t>
   </si>
   <si>
     <t>WillowlynxProcessStatus</t>
   </si>
   <si>
-    <t>WillowlynxProcessStatusID: (FK from WillowlynxProcessStatus)</t>
-  </si>
-  <si>
     <t>PMServerWillowlynxNetworkStatus</t>
   </si>
   <si>
     <t>WillowlynxNetworkStatus</t>
   </si>
   <si>
-    <t>WillowlynxNetworkStatusID: (FK from WillowlynxNetworkStatus)</t>
-  </si>
-  <si>
     <t>PMServerWillowlynxRTUStatus</t>
   </si>
   <si>
     <t>WillowlynxRTUStatus</t>
   </si>
   <si>
-    <t>WillowlynxRTUStatusID: (FK from WillowlynxRTUStatus)</t>
-  </si>
-  <si>
     <t>PMServerWillowlynxHistoricalTrend</t>
   </si>
   <si>
@@ -1068,18 +1056,9 @@
     <t>WillowlynxHistoricalReportStatus</t>
   </si>
   <si>
-    <t>WillowlynxHistoricalReportStatusID: (FK from WillowlynxHistoricalReportStatus)</t>
-  </si>
-  <si>
-    <t>WillowlynxHistoricalTrendStatusID: (FK from WillowlynxHistoricalTrendStatus)</t>
-  </si>
-  <si>
     <t>WillowlynxCCTVCameraStatus</t>
   </si>
   <si>
-    <t>WillowlynxCCTVCameraStatusID: (FK from WillowlynxCCTVCameraStatus)</t>
-  </si>
-  <si>
     <t>PMServerMonthlyDatabaseCreation</t>
   </si>
   <si>
@@ -1126,9 +1105,6 @@
   </si>
   <si>
     <t>FailOverStatus</t>
-  </si>
-  <si>
-    <t>FailOverStatusID: (FK from FailOverStatus)</t>
   </si>
   <si>
     <t>SortOrder: (Int, null)</t>
@@ -1294,7 +1270,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1344,9 +1320,6 @@
     <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1356,10 +1329,7 @@
     <xf numFmtId="0" fontId="1" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1982,10 +1952,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{964FE91A-D8DF-42C2-BA38-81E4FBFE8C98}">
-  <dimension ref="A1:AI136"/>
+  <dimension ref="A1:AI189"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="L43" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="K10" sqref="K10"/>
+    <sheetView tabSelected="1" topLeftCell="H1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="R1" sqref="R1:R1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2007,7 +1977,7 @@
     <col min="15" max="15" width="71" style="2" customWidth="1"/>
     <col min="16" max="16" width="5.44140625" style="19" customWidth="1"/>
     <col min="17" max="17" width="31" style="2" customWidth="1"/>
-    <col min="18" max="18" width="5.44140625" style="23" customWidth="1"/>
+    <col min="18" max="18" width="5.44140625" style="19" customWidth="1"/>
     <col min="19" max="19" width="73.21875" style="2" customWidth="1"/>
     <col min="20" max="20" width="3.77734375" style="19" customWidth="1"/>
     <col min="21" max="21" width="42.21875" style="2" customWidth="1"/>
@@ -2028,7 +1998,6 @@
     <row r="1" spans="1:32" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C1" s="21"/>
       <c r="M1" s="20"/>
-      <c r="R1" s="23"/>
     </row>
     <row r="2" spans="1:32" ht="19.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="14" t="s">
@@ -2061,20 +2030,17 @@
       <c r="S2" s="14" t="s">
         <v>318</v>
       </c>
-      <c r="U2" s="24" t="s">
-        <v>324</v>
-      </c>
       <c r="W2" s="14" t="s">
-        <v>342</v>
+        <v>335</v>
       </c>
       <c r="Y2" s="14" t="s">
-        <v>348</v>
+        <v>341</v>
       </c>
       <c r="AA2" s="14" t="s">
-        <v>365</v>
+        <v>357</v>
       </c>
       <c r="AC2" s="14" t="s">
-        <v>363</v>
+        <v>355</v>
       </c>
       <c r="AE2" s="14" t="s">
         <v>293</v>
@@ -2109,9 +2075,6 @@
         <v>60</v>
       </c>
       <c r="S3" s="16" t="s">
-        <v>60</v>
-      </c>
-      <c r="U3" s="25" t="s">
         <v>60</v>
       </c>
       <c r="W3" s="16" t="s">
@@ -2161,9 +2124,6 @@
       <c r="S4" s="16" t="s">
         <v>291</v>
       </c>
-      <c r="U4" s="25" t="s">
-        <v>32</v>
-      </c>
       <c r="W4" s="16" t="s">
         <v>291</v>
       </c>
@@ -2208,11 +2168,8 @@
       <c r="Q5" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="S5" s="25" t="s">
-        <v>325</v>
-      </c>
-      <c r="U5" s="25" t="s">
-        <v>27</v>
+      <c r="S5" s="3" t="s">
+        <v>322</v>
       </c>
       <c r="W5" s="3" t="s">
         <v>253</v>
@@ -2221,10 +2178,10 @@
         <v>253</v>
       </c>
       <c r="AA5" s="16" t="s">
-        <v>366</v>
+        <v>358</v>
       </c>
       <c r="AC5" s="3" t="s">
-        <v>362</v>
+        <v>354</v>
       </c>
       <c r="AE5" s="3" t="s">
         <v>27</v>
@@ -2249,13 +2206,12 @@
         <v>27</v>
       </c>
       <c r="O6" s="3" t="s">
-        <v>350</v>
+        <v>343</v>
       </c>
       <c r="Q6" s="1"/>
       <c r="S6" s="3" t="s">
-        <v>323</v>
-      </c>
-      <c r="U6" s="20"/>
+        <v>253</v>
+      </c>
       <c r="W6" s="3" t="s">
         <v>27</v>
       </c>
@@ -2263,13 +2219,13 @@
         <v>27</v>
       </c>
       <c r="AA6" s="3" t="s">
-        <v>350</v>
+        <v>343</v>
       </c>
       <c r="AC6" s="3" t="s">
-        <v>364</v>
+        <v>356</v>
       </c>
       <c r="AE6" s="20" t="s">
-        <v>334</v>
+        <v>330</v>
       </c>
     </row>
     <row r="7" spans="1:32" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
@@ -2298,7 +2254,7 @@
         <v>295</v>
       </c>
       <c r="S7" s="3" t="s">
-        <v>253</v>
+        <v>27</v>
       </c>
       <c r="W7" s="3" t="s">
         <v>29</v>
@@ -2310,7 +2266,7 @@
         <v>27</v>
       </c>
       <c r="AC7" s="3" t="s">
-        <v>359</v>
+        <v>351</v>
       </c>
     </row>
     <row r="8" spans="1:32" x14ac:dyDescent="0.3">
@@ -2339,7 +2295,7 @@
         <v>292</v>
       </c>
       <c r="S8" s="3" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="W8" s="3" t="s">
         <v>28</v>
@@ -2367,7 +2323,7 @@
       <c r="G9" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="K9" s="27" t="s">
+      <c r="K9" s="26" t="s">
         <v>264</v>
       </c>
       <c r="M9" s="3" t="s">
@@ -2377,7 +2333,7 @@
         <v>296</v>
       </c>
       <c r="S9" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="W9" s="3" t="s">
         <v>49</v>
@@ -2411,8 +2367,8 @@
         <v>236</v>
       </c>
       <c r="J10" s="19"/>
-      <c r="K10" s="28" t="s">
-        <v>370</v>
+      <c r="K10" s="16" t="s">
+        <v>362</v>
       </c>
       <c r="L10" s="19"/>
       <c r="M10" s="3" t="s">
@@ -2424,12 +2380,11 @@
       </c>
       <c r="P10" s="19"/>
       <c r="Q10" s="2"/>
-      <c r="R10" s="23"/>
+      <c r="R10" s="19"/>
       <c r="S10" s="3" t="s">
-        <v>28</v>
+        <v>49</v>
       </c>
       <c r="T10" s="19"/>
-      <c r="U10" s="2"/>
       <c r="V10" s="19"/>
       <c r="W10" s="3" t="s">
         <v>50</v>
@@ -2465,8 +2420,8 @@
       </c>
       <c r="H11" s="19"/>
       <c r="J11" s="19"/>
-      <c r="K11" s="28" t="s">
-        <v>371</v>
+      <c r="K11" s="16" t="s">
+        <v>363</v>
       </c>
       <c r="L11" s="19"/>
       <c r="M11" s="20"/>
@@ -2476,19 +2431,18 @@
       </c>
       <c r="P11" s="19"/>
       <c r="Q11" s="2"/>
-      <c r="R11" s="23"/>
+      <c r="R11" s="19"/>
       <c r="S11" s="3" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="T11" s="19"/>
-      <c r="U11" s="2"/>
       <c r="V11" s="19"/>
       <c r="W11" s="20" t="s">
-        <v>334</v>
+        <v>330</v>
       </c>
       <c r="X11" s="19"/>
       <c r="Y11" s="20" t="s">
-        <v>334</v>
+        <v>330</v>
       </c>
       <c r="Z11" s="19"/>
       <c r="AA11" s="3" t="s">
@@ -2515,7 +2469,7 @@
       <c r="I12" s="16" t="s">
         <v>263</v>
       </c>
-      <c r="K12" s="28" t="s">
+      <c r="K12" s="16" t="s">
         <v>227</v>
       </c>
       <c r="M12" s="14" t="s">
@@ -2524,17 +2478,15 @@
       <c r="O12" s="3" t="s">
         <v>253</v>
       </c>
-      <c r="S12" s="3" t="s">
-        <v>50</v>
-      </c>
+      <c r="S12" s="20"/>
       <c r="W12" s="14" t="s">
-        <v>343</v>
+        <v>336</v>
       </c>
       <c r="Y12" s="14" t="s">
-        <v>349</v>
+        <v>342</v>
       </c>
       <c r="AA12" s="20" t="s">
-        <v>334</v>
+        <v>330</v>
       </c>
     </row>
     <row r="13" spans="1:32" x14ac:dyDescent="0.3">
@@ -2553,7 +2505,7 @@
       <c r="I13" s="3" t="s">
         <v>253</v>
       </c>
-      <c r="K13" s="28" t="s">
+      <c r="K13" s="16" t="s">
         <v>253</v>
       </c>
       <c r="M13" s="16" t="s">
@@ -2562,8 +2514,9 @@
       <c r="O13" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="S13" s="20"/>
-      <c r="U13" s="20"/>
+      <c r="S13" s="14" t="s">
+        <v>324</v>
+      </c>
       <c r="W13" s="16" t="s">
         <v>60</v>
       </c>
@@ -2571,7 +2524,7 @@
         <v>60</v>
       </c>
       <c r="AA13" s="14" t="s">
-        <v>367</v>
+        <v>359</v>
       </c>
     </row>
     <row r="14" spans="1:32" x14ac:dyDescent="0.3">
@@ -2599,17 +2552,14 @@
       <c r="O14" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="S14" s="14" t="s">
-        <v>326</v>
-      </c>
-      <c r="U14" s="24" t="s">
-        <v>327</v>
+      <c r="S14" s="16" t="s">
+        <v>60</v>
       </c>
       <c r="W14" s="16" t="s">
+        <v>337</v>
+      </c>
+      <c r="Y14" s="16" t="s">
         <v>344</v>
-      </c>
-      <c r="Y14" s="16" t="s">
-        <v>351</v>
       </c>
       <c r="AA14" s="16" t="s">
         <v>60</v>
@@ -2633,16 +2583,13 @@
         <v>29</v>
       </c>
       <c r="M15" s="3" t="s">
-        <v>350</v>
+        <v>343</v>
       </c>
       <c r="O15" s="3" t="s">
         <v>28</v>
       </c>
       <c r="S15" s="16" t="s">
-        <v>60</v>
-      </c>
-      <c r="U15" s="25" t="s">
-        <v>60</v>
+        <v>291</v>
       </c>
       <c r="W15" s="3" t="s">
         <v>311</v>
@@ -2676,11 +2623,8 @@
       <c r="O16" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="S16" s="16" t="s">
-        <v>291</v>
-      </c>
-      <c r="U16" s="25" t="s">
-        <v>32</v>
+      <c r="S16" s="3" t="s">
+        <v>322</v>
       </c>
       <c r="W16" s="3" t="s">
         <v>292</v>
@@ -2710,17 +2654,14 @@
       <c r="O17" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="S17" s="25" t="s">
-        <v>328</v>
-      </c>
-      <c r="U17" s="25" t="s">
-        <v>27</v>
+      <c r="S17" s="3" t="s">
+        <v>253</v>
       </c>
       <c r="W17" s="3" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="Y17" s="3" t="s">
-        <v>350</v>
+        <v>343</v>
       </c>
       <c r="AA17" s="3" t="s">
         <v>27</v>
@@ -2747,9 +2688,8 @@
       </c>
       <c r="O18" s="19"/>
       <c r="S18" s="3" t="s">
-        <v>323</v>
-      </c>
-      <c r="U18" s="20"/>
+        <v>27</v>
+      </c>
       <c r="W18" s="3" t="s">
         <v>253</v>
       </c>
@@ -2781,7 +2721,7 @@
         <v>308</v>
       </c>
       <c r="S19" s="3" t="s">
-        <v>253</v>
+        <v>29</v>
       </c>
       <c r="W19" s="3" t="s">
         <v>27</v>
@@ -2823,12 +2763,11 @@
       </c>
       <c r="P20" s="19"/>
       <c r="Q20" s="2"/>
-      <c r="R20" s="23"/>
+      <c r="R20" s="19"/>
       <c r="S20" s="3" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="T20" s="19"/>
-      <c r="U20" s="15"/>
       <c r="V20" s="19"/>
       <c r="W20" s="3" t="s">
         <v>29</v>
@@ -2867,7 +2806,7 @@
         <v>291</v>
       </c>
       <c r="S21" s="3" t="s">
-        <v>29</v>
+        <v>49</v>
       </c>
       <c r="W21" s="3" t="s">
         <v>28</v>
@@ -2898,7 +2837,7 @@
         <v>253</v>
       </c>
       <c r="S22" s="3" t="s">
-        <v>28</v>
+        <v>50</v>
       </c>
       <c r="W22" s="3" t="s">
         <v>49</v>
@@ -2907,7 +2846,7 @@
         <v>49</v>
       </c>
       <c r="AA22" s="20" t="s">
-        <v>334</v>
+        <v>330</v>
       </c>
     </row>
     <row r="23" spans="1:35" x14ac:dyDescent="0.3">
@@ -2928,17 +2867,15 @@
       <c r="O23" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="S23" s="3" t="s">
-        <v>49</v>
-      </c>
+      <c r="S23" s="20"/>
       <c r="W23" s="3" t="s">
         <v>50</v>
       </c>
       <c r="Y23" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="AA23" s="26" t="s">
-        <v>374</v>
+      <c r="AA23" s="25" t="s">
+        <v>366</v>
       </c>
     </row>
     <row r="24" spans="1:35" x14ac:dyDescent="0.3">
@@ -2960,14 +2897,14 @@
       <c r="O24" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="S24" s="3" t="s">
-        <v>50</v>
+      <c r="S24" s="14" t="s">
+        <v>326</v>
       </c>
       <c r="W24" s="20" t="s">
-        <v>334</v>
+        <v>330</v>
       </c>
       <c r="Y24" s="20" t="s">
-        <v>334</v>
+        <v>330</v>
       </c>
       <c r="AA24" s="16" t="s">
         <v>60</v>
@@ -2992,16 +2929,17 @@
       <c r="O25" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="S25" s="20"/>
-      <c r="U25" s="20"/>
+      <c r="S25" s="16" t="s">
+        <v>60</v>
+      </c>
       <c r="W25" s="14" t="s">
+        <v>338</v>
+      </c>
+      <c r="Y25" s="14" t="s">
         <v>345</v>
       </c>
-      <c r="Y25" s="14" t="s">
-        <v>352</v>
-      </c>
       <c r="AA25" s="16" t="s">
-        <v>375</v>
+        <v>367</v>
       </c>
     </row>
     <row r="26" spans="1:35" x14ac:dyDescent="0.3">
@@ -3017,11 +2955,8 @@
       <c r="O26" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="S26" s="14" t="s">
-        <v>329</v>
-      </c>
-      <c r="U26" s="24" t="s">
-        <v>330</v>
+      <c r="S26" s="16" t="s">
+        <v>291</v>
       </c>
       <c r="W26" s="16" t="s">
         <v>60</v>
@@ -3052,11 +2987,8 @@
       <c r="O27" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="S27" s="16" t="s">
-        <v>60</v>
-      </c>
-      <c r="U27" s="25" t="s">
-        <v>60</v>
+      <c r="S27" s="3" t="s">
+        <v>322</v>
       </c>
       <c r="W27" s="16" t="s">
         <v>291</v>
@@ -3085,11 +3017,8 @@
         <v>27</v>
       </c>
       <c r="O28" s="20"/>
-      <c r="S28" s="16" t="s">
-        <v>291</v>
-      </c>
-      <c r="U28" s="25" t="s">
-        <v>32</v>
+      <c r="S28" s="3" t="s">
+        <v>253</v>
       </c>
       <c r="W28" s="3" t="s">
         <v>253</v>
@@ -3098,7 +3027,7 @@
         <v>253</v>
       </c>
       <c r="AA28" s="3" t="s">
-        <v>368</v>
+        <v>360</v>
       </c>
     </row>
     <row r="29" spans="1:35" x14ac:dyDescent="0.3">
@@ -3120,20 +3049,17 @@
       <c r="O29" s="14" t="s">
         <v>309</v>
       </c>
-      <c r="S29" s="25" t="s">
-        <v>331</v>
-      </c>
-      <c r="U29" s="25" t="s">
+      <c r="S29" s="3" t="s">
         <v>27</v>
       </c>
       <c r="W29" s="3" t="s">
-        <v>347</v>
+        <v>340</v>
       </c>
       <c r="Y29" s="3" t="s">
         <v>27</v>
       </c>
       <c r="AA29" s="3" t="s">
-        <v>369</v>
+        <v>361</v>
       </c>
     </row>
     <row r="30" spans="1:35" x14ac:dyDescent="0.3">
@@ -3157,9 +3083,8 @@
         <v>60</v>
       </c>
       <c r="S30" s="3" t="s">
-        <v>323</v>
-      </c>
-      <c r="U30" s="20"/>
+        <v>29</v>
+      </c>
       <c r="W30" s="3" t="s">
         <v>27</v>
       </c>
@@ -3190,7 +3115,7 @@
         <v>310</v>
       </c>
       <c r="S31" s="3" t="s">
-        <v>253</v>
+        <v>28</v>
       </c>
       <c r="W31" s="3" t="s">
         <v>29</v>
@@ -3222,7 +3147,7 @@
         <v>311</v>
       </c>
       <c r="S32" s="3" t="s">
-        <v>27</v>
+        <v>49</v>
       </c>
       <c r="W32" s="3" t="s">
         <v>28</v>
@@ -3252,7 +3177,7 @@
         <v>292</v>
       </c>
       <c r="S33" s="3" t="s">
-        <v>29</v>
+        <v>50</v>
       </c>
       <c r="W33" s="3" t="s">
         <v>49</v>
@@ -3283,14 +3208,12 @@
       <c r="O34" s="3" t="s">
         <v>312</v>
       </c>
-      <c r="S34" s="3" t="s">
-        <v>28</v>
-      </c>
+      <c r="S34" s="20"/>
       <c r="W34" s="3" t="s">
         <v>50</v>
       </c>
       <c r="Y34" s="20" t="s">
-        <v>334</v>
+        <v>330</v>
       </c>
       <c r="AA34" s="3" t="s">
         <v>49</v>
@@ -3311,16 +3234,16 @@
         <v>60</v>
       </c>
       <c r="O35" s="3" t="s">
-        <v>350</v>
-      </c>
-      <c r="S35" s="3" t="s">
-        <v>49</v>
+        <v>343</v>
+      </c>
+      <c r="S35" s="14" t="s">
+        <v>328</v>
       </c>
       <c r="W35" s="20" t="s">
-        <v>334</v>
+        <v>330</v>
       </c>
       <c r="Y35" s="14" t="s">
-        <v>353</v>
+        <v>346</v>
       </c>
       <c r="AA35" s="3" t="s">
         <v>50</v>
@@ -3344,17 +3267,17 @@
         <v>253</v>
       </c>
       <c r="Q36" s="15"/>
-      <c r="S36" s="3" t="s">
-        <v>50</v>
+      <c r="S36" s="16" t="s">
+        <v>60</v>
       </c>
       <c r="W36" s="14" t="s">
-        <v>373</v>
+        <v>365</v>
       </c>
       <c r="Y36" s="16" t="s">
         <v>60</v>
       </c>
       <c r="AA36" s="20" t="s">
-        <v>334</v>
+        <v>330</v>
       </c>
     </row>
     <row r="37" spans="1:32" x14ac:dyDescent="0.3">
@@ -3368,18 +3291,19 @@
         <v>250</v>
       </c>
       <c r="M37" s="3" t="s">
-        <v>350</v>
+        <v>343</v>
       </c>
       <c r="O37" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="S37" s="20"/>
-      <c r="U37" s="20"/>
+      <c r="S37" s="16" t="s">
+        <v>291</v>
+      </c>
       <c r="W37" s="16" t="s">
         <v>60</v>
       </c>
       <c r="Y37" s="16" t="s">
-        <v>354</v>
+        <v>347</v>
       </c>
     </row>
     <row r="38" spans="1:32" s="19" customFormat="1" x14ac:dyDescent="0.3">
@@ -3400,15 +3324,11 @@
         <v>29</v>
       </c>
       <c r="Q38" s="2"/>
-      <c r="R38" s="23"/>
-      <c r="S38" s="14" t="s">
-        <v>332</v>
-      </c>
-      <c r="U38" s="24" t="s">
-        <v>336</v>
+      <c r="S38" s="3" t="s">
+        <v>322</v>
       </c>
       <c r="W38" s="16" t="s">
-        <v>346</v>
+        <v>339</v>
       </c>
       <c r="Y38" s="3" t="s">
         <v>311</v>
@@ -3432,11 +3352,8 @@
       <c r="O39" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="S39" s="16" t="s">
-        <v>60</v>
-      </c>
-      <c r="U39" s="25" t="s">
-        <v>60</v>
+      <c r="S39" s="3" t="s">
+        <v>253</v>
       </c>
       <c r="W39" s="3" t="s">
         <v>311</v>
@@ -3470,21 +3387,18 @@
       </c>
       <c r="P40" s="19"/>
       <c r="Q40" s="2"/>
-      <c r="R40" s="23"/>
-      <c r="S40" s="16" t="s">
-        <v>291</v>
+      <c r="R40" s="19"/>
+      <c r="S40" s="3" t="s">
+        <v>27</v>
       </c>
       <c r="T40" s="19"/>
-      <c r="U40" s="25" t="s">
-        <v>32</v>
-      </c>
       <c r="V40" s="19"/>
       <c r="W40" s="3" t="s">
         <v>292</v>
       </c>
       <c r="X40" s="19"/>
       <c r="Y40" s="3" t="s">
-        <v>355</v>
+        <v>348</v>
       </c>
       <c r="Z40" s="19"/>
       <c r="AB40" s="19"/>
@@ -3507,17 +3421,14 @@
       <c r="O41" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="S41" s="25" t="s">
-        <v>339</v>
-      </c>
-      <c r="U41" s="25" t="s">
-        <v>27</v>
+      <c r="S41" s="3" t="s">
+        <v>29</v>
       </c>
       <c r="W41" s="3" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="Y41" s="3" t="s">
-        <v>350</v>
+        <v>343</v>
       </c>
     </row>
     <row r="42" spans="1:32" x14ac:dyDescent="0.3">
@@ -3535,9 +3446,8 @@
       </c>
       <c r="O42" s="20"/>
       <c r="S42" s="3" t="s">
-        <v>323</v>
-      </c>
-      <c r="U42" s="20"/>
+        <v>28</v>
+      </c>
       <c r="W42" s="3" t="s">
         <v>253</v>
       </c>
@@ -3562,7 +3472,7 @@
         <v>313</v>
       </c>
       <c r="S43" s="3" t="s">
-        <v>253</v>
+        <v>49</v>
       </c>
       <c r="W43" s="3" t="s">
         <v>27</v>
@@ -3586,7 +3496,7 @@
         <v>60</v>
       </c>
       <c r="S44" s="3" t="s">
-        <v>27</v>
+        <v>50</v>
       </c>
       <c r="W44" s="3" t="s">
         <v>29</v>
@@ -3606,9 +3516,7 @@
       <c r="O45" s="16" t="s">
         <v>310</v>
       </c>
-      <c r="S45" s="3" t="s">
-        <v>29</v>
-      </c>
+      <c r="S45" s="20"/>
       <c r="W45" s="3" t="s">
         <v>28</v>
       </c>
@@ -3627,8 +3535,8 @@
       <c r="O46" s="3" t="s">
         <v>311</v>
       </c>
-      <c r="S46" s="3" t="s">
-        <v>28</v>
+      <c r="S46" s="14" t="s">
+        <v>329</v>
       </c>
       <c r="W46" s="3" t="s">
         <v>49</v>
@@ -3650,8 +3558,8 @@
       <c r="O47" s="3" t="s">
         <v>292</v>
       </c>
-      <c r="S47" s="3" t="s">
-        <v>49</v>
+      <c r="S47" s="16" t="s">
+        <v>60</v>
       </c>
       <c r="W47" s="3" t="s">
         <v>50</v>
@@ -3673,14 +3581,14 @@
       <c r="O48" s="3" t="s">
         <v>314</v>
       </c>
-      <c r="S48" s="3" t="s">
-        <v>50</v>
+      <c r="S48" s="16" t="s">
+        <v>291</v>
       </c>
       <c r="W48" s="20" t="s">
-        <v>334</v>
+        <v>330</v>
       </c>
       <c r="Y48" s="20" t="s">
-        <v>334</v>
+        <v>330</v>
       </c>
     </row>
     <row r="49" spans="5:27" x14ac:dyDescent="0.3">
@@ -3696,13 +3604,14 @@
       <c r="O49" s="3" t="s">
         <v>315</v>
       </c>
-      <c r="S49" s="20"/>
-      <c r="U49" s="20"/>
+      <c r="S49" s="3" t="s">
+        <v>322</v>
+      </c>
       <c r="W49" s="14" t="s">
-        <v>372</v>
+        <v>364</v>
       </c>
       <c r="Y49" s="14" t="s">
-        <v>356</v>
+        <v>349</v>
       </c>
     </row>
     <row r="50" spans="5:27" x14ac:dyDescent="0.3">
@@ -3714,13 +3623,10 @@
         <v>27</v>
       </c>
       <c r="O50" s="3" t="s">
-        <v>350</v>
-      </c>
-      <c r="S50" s="14" t="s">
-        <v>333</v>
-      </c>
-      <c r="U50" s="24" t="s">
-        <v>337</v>
+        <v>343</v>
+      </c>
+      <c r="S50" s="3" t="s">
+        <v>253</v>
       </c>
       <c r="W50" s="16" t="s">
         <v>60</v>
@@ -3742,14 +3648,11 @@
       <c r="O51" s="3" t="s">
         <v>253</v>
       </c>
-      <c r="S51" s="16" t="s">
-        <v>60</v>
-      </c>
-      <c r="U51" s="25" t="s">
-        <v>60</v>
+      <c r="S51" s="3" t="s">
+        <v>27</v>
       </c>
       <c r="W51" s="16" t="s">
-        <v>346</v>
+        <v>339</v>
       </c>
       <c r="Y51" s="16" t="s">
         <v>291</v>
@@ -3766,11 +3669,8 @@
       <c r="O52" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="S52" s="16" t="s">
-        <v>291</v>
-      </c>
-      <c r="U52" s="25" t="s">
-        <v>32</v>
+      <c r="S52" s="3" t="s">
+        <v>29</v>
       </c>
       <c r="W52" s="3" t="s">
         <v>311</v>
@@ -3792,11 +3692,8 @@
       <c r="O53" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="S53" s="25" t="s">
-        <v>338</v>
-      </c>
-      <c r="U53" s="25" t="s">
-        <v>27</v>
+      <c r="S53" s="3" t="s">
+        <v>28</v>
       </c>
       <c r="W53" s="3" t="s">
         <v>292</v>
@@ -3819,11 +3716,10 @@
         <v>28</v>
       </c>
       <c r="S54" s="3" t="s">
-        <v>323</v>
-      </c>
-      <c r="U54" s="20"/>
+        <v>49</v>
+      </c>
       <c r="W54" s="3" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="Y54" s="3" t="s">
         <v>29</v>
@@ -3841,7 +3737,7 @@
         <v>49</v>
       </c>
       <c r="S55" s="3" t="s">
-        <v>253</v>
+        <v>50</v>
       </c>
       <c r="W55" s="3" t="s">
         <v>253</v>
@@ -3860,9 +3756,7 @@
       <c r="O56" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="S56" s="3" t="s">
-        <v>27</v>
-      </c>
+      <c r="S56" s="20"/>
       <c r="W56" s="3" t="s">
         <v>27</v>
       </c>
@@ -3879,8 +3773,8 @@
       </c>
       <c r="O57" s="20"/>
       <c r="Q57" s="19"/>
-      <c r="S57" s="3" t="s">
-        <v>29</v>
+      <c r="S57" s="14" t="s">
+        <v>331</v>
       </c>
       <c r="W57" s="3" t="s">
         <v>29</v>
@@ -3899,17 +3793,14 @@
       <c r="O58" s="14" t="s">
         <v>316</v>
       </c>
-      <c r="Q58" s="24" t="s">
-        <v>319</v>
-      </c>
-      <c r="S58" s="3" t="s">
-        <v>28</v>
+      <c r="S58" s="16" t="s">
+        <v>60</v>
       </c>
       <c r="W58" s="3" t="s">
         <v>28</v>
       </c>
       <c r="Y58" s="20" t="s">
-        <v>334</v>
+        <v>330</v>
       </c>
       <c r="AA58" s="20"/>
     </row>
@@ -3923,20 +3814,14 @@
       <c r="O59" s="16" t="s">
         <v>60</v>
       </c>
-      <c r="Q59" s="25" t="s">
-        <v>60</v>
-      </c>
-      <c r="S59" s="3" t="s">
-        <v>49</v>
+      <c r="S59" s="16" t="s">
+        <v>291</v>
       </c>
       <c r="W59" s="3" t="s">
         <v>49</v>
       </c>
       <c r="Y59" s="14" t="s">
-        <v>360</v>
-      </c>
-      <c r="AA59" s="24" t="s">
-        <v>357</v>
+        <v>352</v>
       </c>
     </row>
     <row r="60" spans="5:27" x14ac:dyDescent="0.3">
@@ -3947,11 +3832,8 @@
       <c r="O60" s="16" t="s">
         <v>291</v>
       </c>
-      <c r="Q60" s="25" t="s">
-        <v>32</v>
-      </c>
       <c r="S60" s="3" t="s">
-        <v>50</v>
+        <v>322</v>
       </c>
       <c r="W60" s="3" t="s">
         <v>50</v>
@@ -3959,28 +3841,20 @@
       <c r="Y60" s="16" t="s">
         <v>60</v>
       </c>
-      <c r="AA60" s="25" t="s">
-        <v>60</v>
-      </c>
     </row>
     <row r="61" spans="5:27" x14ac:dyDescent="0.3">
       <c r="I61" s="19"/>
-      <c r="O61" s="25" t="s">
+      <c r="O61" s="3" t="s">
         <v>322</v>
       </c>
-      <c r="Q61" s="25" t="s">
-        <v>27</v>
-      </c>
-      <c r="S61" s="20"/>
-      <c r="U61" s="20"/>
+      <c r="S61" s="3" t="s">
+        <v>253</v>
+      </c>
       <c r="W61" s="20" t="s">
-        <v>334</v>
+        <v>330</v>
       </c>
       <c r="Y61" s="16" t="s">
-        <v>361</v>
-      </c>
-      <c r="AA61" s="25" t="s">
-        <v>32</v>
+        <v>353</v>
       </c>
     </row>
     <row r="62" spans="5:27" x14ac:dyDescent="0.3">
@@ -3988,20 +3862,13 @@
         <v>255</v>
       </c>
       <c r="O62" s="3" t="s">
-        <v>323</v>
-      </c>
-      <c r="Q62" s="19"/>
-      <c r="S62" s="14" t="s">
-        <v>335</v>
-      </c>
-      <c r="U62" s="24" t="s">
-        <v>340</v>
-      </c>
-      <c r="Y62" s="25" t="s">
-        <v>358</v>
-      </c>
-      <c r="AA62" s="25" t="s">
-        <v>362</v>
+        <v>317</v>
+      </c>
+      <c r="S62" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="Y62" s="3" t="s">
+        <v>322</v>
       </c>
     </row>
     <row r="63" spans="5:27" x14ac:dyDescent="0.3">
@@ -4009,22 +3876,16 @@
         <v>60</v>
       </c>
       <c r="O63" s="3" t="s">
-        <v>317</v>
+        <v>253</v>
       </c>
       <c r="Q63" s="14" t="s">
         <v>321</v>
       </c>
-      <c r="S63" s="16" t="s">
-        <v>60</v>
-      </c>
-      <c r="U63" s="25" t="s">
-        <v>60</v>
+      <c r="S63" s="3" t="s">
+        <v>29</v>
       </c>
       <c r="Y63" s="3" t="s">
-        <v>323</v>
-      </c>
-      <c r="AA63" s="25" t="s">
-        <v>359</v>
+        <v>253</v>
       </c>
     </row>
     <row r="64" spans="5:27" x14ac:dyDescent="0.3">
@@ -4032,21 +3893,15 @@
         <v>282</v>
       </c>
       <c r="O64" s="3" t="s">
-        <v>253</v>
+        <v>27</v>
       </c>
       <c r="Q64" s="16" t="s">
         <v>60</v>
       </c>
-      <c r="S64" s="16" t="s">
-        <v>291</v>
-      </c>
-      <c r="U64" s="25" t="s">
-        <v>32</v>
+      <c r="S64" s="3" t="s">
+        <v>28</v>
       </c>
       <c r="Y64" s="3" t="s">
-        <v>253</v>
-      </c>
-      <c r="AA64" s="25" t="s">
         <v>27</v>
       </c>
     </row>
@@ -4055,38 +3910,33 @@
         <v>253</v>
       </c>
       <c r="O65" s="3" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="Q65" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="S65" s="25" t="s">
-        <v>341</v>
-      </c>
-      <c r="U65" s="25" t="s">
-        <v>27</v>
+      <c r="S65" s="3" t="s">
+        <v>49</v>
       </c>
       <c r="Y65" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="AA65" s="20"/>
+        <v>29</v>
+      </c>
     </row>
     <row r="66" spans="9:27" x14ac:dyDescent="0.3">
       <c r="I66" s="5" t="s">
         <v>278</v>
       </c>
       <c r="O66" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="Q66" s="3" t="s">
         <v>27</v>
       </c>
       <c r="S66" s="3" t="s">
-        <v>323</v>
-      </c>
-      <c r="U66" s="20"/>
+        <v>50</v>
+      </c>
       <c r="Y66" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="67" spans="9:27" x14ac:dyDescent="0.3">
@@ -4094,14 +3944,14 @@
         <v>279</v>
       </c>
       <c r="O67" s="3" t="s">
-        <v>28</v>
+        <v>49</v>
       </c>
       <c r="Q67" s="19"/>
-      <c r="S67" s="3" t="s">
-        <v>253</v>
+      <c r="S67" s="20" t="s">
+        <v>330</v>
       </c>
       <c r="Y67" s="3" t="s">
-        <v>28</v>
+        <v>49</v>
       </c>
     </row>
     <row r="68" spans="9:27" x14ac:dyDescent="0.3">
@@ -4109,39 +3959,24 @@
         <v>27</v>
       </c>
       <c r="O68" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="S68" s="3" t="s">
-        <v>27</v>
+        <v>50</v>
       </c>
       <c r="Y68" s="3" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="69" spans="9:27" x14ac:dyDescent="0.3">
       <c r="I69" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="O69" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="S69" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="Y69" s="3" t="s">
-        <v>50</v>
+      <c r="O69" s="20"/>
+      <c r="Y69" s="20" t="s">
+        <v>330</v>
       </c>
     </row>
     <row r="70" spans="9:27" x14ac:dyDescent="0.3">
       <c r="I70" s="3" t="s">
         <v>28</v>
-      </c>
-      <c r="O70" s="20"/>
-      <c r="S70" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="Y70" s="20" t="s">
-        <v>334</v>
       </c>
       <c r="AA70" s="20"/>
     </row>
@@ -4149,23 +3984,14 @@
       <c r="I71" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="S71" s="3" t="s">
-        <v>49</v>
-      </c>
     </row>
     <row r="72" spans="9:27" x14ac:dyDescent="0.3">
       <c r="I72" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="S72" s="3" t="s">
-        <v>50</v>
-      </c>
     </row>
     <row r="73" spans="9:27" x14ac:dyDescent="0.3">
       <c r="I73" s="19"/>
-      <c r="S73" s="20" t="s">
-        <v>334</v>
-      </c>
     </row>
     <row r="74" spans="9:27" x14ac:dyDescent="0.3">
       <c r="I74" s="14" t="s">
@@ -4202,55 +4028,51 @@
         <v>260</v>
       </c>
     </row>
-    <row r="81" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="81" spans="9:32" x14ac:dyDescent="0.3">
       <c r="I81" s="3" t="s">
         <v>261</v>
       </c>
     </row>
-    <row r="82" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="82" spans="9:32" x14ac:dyDescent="0.3">
       <c r="I82" s="3" t="s">
         <v>262</v>
       </c>
     </row>
-    <row r="83" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="83" spans="9:32" x14ac:dyDescent="0.3">
       <c r="I83" s="3" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="84" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="84" spans="9:32" x14ac:dyDescent="0.3">
       <c r="I84" s="3" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="85" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="85" spans="9:32" x14ac:dyDescent="0.3">
       <c r="I85" s="3" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="86" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="86" spans="9:32" x14ac:dyDescent="0.3">
       <c r="I86" s="3" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="87" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="87" spans="9:32" x14ac:dyDescent="0.3">
       <c r="I87" s="3" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="88" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="88" spans="9:32" x14ac:dyDescent="0.3">
       <c r="I88" s="19" t="s">
         <v>280</v>
       </c>
     </row>
-    <row r="90" spans="1:32" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B90" s="19"/>
-      <c r="D90" s="19"/>
-      <c r="F90" s="19"/>
-      <c r="H90" s="19"/>
+    <row r="90" spans="9:32" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="J90" s="19"/>
       <c r="L90" s="19"/>
       <c r="P90" s="19"/>
-      <c r="R90" s="23"/>
+      <c r="R90" s="19"/>
       <c r="T90" s="19"/>
       <c r="V90" s="19"/>
       <c r="X90" s="19"/>
@@ -4258,489 +4080,638 @@
       <c r="AD90" s="19"/>
       <c r="AF90" s="19"/>
     </row>
-    <row r="91" spans="1:32" x14ac:dyDescent="0.3">
-      <c r="A91" s="9" t="s">
+    <row r="124" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A124" s="1"/>
+      <c r="C124" s="1"/>
+      <c r="E124" s="1"/>
+      <c r="G124" s="1"/>
+      <c r="I124" s="1"/>
+      <c r="K124" s="1"/>
+    </row>
+    <row r="125" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A125" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="C91" s="9" t="s">
+      <c r="C125" s="9" t="s">
         <v>45</v>
       </c>
-      <c r="E91" s="9" t="s">
+      <c r="E125" s="9" t="s">
         <v>46</v>
       </c>
-      <c r="G91" s="9" t="s">
+      <c r="G125" s="9" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="92" spans="1:32" x14ac:dyDescent="0.3">
-      <c r="A92" s="10" t="s">
-        <v>60</v>
-      </c>
-      <c r="C92" s="10" t="s">
-        <v>60</v>
-      </c>
-      <c r="E92" s="10" t="s">
-        <v>60</v>
-      </c>
-      <c r="G92" s="10" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="93" spans="1:32" x14ac:dyDescent="0.3">
-      <c r="A93" s="10" t="s">
+      <c r="I125" s="23" t="s">
+        <v>323</v>
+      </c>
+      <c r="K125" s="23" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="126" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A126" s="10" t="s">
+        <v>60</v>
+      </c>
+      <c r="C126" s="10" t="s">
+        <v>60</v>
+      </c>
+      <c r="E126" s="10" t="s">
+        <v>60</v>
+      </c>
+      <c r="G126" s="10" t="s">
+        <v>60</v>
+      </c>
+      <c r="I126" s="24" t="s">
+        <v>60</v>
+      </c>
+      <c r="K126" s="24" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="127" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A127" s="10" t="s">
         <v>39</v>
       </c>
-      <c r="C93" s="10" t="s">
+      <c r="C127" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="E93" s="10" t="s">
+      <c r="E127" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="G93" s="10" t="s">
+      <c r="G127" s="10" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="94" spans="1:32" x14ac:dyDescent="0.3">
-      <c r="A94" s="10" t="s">
+      <c r="I127" s="24" t="s">
+        <v>32</v>
+      </c>
+      <c r="K127" s="24" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="128" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A128" s="10" t="s">
         <v>42</v>
       </c>
-      <c r="C94" s="10" t="s">
-        <v>27</v>
-      </c>
-      <c r="E94" s="10" t="s">
-        <v>27</v>
-      </c>
-      <c r="G94" s="10" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="95" spans="1:32" x14ac:dyDescent="0.3">
-      <c r="A95" s="10" t="s">
+      <c r="C128" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="E128" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="G128" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="I128" s="24" t="s">
+        <v>27</v>
+      </c>
+      <c r="K128" s="24" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="129" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A129" s="10" t="s">
         <v>43</v>
       </c>
-      <c r="C95" s="10" t="s">
-        <v>29</v>
-      </c>
-      <c r="E95" s="10" t="s">
-        <v>29</v>
-      </c>
-      <c r="G95" s="10" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="96" spans="1:32" x14ac:dyDescent="0.3">
-      <c r="A96" s="10" t="s">
-        <v>27</v>
-      </c>
-      <c r="C96" s="10" t="s">
-        <v>28</v>
-      </c>
-      <c r="E96" s="10" t="s">
-        <v>28</v>
-      </c>
-      <c r="G96" s="10" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="97" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A97" s="10" t="s">
-        <v>29</v>
-      </c>
-      <c r="C97" s="10" t="s">
+      <c r="C129" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="E129" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="G129" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="I129" s="20"/>
+      <c r="K129" s="19"/>
+    </row>
+    <row r="130" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A130" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="C130" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="E130" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="G130" s="10" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="131" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A131" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="C131" s="10" t="s">
         <v>49</v>
       </c>
-      <c r="E97" s="10" t="s">
+      <c r="E131" s="10" t="s">
         <v>49</v>
       </c>
-      <c r="G97" s="10" t="s">
+      <c r="G131" s="10" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="98" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A98" s="10" t="s">
-        <v>28</v>
-      </c>
-      <c r="C98" s="10" t="s">
+    <row r="132" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A132" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="C132" s="10" t="s">
         <v>50</v>
       </c>
-      <c r="E98" s="10" t="s">
+      <c r="E132" s="10" t="s">
         <v>50</v>
       </c>
-      <c r="G98" s="10" t="s">
+      <c r="G132" s="10" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="99" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A99" s="10" t="s">
+    <row r="133" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A133" s="10" t="s">
         <v>49</v>
       </c>
-      <c r="E99" s="9"/>
-      <c r="G99" s="9"/>
-    </row>
-    <row r="100" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A100" s="10" t="s">
+      <c r="E133" s="9"/>
+      <c r="G133" s="9"/>
+    </row>
+    <row r="134" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A134" s="10" t="s">
         <v>50</v>
       </c>
-      <c r="C100" s="6"/>
-      <c r="D100" s="18"/>
-      <c r="E100" s="6"/>
-      <c r="F100" s="18"/>
-      <c r="G100" s="6"/>
-    </row>
-    <row r="101" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A101" s="6"/>
-      <c r="C101" s="22" t="s">
+      <c r="C134" s="6"/>
+      <c r="D134" s="18"/>
+      <c r="E134" s="6"/>
+      <c r="F134" s="18"/>
+      <c r="G134" s="6"/>
+      <c r="K134" s="19"/>
+    </row>
+    <row r="135" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A135" s="6"/>
+      <c r="C135" s="22" t="s">
         <v>30</v>
       </c>
-      <c r="D101" s="9"/>
-      <c r="E101" s="22" t="s">
+      <c r="D135" s="9"/>
+      <c r="E135" s="22" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="102" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A102" s="9" t="s">
+      <c r="K135" s="23" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="136" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A136" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="C102" s="10" t="s">
-        <v>60</v>
-      </c>
-      <c r="D102" s="9"/>
-      <c r="E102" s="10" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="103" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A103" s="10" t="s">
-        <v>60</v>
-      </c>
-      <c r="C103" s="10" t="s">
+      <c r="C136" s="10" t="s">
+        <v>60</v>
+      </c>
+      <c r="D136" s="9"/>
+      <c r="E136" s="10" t="s">
+        <v>60</v>
+      </c>
+      <c r="I136" s="20"/>
+      <c r="K136" s="24" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="137" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A137" s="10" t="s">
+        <v>60</v>
+      </c>
+      <c r="C137" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="D103" s="9"/>
-      <c r="E103" s="10" t="s">
+      <c r="D137" s="9"/>
+      <c r="E137" s="10" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="104" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A104" s="10" t="s">
+      <c r="I137" s="23" t="s">
+        <v>325</v>
+      </c>
+      <c r="K137" s="24" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="138" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A138" s="10" t="s">
         <v>39</v>
       </c>
-      <c r="C104" s="10" t="s">
-        <v>27</v>
-      </c>
-      <c r="D104" s="9"/>
-      <c r="E104" s="10" t="s">
+      <c r="C138" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="D138" s="9"/>
+      <c r="E138" s="10" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="105" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A105" s="10" t="s">
+      <c r="I138" s="24" t="s">
+        <v>60</v>
+      </c>
+      <c r="K138" s="24" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="139" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A139" s="10" t="s">
         <v>42</v>
       </c>
-      <c r="C105" s="10" t="s">
-        <v>29</v>
-      </c>
-      <c r="D105" s="9"/>
-      <c r="E105" s="10" t="s">
+      <c r="C139" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="D139" s="9"/>
+      <c r="E139" s="10" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="106" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A106" s="10" t="s">
+      <c r="I139" s="24" t="s">
+        <v>32</v>
+      </c>
+      <c r="K139" s="24" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="140" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A140" s="10" t="s">
         <v>43</v>
       </c>
-      <c r="C106" s="10" t="s">
-        <v>28</v>
-      </c>
-      <c r="D106" s="9"/>
-      <c r="E106" s="10" t="s">
+      <c r="C140" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="D140" s="9"/>
+      <c r="E140" s="10" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="107" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A107" s="10" t="s">
-        <v>27</v>
-      </c>
-      <c r="C107" s="10" t="s">
+      <c r="I140" s="24" t="s">
+        <v>27</v>
+      </c>
+      <c r="K140" s="24" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="141" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A141" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="C141" s="10" t="s">
         <v>49</v>
       </c>
-      <c r="D107" s="9"/>
-      <c r="E107" s="10" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="108" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A108" s="10" t="s">
-        <v>29</v>
-      </c>
-      <c r="C108" s="10" t="s">
+      <c r="D141" s="9"/>
+      <c r="E141" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="I141" s="20"/>
+      <c r="K141" s="20"/>
+    </row>
+    <row r="142" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A142" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="C142" s="10" t="s">
         <v>50</v>
       </c>
-      <c r="D108" s="9"/>
-      <c r="E108" s="10" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="109" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A109" s="10" t="s">
-        <v>28</v>
-      </c>
-      <c r="C109" s="17"/>
-      <c r="D109" s="9"/>
-      <c r="E109" s="10" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="110" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A110" s="10" t="s">
+      <c r="D142" s="9"/>
+      <c r="E142" s="10" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="143" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A143" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="C143" s="17"/>
+      <c r="D143" s="9"/>
+      <c r="E143" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="I143" s="15"/>
+    </row>
+    <row r="144" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A144" s="10" t="s">
         <v>49</v>
       </c>
-      <c r="C110" s="22" t="s">
+      <c r="C144" s="22" t="s">
         <v>31</v>
       </c>
-      <c r="D110" s="9"/>
-      <c r="E110" s="10" t="s">
+      <c r="D144" s="9"/>
+      <c r="E144" s="10" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="111" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A111" s="10" t="s">
+    <row r="145" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A145" s="10" t="s">
         <v>50</v>
       </c>
-      <c r="C111" s="10" t="s">
-        <v>60</v>
-      </c>
-      <c r="D111" s="9"/>
-      <c r="E111" s="10" t="s">
+      <c r="C145" s="10" t="s">
+        <v>60</v>
+      </c>
+      <c r="D145" s="9"/>
+      <c r="E145" s="10" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="112" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A112" s="17"/>
-      <c r="C112" s="10" t="s">
+    <row r="146" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A146" s="17"/>
+      <c r="C146" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="D112" s="9"/>
-      <c r="E112" s="9"/>
-    </row>
-    <row r="113" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A113" s="6"/>
-      <c r="C113" s="10" t="s">
-        <v>27</v>
-      </c>
-      <c r="D113" s="9"/>
-      <c r="E113" s="9"/>
-    </row>
-    <row r="114" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A114" s="9" t="s">
+      <c r="D146" s="9"/>
+      <c r="E146" s="9"/>
+    </row>
+    <row r="147" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A147" s="6"/>
+      <c r="C147" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="D147" s="9"/>
+      <c r="E147" s="9"/>
+    </row>
+    <row r="148" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A148" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="C114" s="10" t="s">
-        <v>29</v>
-      </c>
-      <c r="D114" s="9"/>
-      <c r="E114" s="9"/>
-    </row>
-    <row r="115" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A115" s="10" t="s">
-        <v>60</v>
-      </c>
-      <c r="C115" s="10" t="s">
-        <v>28</v>
-      </c>
-      <c r="D115" s="9"/>
-      <c r="E115" s="9"/>
-    </row>
-    <row r="116" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A116" s="10" t="s">
+      <c r="C148" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="D148" s="9"/>
+      <c r="E148" s="9"/>
+      <c r="I148" s="20"/>
+    </row>
+    <row r="149" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A149" s="10" t="s">
+        <v>60</v>
+      </c>
+      <c r="C149" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="D149" s="9"/>
+      <c r="E149" s="9"/>
+      <c r="I149" s="23" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="150" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A150" s="10" t="s">
         <v>39</v>
       </c>
-      <c r="C116" s="10" t="s">
+      <c r="C150" s="10" t="s">
         <v>49</v>
       </c>
-      <c r="D116" s="9"/>
-      <c r="E116" s="9"/>
-    </row>
-    <row r="117" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A117" s="10" t="s">
+      <c r="D150" s="9"/>
+      <c r="E150" s="9"/>
+      <c r="I150" s="24" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="151" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A151" s="10" t="s">
         <v>42</v>
       </c>
-      <c r="C117" s="10" t="s">
+      <c r="C151" s="10" t="s">
         <v>50</v>
       </c>
-      <c r="D117" s="9"/>
-      <c r="E117" s="9"/>
-    </row>
-    <row r="118" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A118" s="10" t="s">
+      <c r="D151" s="9"/>
+      <c r="E151" s="9"/>
+      <c r="I151" s="24" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="152" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A152" s="10" t="s">
         <v>43</v>
       </c>
-      <c r="C118" s="9"/>
-      <c r="D118" s="9"/>
-      <c r="E118" s="9"/>
-    </row>
-    <row r="119" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A119" s="10" t="s">
-        <v>27</v>
-      </c>
-      <c r="C119" s="22" t="s">
+      <c r="C152" s="9"/>
+      <c r="D152" s="9"/>
+      <c r="E152" s="9"/>
+      <c r="I152" s="24" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="153" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A153" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="C153" s="22" t="s">
         <v>33</v>
       </c>
-      <c r="D119" s="9"/>
-      <c r="E119" s="9"/>
-    </row>
-    <row r="120" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A120" s="10" t="s">
-        <v>29</v>
-      </c>
-      <c r="C120" s="10" t="s">
-        <v>60</v>
-      </c>
-      <c r="D120" s="9"/>
-      <c r="E120" s="9"/>
-    </row>
-    <row r="121" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A121" s="10" t="s">
-        <v>28</v>
-      </c>
-      <c r="C121" s="10" t="s">
+      <c r="D153" s="9"/>
+      <c r="E153" s="9"/>
+      <c r="I153" s="20"/>
+    </row>
+    <row r="154" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A154" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="C154" s="10" t="s">
+        <v>60</v>
+      </c>
+      <c r="D154" s="9"/>
+      <c r="E154" s="9"/>
+    </row>
+    <row r="155" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A155" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="C155" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="D121" s="9"/>
-      <c r="E121" s="9"/>
-    </row>
-    <row r="122" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A122" s="10" t="s">
+      <c r="D155" s="9"/>
+      <c r="E155" s="9"/>
+    </row>
+    <row r="156" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A156" s="10" t="s">
         <v>49</v>
       </c>
-      <c r="C122" s="10" t="s">
-        <v>27</v>
-      </c>
-      <c r="D122" s="9"/>
-      <c r="E122" s="9"/>
-    </row>
-    <row r="123" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A123" s="10" t="s">
+      <c r="C156" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="D156" s="9"/>
+      <c r="E156" s="9"/>
+    </row>
+    <row r="157" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A157" s="10" t="s">
         <v>50</v>
       </c>
-      <c r="C123" s="10" t="s">
-        <v>29</v>
-      </c>
-      <c r="D123" s="9"/>
-      <c r="E123" s="9"/>
-    </row>
-    <row r="124" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A124" s="6"/>
-      <c r="C124" s="10" t="s">
-        <v>28</v>
-      </c>
-      <c r="D124" s="9"/>
-      <c r="E124" s="9"/>
-    </row>
-    <row r="125" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A125" s="9" t="s">
+      <c r="C157" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="D157" s="9"/>
+      <c r="E157" s="9"/>
+    </row>
+    <row r="158" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A158" s="6"/>
+      <c r="C158" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="D158" s="9"/>
+      <c r="E158" s="9"/>
+    </row>
+    <row r="159" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A159" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="C125" s="10" t="s">
+      <c r="C159" s="10" t="s">
         <v>49</v>
       </c>
-      <c r="D125" s="9"/>
-      <c r="E125" s="9"/>
-    </row>
-    <row r="126" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A126" s="10" t="s">
-        <v>60</v>
-      </c>
-      <c r="C126" s="10" t="s">
+      <c r="D159" s="9"/>
+      <c r="E159" s="9"/>
+    </row>
+    <row r="160" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A160" s="10" t="s">
+        <v>60</v>
+      </c>
+      <c r="C160" s="10" t="s">
         <v>50</v>
       </c>
-      <c r="D126" s="9"/>
-      <c r="E126" s="9"/>
-    </row>
-    <row r="127" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A127" s="10" t="s">
+      <c r="D160" s="9"/>
+      <c r="E160" s="9"/>
+      <c r="I160" s="20"/>
+    </row>
+    <row r="161" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A161" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="C127" s="9"/>
-      <c r="D127" s="9"/>
-      <c r="E127" s="9"/>
-    </row>
-    <row r="128" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A128" s="10" t="s">
-        <v>27</v>
-      </c>
-      <c r="C128" s="22" t="s">
+      <c r="C161" s="9"/>
+      <c r="D161" s="9"/>
+      <c r="E161" s="9"/>
+      <c r="I161" s="23" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="162" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A162" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="C162" s="22" t="s">
         <v>34</v>
       </c>
-      <c r="D128" s="9"/>
-      <c r="E128" s="9"/>
-    </row>
-    <row r="129" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A129" s="10" t="s">
-        <v>29</v>
-      </c>
-      <c r="C129" s="10" t="s">
-        <v>60</v>
-      </c>
-      <c r="D129" s="9"/>
-      <c r="E129" s="9"/>
-    </row>
-    <row r="130" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A130" s="10" t="s">
-        <v>28</v>
-      </c>
-      <c r="C130" s="10" t="s">
+      <c r="D162" s="9"/>
+      <c r="E162" s="9"/>
+      <c r="I162" s="24" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="163" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A163" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="C163" s="10" t="s">
+        <v>60</v>
+      </c>
+      <c r="D163" s="9"/>
+      <c r="E163" s="9"/>
+      <c r="I163" s="24" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="164" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A164" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="C164" s="10" t="s">
         <v>35</v>
       </c>
-      <c r="D130" s="9"/>
-      <c r="E130" s="9"/>
-    </row>
-    <row r="131" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A131" s="10" t="s">
+      <c r="D164" s="9"/>
+      <c r="E164" s="9"/>
+      <c r="I164" s="24" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="165" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A165" s="10" t="s">
         <v>49</v>
       </c>
-      <c r="C131" s="10" t="s">
-        <v>27</v>
-      </c>
-      <c r="D131" s="9"/>
-      <c r="E131" s="9"/>
-    </row>
-    <row r="132" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A132" s="10" t="s">
+      <c r="C165" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="D165" s="9"/>
+      <c r="E165" s="9"/>
+      <c r="I165" s="20"/>
+    </row>
+    <row r="166" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A166" s="10" t="s">
         <v>50</v>
       </c>
-      <c r="C132" s="10" t="s">
-        <v>29</v>
-      </c>
-      <c r="D132" s="9"/>
-      <c r="E132" s="9"/>
-    </row>
-    <row r="133" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A133" s="6"/>
-      <c r="C133" s="10" t="s">
-        <v>28</v>
-      </c>
-      <c r="D133" s="9"/>
-      <c r="E133" s="9"/>
-    </row>
-    <row r="134" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="C134" s="10" t="s">
+      <c r="C166" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="D166" s="9"/>
+      <c r="E166" s="9"/>
+    </row>
+    <row r="167" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A167" s="6"/>
+      <c r="C167" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="D167" s="9"/>
+      <c r="E167" s="9"/>
+    </row>
+    <row r="168" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="C168" s="10" t="s">
         <v>49</v>
       </c>
-      <c r="D134" s="9"/>
-      <c r="E134" s="9"/>
-    </row>
-    <row r="135" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="C135" s="10" t="s">
+      <c r="D168" s="9"/>
+      <c r="E168" s="9"/>
+    </row>
+    <row r="169" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="C169" s="10" t="s">
         <v>50</v>
       </c>
-      <c r="D135" s="9"/>
-      <c r="E135" s="9"/>
-    </row>
-    <row r="136" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="C136" s="9"/>
-      <c r="D136" s="9"/>
-      <c r="E136" s="9"/>
+      <c r="D169" s="9"/>
+      <c r="E169" s="9"/>
+    </row>
+    <row r="170" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="C170" s="9"/>
+      <c r="D170" s="9"/>
+      <c r="E170" s="9"/>
+    </row>
+    <row r="172" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="I172" s="20"/>
+    </row>
+    <row r="173" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="I173" s="23" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="174" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="I174" s="24" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="175" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="I175" s="24" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="176" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="I176" s="24" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="177" spans="9:9" x14ac:dyDescent="0.3">
+      <c r="I177" s="20"/>
+    </row>
+    <row r="184" spans="9:9" x14ac:dyDescent="0.3">
+      <c r="I184" s="20"/>
+    </row>
+    <row r="185" spans="9:9" x14ac:dyDescent="0.3">
+      <c r="I185" s="23" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="186" spans="9:9" x14ac:dyDescent="0.3">
+      <c r="I186" s="24" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="187" spans="9:9" x14ac:dyDescent="0.3">
+      <c r="I187" s="24" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="188" spans="9:9" x14ac:dyDescent="0.3">
+      <c r="I188" s="24" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="189" spans="9:9" x14ac:dyDescent="0.3">
+      <c r="I189" s="20"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/ControlTowerSystemDatabaseSchema.xlsx
+++ b/ControlTowerSystemDatabaseSchema.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\thanthtet.myet\Documents\01_Willowglen\02_Workplace\ControlTower\ControlTower_Database\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{32205899-DFD6-46A5-B44B-6F39038E2D0E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB6C5827-6FBD-4786-8A6D-4A3A63BD8418}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" firstSheet="2" activeTab="2" xr2:uid="{EB4BDDAD-CEF0-4ED0-94FA-11B08D0D68E4}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="2" activeTab="2" xr2:uid="{EB4BDDAD-CEF0-4ED0-94FA-11B08D0D68E4}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1952,10 +1952,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{964FE91A-D8DF-42C2-BA38-81E4FBFE8C98}">
-  <dimension ref="A1:AI189"/>
+  <dimension ref="A1:AI180"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="R1" sqref="R1:R1048576"/>
+    <sheetView tabSelected="1" topLeftCell="A99" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="A115" sqref="A115:K186"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4080,334 +4080,434 @@
       <c r="AD90" s="19"/>
       <c r="AF90" s="19"/>
     </row>
+    <row r="115" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A115" s="1"/>
+      <c r="C115" s="1"/>
+      <c r="E115" s="1"/>
+      <c r="G115" s="1"/>
+      <c r="I115" s="1"/>
+      <c r="K115" s="1"/>
+    </row>
+    <row r="116" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A116" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="C116" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="E116" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="G116" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="I116" s="23" t="s">
+        <v>323</v>
+      </c>
+      <c r="K116" s="23" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="117" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A117" s="10" t="s">
+        <v>60</v>
+      </c>
+      <c r="C117" s="10" t="s">
+        <v>60</v>
+      </c>
+      <c r="E117" s="10" t="s">
+        <v>60</v>
+      </c>
+      <c r="G117" s="10" t="s">
+        <v>60</v>
+      </c>
+      <c r="I117" s="24" t="s">
+        <v>60</v>
+      </c>
+      <c r="K117" s="24" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="118" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A118" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="C118" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="E118" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="G118" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="I118" s="24" t="s">
+        <v>32</v>
+      </c>
+      <c r="K118" s="24" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="119" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A119" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="C119" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="E119" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="G119" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="I119" s="24" t="s">
+        <v>27</v>
+      </c>
+      <c r="K119" s="24" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="120" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A120" s="10" t="s">
+        <v>43</v>
+      </c>
+      <c r="C120" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="E120" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="G120" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="I120" s="20"/>
+      <c r="K120" s="19"/>
+    </row>
+    <row r="121" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A121" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="C121" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="E121" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="G121" s="10" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="122" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A122" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="C122" s="10" t="s">
+        <v>49</v>
+      </c>
+      <c r="E122" s="10" t="s">
+        <v>49</v>
+      </c>
+      <c r="G122" s="10" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="123" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A123" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="C123" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="E123" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="G123" s="10" t="s">
+        <v>50</v>
+      </c>
+    </row>
     <row r="124" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A124" s="1"/>
-      <c r="C124" s="1"/>
-      <c r="E124" s="1"/>
-      <c r="G124" s="1"/>
-      <c r="I124" s="1"/>
-      <c r="K124" s="1"/>
+      <c r="A124" s="10" t="s">
+        <v>49</v>
+      </c>
+      <c r="E124" s="9"/>
+      <c r="G124" s="9"/>
     </row>
     <row r="125" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A125" s="9" t="s">
-        <v>40</v>
-      </c>
-      <c r="C125" s="9" t="s">
-        <v>45</v>
-      </c>
-      <c r="E125" s="9" t="s">
-        <v>46</v>
-      </c>
-      <c r="G125" s="9" t="s">
-        <v>47</v>
-      </c>
-      <c r="I125" s="23" t="s">
-        <v>323</v>
-      </c>
-      <c r="K125" s="23" t="s">
-        <v>319</v>
-      </c>
+      <c r="A125" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="C125" s="6"/>
+      <c r="D125" s="18"/>
+      <c r="E125" s="6"/>
+      <c r="F125" s="18"/>
+      <c r="G125" s="6"/>
+      <c r="K125" s="19"/>
     </row>
     <row r="126" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A126" s="10" t="s">
-        <v>60</v>
-      </c>
-      <c r="C126" s="10" t="s">
-        <v>60</v>
-      </c>
-      <c r="E126" s="10" t="s">
-        <v>60</v>
-      </c>
-      <c r="G126" s="10" t="s">
-        <v>60</v>
-      </c>
-      <c r="I126" s="24" t="s">
-        <v>60</v>
-      </c>
-      <c r="K126" s="24" t="s">
-        <v>60</v>
+      <c r="A126" s="6"/>
+      <c r="C126" s="22" t="s">
+        <v>30</v>
+      </c>
+      <c r="D126" s="9"/>
+      <c r="E126" s="22" t="s">
+        <v>54</v>
+      </c>
+      <c r="K126" s="23" t="s">
+        <v>350</v>
       </c>
     </row>
     <row r="127" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A127" s="10" t="s">
-        <v>39</v>
+      <c r="A127" s="9" t="s">
+        <v>41</v>
       </c>
       <c r="C127" s="10" t="s">
-        <v>32</v>
-      </c>
+        <v>60</v>
+      </c>
+      <c r="D127" s="9"/>
       <c r="E127" s="10" t="s">
-        <v>32</v>
-      </c>
-      <c r="G127" s="10" t="s">
-        <v>32</v>
-      </c>
-      <c r="I127" s="24" t="s">
-        <v>32</v>
-      </c>
+        <v>60</v>
+      </c>
+      <c r="I127" s="20"/>
       <c r="K127" s="24" t="s">
-        <v>32</v>
+        <v>60</v>
       </c>
     </row>
     <row r="128" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A128" s="10" t="s">
-        <v>42</v>
+        <v>60</v>
       </c>
       <c r="C128" s="10" t="s">
-        <v>27</v>
-      </c>
+        <v>26</v>
+      </c>
+      <c r="D128" s="9"/>
       <c r="E128" s="10" t="s">
-        <v>27</v>
-      </c>
-      <c r="G128" s="10" t="s">
-        <v>27</v>
-      </c>
-      <c r="I128" s="24" t="s">
-        <v>27</v>
+        <v>55</v>
+      </c>
+      <c r="I128" s="23" t="s">
+        <v>325</v>
       </c>
       <c r="K128" s="24" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
     </row>
     <row r="129" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A129" s="10" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="C129" s="10" t="s">
-        <v>29</v>
-      </c>
+        <v>27</v>
+      </c>
+      <c r="D129" s="9"/>
       <c r="E129" s="10" t="s">
-        <v>29</v>
-      </c>
-      <c r="G129" s="10" t="s">
-        <v>29</v>
-      </c>
-      <c r="I129" s="20"/>
-      <c r="K129" s="19"/>
+        <v>39</v>
+      </c>
+      <c r="I129" s="24" t="s">
+        <v>60</v>
+      </c>
+      <c r="K129" s="24" t="s">
+        <v>354</v>
+      </c>
     </row>
     <row r="130" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A130" s="10" t="s">
-        <v>27</v>
+        <v>42</v>
       </c>
       <c r="C130" s="10" t="s">
-        <v>28</v>
-      </c>
+        <v>29</v>
+      </c>
+      <c r="D130" s="9"/>
       <c r="E130" s="10" t="s">
-        <v>28</v>
-      </c>
-      <c r="G130" s="10" t="s">
-        <v>28</v>
+        <v>42</v>
+      </c>
+      <c r="I130" s="24" t="s">
+        <v>32</v>
+      </c>
+      <c r="K130" s="24" t="s">
+        <v>351</v>
       </c>
     </row>
     <row r="131" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A131" s="10" t="s">
-        <v>29</v>
+        <v>43</v>
       </c>
       <c r="C131" s="10" t="s">
-        <v>49</v>
-      </c>
+        <v>28</v>
+      </c>
+      <c r="D131" s="9"/>
       <c r="E131" s="10" t="s">
-        <v>49</v>
-      </c>
-      <c r="G131" s="10" t="s">
-        <v>49</v>
+        <v>43</v>
+      </c>
+      <c r="I131" s="24" t="s">
+        <v>27</v>
+      </c>
+      <c r="K131" s="24" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="132" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A132" s="10" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C132" s="10" t="s">
-        <v>50</v>
-      </c>
+        <v>49</v>
+      </c>
+      <c r="D132" s="9"/>
       <c r="E132" s="10" t="s">
-        <v>50</v>
-      </c>
-      <c r="G132" s="10" t="s">
-        <v>50</v>
-      </c>
+        <v>27</v>
+      </c>
+      <c r="I132" s="20"/>
+      <c r="K132" s="20"/>
     </row>
     <row r="133" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A133" s="10" t="s">
-        <v>49</v>
-      </c>
-      <c r="E133" s="9"/>
-      <c r="G133" s="9"/>
+        <v>29</v>
+      </c>
+      <c r="C133" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="D133" s="9"/>
+      <c r="E133" s="10" t="s">
+        <v>29</v>
+      </c>
     </row>
     <row r="134" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A134" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="C134" s="17"/>
+      <c r="D134" s="9"/>
+      <c r="E134" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="I134" s="15"/>
+    </row>
+    <row r="135" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A135" s="10" t="s">
+        <v>49</v>
+      </c>
+      <c r="C135" s="22" t="s">
+        <v>31</v>
+      </c>
+      <c r="D135" s="9"/>
+      <c r="E135" s="10" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="136" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A136" s="10" t="s">
         <v>50</v>
-      </c>
-      <c r="C134" s="6"/>
-      <c r="D134" s="18"/>
-      <c r="E134" s="6"/>
-      <c r="F134" s="18"/>
-      <c r="G134" s="6"/>
-      <c r="K134" s="19"/>
-    </row>
-    <row r="135" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A135" s="6"/>
-      <c r="C135" s="22" t="s">
-        <v>30</v>
-      </c>
-      <c r="D135" s="9"/>
-      <c r="E135" s="22" t="s">
-        <v>54</v>
-      </c>
-      <c r="K135" s="23" t="s">
-        <v>350</v>
-      </c>
-    </row>
-    <row r="136" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A136" s="9" t="s">
-        <v>41</v>
       </c>
       <c r="C136" s="10" t="s">
         <v>60</v>
       </c>
       <c r="D136" s="9"/>
       <c r="E136" s="10" t="s">
-        <v>60</v>
-      </c>
-      <c r="I136" s="20"/>
-      <c r="K136" s="24" t="s">
-        <v>60</v>
+        <v>50</v>
       </c>
     </row>
     <row r="137" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A137" s="10" t="s">
-        <v>60</v>
-      </c>
+      <c r="A137" s="17"/>
       <c r="C137" s="10" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="D137" s="9"/>
-      <c r="E137" s="10" t="s">
-        <v>55</v>
-      </c>
-      <c r="I137" s="23" t="s">
-        <v>325</v>
-      </c>
-      <c r="K137" s="24" t="s">
-        <v>32</v>
-      </c>
+      <c r="E137" s="9"/>
     </row>
     <row r="138" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A138" s="10" t="s">
-        <v>39</v>
-      </c>
+      <c r="A138" s="6"/>
       <c r="C138" s="10" t="s">
         <v>27</v>
       </c>
       <c r="D138" s="9"/>
-      <c r="E138" s="10" t="s">
-        <v>39</v>
-      </c>
-      <c r="I138" s="24" t="s">
-        <v>60</v>
-      </c>
-      <c r="K138" s="24" t="s">
-        <v>354</v>
-      </c>
+      <c r="E138" s="9"/>
     </row>
     <row r="139" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A139" s="10" t="s">
-        <v>42</v>
+      <c r="A139" s="9" t="s">
+        <v>38</v>
       </c>
       <c r="C139" s="10" t="s">
         <v>29</v>
       </c>
       <c r="D139" s="9"/>
-      <c r="E139" s="10" t="s">
-        <v>42</v>
-      </c>
-      <c r="I139" s="24" t="s">
-        <v>32</v>
-      </c>
-      <c r="K139" s="24" t="s">
-        <v>351</v>
-      </c>
+      <c r="E139" s="9"/>
+      <c r="I139" s="20"/>
     </row>
     <row r="140" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A140" s="10" t="s">
-        <v>43</v>
+        <v>60</v>
       </c>
       <c r="C140" s="10" t="s">
         <v>28</v>
       </c>
       <c r="D140" s="9"/>
-      <c r="E140" s="10" t="s">
-        <v>43</v>
-      </c>
-      <c r="I140" s="24" t="s">
-        <v>27</v>
-      </c>
-      <c r="K140" s="24" t="s">
-        <v>27</v>
+      <c r="E140" s="9"/>
+      <c r="I140" s="23" t="s">
+        <v>327</v>
       </c>
     </row>
     <row r="141" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A141" s="10" t="s">
-        <v>27</v>
+        <v>39</v>
       </c>
       <c r="C141" s="10" t="s">
         <v>49</v>
       </c>
       <c r="D141" s="9"/>
-      <c r="E141" s="10" t="s">
-        <v>27</v>
-      </c>
-      <c r="I141" s="20"/>
-      <c r="K141" s="20"/>
+      <c r="E141" s="9"/>
+      <c r="I141" s="24" t="s">
+        <v>60</v>
+      </c>
     </row>
     <row r="142" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A142" s="10" t="s">
-        <v>29</v>
+        <v>42</v>
       </c>
       <c r="C142" s="10" t="s">
         <v>50</v>
       </c>
       <c r="D142" s="9"/>
-      <c r="E142" s="10" t="s">
-        <v>29</v>
+      <c r="E142" s="9"/>
+      <c r="I142" s="24" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="143" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A143" s="10" t="s">
-        <v>28</v>
-      </c>
-      <c r="C143" s="17"/>
+        <v>43</v>
+      </c>
+      <c r="C143" s="9"/>
       <c r="D143" s="9"/>
-      <c r="E143" s="10" t="s">
-        <v>28</v>
-      </c>
-      <c r="I143" s="15"/>
+      <c r="E143" s="9"/>
+      <c r="I143" s="24" t="s">
+        <v>27</v>
+      </c>
     </row>
     <row r="144" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A144" s="10" t="s">
-        <v>49</v>
+        <v>27</v>
       </c>
       <c r="C144" s="22" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="D144" s="9"/>
-      <c r="E144" s="10" t="s">
-        <v>49</v>
-      </c>
+      <c r="E144" s="9"/>
+      <c r="I144" s="20"/>
     </row>
     <row r="145" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A145" s="10" t="s">
-        <v>50</v>
+        <v>29</v>
       </c>
       <c r="C145" s="10" t="s">
         <v>60</v>
       </c>
       <c r="D145" s="9"/>
-      <c r="E145" s="10" t="s">
-        <v>50</v>
-      </c>
+      <c r="E145" s="9"/>
     </row>
     <row r="146" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A146" s="17"/>
+      <c r="A146" s="10" t="s">
+        <v>28</v>
+      </c>
       <c r="C146" s="10" t="s">
         <v>32</v>
       </c>
@@ -4415,7 +4515,9 @@
       <c r="E146" s="9"/>
     </row>
     <row r="147" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A147" s="6"/>
+      <c r="A147" s="10" t="s">
+        <v>49</v>
+      </c>
       <c r="C147" s="10" t="s">
         <v>27</v>
       </c>
@@ -4423,64 +4525,53 @@
       <c r="E147" s="9"/>
     </row>
     <row r="148" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A148" s="9" t="s">
-        <v>38</v>
+      <c r="A148" s="10" t="s">
+        <v>50</v>
       </c>
       <c r="C148" s="10" t="s">
         <v>29</v>
       </c>
       <c r="D148" s="9"/>
       <c r="E148" s="9"/>
-      <c r="I148" s="20"/>
     </row>
     <row r="149" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A149" s="10" t="s">
-        <v>60</v>
-      </c>
+      <c r="A149" s="6"/>
       <c r="C149" s="10" t="s">
         <v>28</v>
       </c>
       <c r="D149" s="9"/>
       <c r="E149" s="9"/>
-      <c r="I149" s="23" t="s">
-        <v>327</v>
-      </c>
     </row>
     <row r="150" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A150" s="10" t="s">
-        <v>39</v>
+      <c r="A150" s="9" t="s">
+        <v>36</v>
       </c>
       <c r="C150" s="10" t="s">
         <v>49</v>
       </c>
       <c r="D150" s="9"/>
       <c r="E150" s="9"/>
-      <c r="I150" s="24" t="s">
-        <v>60</v>
-      </c>
     </row>
     <row r="151" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A151" s="10" t="s">
-        <v>42</v>
+        <v>60</v>
       </c>
       <c r="C151" s="10" t="s">
         <v>50</v>
       </c>
       <c r="D151" s="9"/>
       <c r="E151" s="9"/>
-      <c r="I151" s="24" t="s">
-        <v>32</v>
-      </c>
+      <c r="I151" s="20"/>
     </row>
     <row r="152" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A152" s="10" t="s">
-        <v>43</v>
+        <v>32</v>
       </c>
       <c r="C152" s="9"/>
       <c r="D152" s="9"/>
       <c r="E152" s="9"/>
-      <c r="I152" s="24" t="s">
-        <v>27</v>
+      <c r="I152" s="23" t="s">
+        <v>332</v>
       </c>
     </row>
     <row r="153" spans="1:9" x14ac:dyDescent="0.3">
@@ -4488,11 +4579,13 @@
         <v>27</v>
       </c>
       <c r="C153" s="22" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D153" s="9"/>
       <c r="E153" s="9"/>
-      <c r="I153" s="20"/>
+      <c r="I153" s="24" t="s">
+        <v>60</v>
+      </c>
     </row>
     <row r="154" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A154" s="10" t="s">
@@ -4503,16 +4596,22 @@
       </c>
       <c r="D154" s="9"/>
       <c r="E154" s="9"/>
+      <c r="I154" s="24" t="s">
+        <v>32</v>
+      </c>
     </row>
     <row r="155" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A155" s="10" t="s">
         <v>28</v>
       </c>
       <c r="C155" s="10" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="D155" s="9"/>
       <c r="E155" s="9"/>
+      <c r="I155" s="24" t="s">
+        <v>27</v>
+      </c>
     </row>
     <row r="156" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A156" s="10" t="s">
@@ -4523,6 +4622,7 @@
       </c>
       <c r="D156" s="9"/>
       <c r="E156" s="9"/>
+      <c r="I156" s="20"/>
     </row>
     <row r="157" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A157" s="10" t="s">
@@ -4543,9 +4643,6 @@
       <c r="E158" s="9"/>
     </row>
     <row r="159" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A159" s="9" t="s">
-        <v>36</v>
-      </c>
       <c r="C159" s="10" t="s">
         <v>49</v>
       </c>
@@ -4553,165 +4650,68 @@
       <c r="E159" s="9"/>
     </row>
     <row r="160" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A160" s="10" t="s">
-        <v>60</v>
-      </c>
       <c r="C160" s="10" t="s">
         <v>50</v>
       </c>
       <c r="D160" s="9"/>
       <c r="E160" s="9"/>
-      <c r="I160" s="20"/>
-    </row>
-    <row r="161" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A161" s="10" t="s">
-        <v>32</v>
-      </c>
+    </row>
+    <row r="161" spans="3:9" x14ac:dyDescent="0.3">
       <c r="C161" s="9"/>
       <c r="D161" s="9"/>
       <c r="E161" s="9"/>
-      <c r="I161" s="23" t="s">
-        <v>332</v>
-      </c>
-    </row>
-    <row r="162" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A162" s="10" t="s">
-        <v>27</v>
-      </c>
-      <c r="C162" s="22" t="s">
-        <v>34</v>
-      </c>
-      <c r="D162" s="9"/>
-      <c r="E162" s="9"/>
-      <c r="I162" s="24" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="163" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A163" s="10" t="s">
-        <v>29</v>
-      </c>
-      <c r="C163" s="10" t="s">
-        <v>60</v>
-      </c>
-      <c r="D163" s="9"/>
-      <c r="E163" s="9"/>
-      <c r="I163" s="24" t="s">
+    </row>
+    <row r="163" spans="3:9" x14ac:dyDescent="0.3">
+      <c r="I163" s="20"/>
+    </row>
+    <row r="164" spans="3:9" x14ac:dyDescent="0.3">
+      <c r="I164" s="23" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="165" spans="3:9" x14ac:dyDescent="0.3">
+      <c r="I165" s="24" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="166" spans="3:9" x14ac:dyDescent="0.3">
+      <c r="I166" s="24" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="164" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A164" s="10" t="s">
-        <v>28</v>
-      </c>
-      <c r="C164" s="10" t="s">
-        <v>35</v>
-      </c>
-      <c r="D164" s="9"/>
-      <c r="E164" s="9"/>
-      <c r="I164" s="24" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="165" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A165" s="10" t="s">
-        <v>49</v>
-      </c>
-      <c r="C165" s="10" t="s">
-        <v>27</v>
-      </c>
-      <c r="D165" s="9"/>
-      <c r="E165" s="9"/>
-      <c r="I165" s="20"/>
-    </row>
-    <row r="166" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A166" s="10" t="s">
-        <v>50</v>
-      </c>
-      <c r="C166" s="10" t="s">
-        <v>29</v>
-      </c>
-      <c r="D166" s="9"/>
-      <c r="E166" s="9"/>
-    </row>
-    <row r="167" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A167" s="6"/>
-      <c r="C167" s="10" t="s">
-        <v>28</v>
-      </c>
-      <c r="D167" s="9"/>
-      <c r="E167" s="9"/>
-    </row>
-    <row r="168" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="C168" s="10" t="s">
-        <v>49</v>
-      </c>
-      <c r="D168" s="9"/>
-      <c r="E168" s="9"/>
-    </row>
-    <row r="169" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="C169" s="10" t="s">
-        <v>50</v>
-      </c>
-      <c r="D169" s="9"/>
-      <c r="E169" s="9"/>
-    </row>
-    <row r="170" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="C170" s="9"/>
-      <c r="D170" s="9"/>
-      <c r="E170" s="9"/>
-    </row>
-    <row r="172" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="I172" s="20"/>
-    </row>
-    <row r="173" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="I173" s="23" t="s">
-        <v>333</v>
-      </c>
-    </row>
-    <row r="174" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="I174" s="24" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="175" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="I175" s="24" t="s">
+    <row r="167" spans="3:9" x14ac:dyDescent="0.3">
+      <c r="I167" s="24" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="168" spans="3:9" x14ac:dyDescent="0.3">
+      <c r="I168" s="20"/>
+    </row>
+    <row r="175" spans="3:9" x14ac:dyDescent="0.3">
+      <c r="I175" s="20"/>
+    </row>
+    <row r="176" spans="3:9" x14ac:dyDescent="0.3">
+      <c r="I176" s="23" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="177" spans="9:9" x14ac:dyDescent="0.3">
+      <c r="I177" s="24" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="178" spans="9:9" x14ac:dyDescent="0.3">
+      <c r="I178" s="24" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="176" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="I176" s="24" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="177" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I177" s="20"/>
-    </row>
-    <row r="184" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I184" s="20"/>
-    </row>
-    <row r="185" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I185" s="23" t="s">
-        <v>334</v>
-      </c>
-    </row>
-    <row r="186" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I186" s="24" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="187" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I187" s="24" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="188" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I188" s="24" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="189" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I189" s="20"/>
+    <row r="179" spans="9:9" x14ac:dyDescent="0.3">
+      <c r="I179" s="24" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="180" spans="9:9" x14ac:dyDescent="0.3">
+      <c r="I180" s="20"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/ControlTowerSystemDatabaseSchema.xlsx
+++ b/ControlTowerSystemDatabaseSchema.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\thanthtet.myet\Documents\01_Willowglen\02_Workplace\ControlTower\ControlTower_Database\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB6C5827-6FBD-4786-8A6D-4A3A63BD8418}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{00E4A257-249F-4E08-8886-CC73EFCDA5B9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="2" activeTab="2" xr2:uid="{EB4BDDAD-CEF0-4ED0-94FA-11B08D0D68E4}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1082" uniqueCount="368">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1089" uniqueCount="372">
   <si>
     <t>Table Name</t>
   </si>
@@ -1156,6 +1156,18 @@
   </si>
   <si>
     <t>PMServerSoftwarePatchSummaryID: (FK from PMServerSoftwarePatchSummary)</t>
+  </si>
+  <si>
+    <t>PMServerReportFormPDFRequestLog</t>
+  </si>
+  <si>
+    <t>RequestedBy:(ID from User Table)</t>
+  </si>
+  <si>
+    <t>CreatedDate:(DateTime)</t>
+  </si>
+  <si>
+    <t>RequestedDate:(DateTime)</t>
   </si>
 </sst>
 </file>
@@ -1954,8 +1966,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{964FE91A-D8DF-42C2-BA38-81E4FBFE8C98}">
   <dimension ref="A1:AI180"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A99" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="A115" sqref="A115:K186"/>
+    <sheetView tabSelected="1" topLeftCell="AB1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="AH18" sqref="AH18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1992,14 +2004,16 @@
     <col min="30" max="30" width="3.77734375" style="19" customWidth="1"/>
     <col min="31" max="31" width="42.6640625" style="2" customWidth="1"/>
     <col min="32" max="32" width="3.77734375" style="19" customWidth="1"/>
-    <col min="33" max="16384" width="8.88671875" style="2"/>
+    <col min="33" max="33" width="51.88671875" style="2" customWidth="1"/>
+    <col min="34" max="34" width="3.77734375" style="19" customWidth="1"/>
+    <col min="35" max="16384" width="8.88671875" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:32" s="19" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:34" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C1" s="21"/>
       <c r="M1" s="20"/>
     </row>
-    <row r="2" spans="1:32" ht="19.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:34" ht="19.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="14" t="s">
         <v>87</v>
       </c>
@@ -2045,8 +2059,11 @@
       <c r="AE2" s="14" t="s">
         <v>293</v>
       </c>
-    </row>
-    <row r="3" spans="1:32" ht="27" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="AG2" s="14" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="3" spans="1:34" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
         <v>60</v>
       </c>
@@ -2092,8 +2109,11 @@
       <c r="AE3" s="16" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="4" spans="1:32" ht="19.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="AG3" s="16" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="4" spans="1:34" ht="19.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
         <v>32</v>
       </c>
@@ -2139,8 +2159,11 @@
       <c r="AE4" s="3" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="5" spans="1:32" ht="23.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="AG4" s="16" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="5" spans="1:34" ht="23.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="3" t="s">
         <v>27</v>
       </c>
@@ -2186,8 +2209,11 @@
       <c r="AE5" s="3" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="6" spans="1:32" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="AG5" s="3" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="6" spans="1:34" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="18"/>
       <c r="C6" s="3" t="s">
         <v>270</v>
@@ -2227,8 +2253,11 @@
       <c r="AE6" s="20" t="s">
         <v>330</v>
       </c>
-    </row>
-    <row r="7" spans="1:32" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="AG6" s="3" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="7" spans="1:34" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="14" t="s">
         <v>90</v>
       </c>
@@ -2268,8 +2297,11 @@
       <c r="AC7" s="3" t="s">
         <v>351</v>
       </c>
-    </row>
-    <row r="8" spans="1:32" x14ac:dyDescent="0.3">
+      <c r="AG7" s="3" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="8" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A8" s="3" t="s">
         <v>60</v>
       </c>
@@ -2309,8 +2341,11 @@
       <c r="AC8" s="3" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="9" spans="1:32" x14ac:dyDescent="0.3">
+      <c r="AG8" s="20" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="9" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A9" s="3" t="s">
         <v>231</v>
       </c>
@@ -2346,7 +2381,7 @@
       </c>
       <c r="AC9" s="20"/>
     </row>
-    <row r="10" spans="1:32" s="15" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:34" s="15" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A10" s="3" t="s">
         <v>32</v>
       </c>
@@ -2401,8 +2436,9 @@
       <c r="AC10" s="2"/>
       <c r="AD10" s="19"/>
       <c r="AF10" s="19"/>
-    </row>
-    <row r="11" spans="1:32" s="15" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="AH10" s="19"/>
+    </row>
+    <row r="11" spans="1:34" s="15" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A11" s="3" t="s">
         <v>89</v>
       </c>
@@ -2452,8 +2488,9 @@
       <c r="AC11" s="2"/>
       <c r="AD11" s="19"/>
       <c r="AF11" s="19"/>
-    </row>
-    <row r="12" spans="1:32" x14ac:dyDescent="0.3">
+      <c r="AH11" s="19"/>
+    </row>
+    <row r="12" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A12" s="3" t="s">
         <v>91</v>
       </c>
@@ -2489,7 +2526,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="13" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A13" s="3" t="s">
         <v>92</v>
       </c>
@@ -2527,7 +2564,7 @@
         <v>359</v>
       </c>
     </row>
-    <row r="14" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A14" s="3" t="s">
         <v>27</v>
       </c>
@@ -2565,7 +2602,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="15" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A15" s="3" t="s">
         <v>88</v>
       </c>
@@ -2601,7 +2638,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="16" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A16" s="3" t="s">
         <v>86</v>
       </c>
@@ -2786,7 +2823,7 @@
       <c r="AE20" s="15"/>
       <c r="AF20" s="19"/>
       <c r="AG20" s="15"/>
-      <c r="AH20" s="15"/>
+      <c r="AH20" s="19"/>
       <c r="AI20" s="15"/>
     </row>
     <row r="21" spans="1:35" x14ac:dyDescent="0.3">
@@ -3159,7 +3196,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="33" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A33" s="3" t="s">
         <v>49</v>
       </c>
@@ -3189,7 +3226,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="34" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A34" s="3" t="s">
         <v>50</v>
       </c>
@@ -3219,7 +3256,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="35" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A35" s="18"/>
       <c r="C35" s="3" t="s">
         <v>50</v>
@@ -3249,7 +3286,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="36" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A36" s="14" t="s">
         <v>52</v>
       </c>
@@ -3280,7 +3317,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="37" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A37" s="3" t="s">
         <v>60</v>
       </c>
@@ -3306,7 +3343,7 @@
         <v>347</v>
       </c>
     </row>
-    <row r="38" spans="1:32" s="19" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:34" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A38" s="3" t="s">
         <v>32</v>
       </c>
@@ -3336,7 +3373,7 @@
       <c r="AA38" s="15"/>
       <c r="AC38" s="15"/>
     </row>
-    <row r="39" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A39" s="3" t="s">
         <v>27</v>
       </c>
@@ -3362,7 +3399,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="40" spans="1:32" s="15" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:34" s="15" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A40" s="3" t="s">
         <v>29</v>
       </c>
@@ -3404,8 +3441,9 @@
       <c r="AB40" s="19"/>
       <c r="AD40" s="19"/>
       <c r="AF40" s="19"/>
-    </row>
-    <row r="41" spans="1:32" x14ac:dyDescent="0.3">
+      <c r="AH40" s="19"/>
+    </row>
+    <row r="41" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A41" s="3" t="s">
         <v>28</v>
       </c>
@@ -3431,7 +3469,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="42" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A42" s="3" t="s">
         <v>49</v>
       </c>
@@ -3455,7 +3493,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="43" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A43" s="3" t="s">
         <v>50</v>
       </c>
@@ -3481,7 +3519,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="44" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A44" s="18"/>
       <c r="E44" s="5" t="s">
         <v>163</v>
@@ -3505,7 +3543,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="45" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:34" x14ac:dyDescent="0.3">
       <c r="E45" s="5" t="s">
         <v>146</v>
       </c>
@@ -3524,7 +3562,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="46" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:34" x14ac:dyDescent="0.3">
       <c r="E46" s="5" t="s">
         <v>147</v>
       </c>
@@ -3545,7 +3583,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="47" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:34" x14ac:dyDescent="0.3">
       <c r="E47" s="5" t="s">
         <v>105</v>
       </c>
@@ -3568,7 +3606,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="48" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:34" x14ac:dyDescent="0.3">
       <c r="E48" s="5" t="s">
         <v>143</v>
       </c>
@@ -4028,47 +4066,47 @@
         <v>260</v>
       </c>
     </row>
-    <row r="81" spans="9:32" x14ac:dyDescent="0.3">
+    <row r="81" spans="9:34" x14ac:dyDescent="0.3">
       <c r="I81" s="3" t="s">
         <v>261</v>
       </c>
     </row>
-    <row r="82" spans="9:32" x14ac:dyDescent="0.3">
+    <row r="82" spans="9:34" x14ac:dyDescent="0.3">
       <c r="I82" s="3" t="s">
         <v>262</v>
       </c>
     </row>
-    <row r="83" spans="9:32" x14ac:dyDescent="0.3">
+    <row r="83" spans="9:34" x14ac:dyDescent="0.3">
       <c r="I83" s="3" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="84" spans="9:32" x14ac:dyDescent="0.3">
+    <row r="84" spans="9:34" x14ac:dyDescent="0.3">
       <c r="I84" s="3" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="85" spans="9:32" x14ac:dyDescent="0.3">
+    <row r="85" spans="9:34" x14ac:dyDescent="0.3">
       <c r="I85" s="3" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="86" spans="9:32" x14ac:dyDescent="0.3">
+    <row r="86" spans="9:34" x14ac:dyDescent="0.3">
       <c r="I86" s="3" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="87" spans="9:32" x14ac:dyDescent="0.3">
+    <row r="87" spans="9:34" x14ac:dyDescent="0.3">
       <c r="I87" s="3" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="88" spans="9:32" x14ac:dyDescent="0.3">
+    <row r="88" spans="9:34" x14ac:dyDescent="0.3">
       <c r="I88" s="19" t="s">
         <v>280</v>
       </c>
     </row>
-    <row r="90" spans="9:32" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="90" spans="9:34" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="J90" s="19"/>
       <c r="L90" s="19"/>
       <c r="P90" s="19"/>
@@ -4079,6 +4117,7 @@
       <c r="AB90" s="19"/>
       <c r="AD90" s="19"/>
       <c r="AF90" s="19"/>
+      <c r="AH90" s="19"/>
     </row>
     <row r="115" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A115" s="1"/>
